--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10103_TOPメニュー.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10103_TOPメニュー.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0FA11D-C17F-40E1-ACC0-AFA1518F82B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834E756-8CF8-4C7B-9AC4-2217FC8B89F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="445" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -24,15 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2. 取引単体'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1358,16 +1350,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面遷移パターン(※1)</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UI部品動作確認</t>
     <rPh sb="2" eb="4">
       <t>ブヒン</t>
@@ -2829,6 +2811,16 @@
   </si>
   <si>
     <t>シナリオID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移パターン</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6075,6 +6067,84 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -6184,84 +6254,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7129,7 +7121,9 @@
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
@@ -7748,57 +7742,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="391" t="s">
+      <c r="A1" s="417" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="400" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="395"/>
-      <c r="G1" s="395"/>
-      <c r="H1" s="395"/>
-      <c r="I1" s="395"/>
-      <c r="J1" s="395"/>
-      <c r="K1" s="395"/>
-      <c r="L1" s="395"/>
-      <c r="M1" s="395"/>
-      <c r="N1" s="396"/>
-      <c r="O1" s="401" t="s">
+      <c r="B1" s="418"/>
+      <c r="C1" s="418"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="426" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="421"/>
+      <c r="G1" s="421"/>
+      <c r="H1" s="421"/>
+      <c r="I1" s="421"/>
+      <c r="J1" s="421"/>
+      <c r="K1" s="421"/>
+      <c r="L1" s="421"/>
+      <c r="M1" s="421"/>
+      <c r="N1" s="422"/>
+      <c r="O1" s="427" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="402"/>
-      <c r="Q1" s="402"/>
-      <c r="R1" s="403"/>
-      <c r="S1" s="410" t="s">
+      <c r="P1" s="428"/>
+      <c r="Q1" s="428"/>
+      <c r="R1" s="429"/>
+      <c r="S1" s="436" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="411"/>
-      <c r="U1" s="411"/>
-      <c r="V1" s="411"/>
-      <c r="W1" s="411"/>
-      <c r="X1" s="411"/>
-      <c r="Y1" s="411"/>
-      <c r="Z1" s="412"/>
-      <c r="AA1" s="391" t="s">
+      <c r="T1" s="437"/>
+      <c r="U1" s="437"/>
+      <c r="V1" s="437"/>
+      <c r="W1" s="437"/>
+      <c r="X1" s="437"/>
+      <c r="Y1" s="437"/>
+      <c r="Z1" s="438"/>
+      <c r="AA1" s="417" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="393"/>
-      <c r="AC1" s="419" t="str">
+      <c r="AB1" s="419"/>
+      <c r="AC1" s="445" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="420"/>
-      <c r="AE1" s="420"/>
-      <c r="AF1" s="421"/>
-      <c r="AG1" s="385">
+      <c r="AD1" s="446"/>
+      <c r="AE1" s="446"/>
+      <c r="AF1" s="447"/>
+      <c r="AG1" s="411">
         <f>IF(D8="","",D8)</f>
         <v>43657</v>
       </c>
-      <c r="AH1" s="386"/>
-      <c r="AI1" s="387"/>
+      <c r="AH1" s="412"/>
+      <c r="AI1" s="413"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -7806,53 +7800,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="391" t="s">
+      <c r="A2" s="417" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="394" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="395"/>
-      <c r="G2" s="395"/>
-      <c r="H2" s="395"/>
-      <c r="I2" s="395"/>
-      <c r="J2" s="395"/>
-      <c r="K2" s="395"/>
-      <c r="L2" s="395"/>
-      <c r="M2" s="395"/>
-      <c r="N2" s="396"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="405"/>
-      <c r="Q2" s="405"/>
-      <c r="R2" s="406"/>
-      <c r="S2" s="413"/>
-      <c r="T2" s="414"/>
-      <c r="U2" s="414"/>
-      <c r="V2" s="414"/>
-      <c r="W2" s="414"/>
-      <c r="X2" s="414"/>
-      <c r="Y2" s="414"/>
-      <c r="Z2" s="415"/>
-      <c r="AA2" s="391" t="s">
+      <c r="B2" s="418"/>
+      <c r="C2" s="418"/>
+      <c r="D2" s="419"/>
+      <c r="E2" s="420" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="421"/>
+      <c r="G2" s="421"/>
+      <c r="H2" s="421"/>
+      <c r="I2" s="421"/>
+      <c r="J2" s="421"/>
+      <c r="K2" s="421"/>
+      <c r="L2" s="421"/>
+      <c r="M2" s="421"/>
+      <c r="N2" s="422"/>
+      <c r="O2" s="430"/>
+      <c r="P2" s="431"/>
+      <c r="Q2" s="431"/>
+      <c r="R2" s="432"/>
+      <c r="S2" s="439"/>
+      <c r="T2" s="440"/>
+      <c r="U2" s="440"/>
+      <c r="V2" s="440"/>
+      <c r="W2" s="440"/>
+      <c r="X2" s="440"/>
+      <c r="Y2" s="440"/>
+      <c r="Z2" s="441"/>
+      <c r="AA2" s="417" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="393"/>
-      <c r="AC2" s="397" t="str">
+      <c r="AB2" s="419"/>
+      <c r="AC2" s="423" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="398"/>
-      <c r="AE2" s="398"/>
-      <c r="AF2" s="399"/>
-      <c r="AG2" s="385" t="str">
+      <c r="AD2" s="424"/>
+      <c r="AE2" s="424"/>
+      <c r="AF2" s="425"/>
+      <c r="AG2" s="411" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="386"/>
-      <c r="AI2" s="387"/>
+      <c r="AH2" s="412"/>
+      <c r="AI2" s="413"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -7860,45 +7854,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="391" t="s">
+      <c r="A3" s="417" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="392"/>
-      <c r="C3" s="392"/>
-      <c r="D3" s="393"/>
-      <c r="E3" s="394" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
-      <c r="K3" s="395"/>
-      <c r="L3" s="395"/>
-      <c r="M3" s="395"/>
-      <c r="N3" s="396"/>
-      <c r="O3" s="407"/>
-      <c r="P3" s="408"/>
-      <c r="Q3" s="408"/>
-      <c r="R3" s="409"/>
-      <c r="S3" s="416"/>
-      <c r="T3" s="417"/>
-      <c r="U3" s="417"/>
-      <c r="V3" s="417"/>
-      <c r="W3" s="417"/>
-      <c r="X3" s="417"/>
-      <c r="Y3" s="417"/>
-      <c r="Z3" s="418"/>
-      <c r="AA3" s="391"/>
-      <c r="AB3" s="393"/>
-      <c r="AC3" s="419"/>
-      <c r="AD3" s="420"/>
-      <c r="AE3" s="420"/>
-      <c r="AF3" s="421"/>
-      <c r="AG3" s="385"/>
-      <c r="AH3" s="386"/>
-      <c r="AI3" s="387"/>
+      <c r="B3" s="418"/>
+      <c r="C3" s="418"/>
+      <c r="D3" s="419"/>
+      <c r="E3" s="420" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="421"/>
+      <c r="G3" s="421"/>
+      <c r="H3" s="421"/>
+      <c r="I3" s="421"/>
+      <c r="J3" s="421"/>
+      <c r="K3" s="421"/>
+      <c r="L3" s="421"/>
+      <c r="M3" s="421"/>
+      <c r="N3" s="422"/>
+      <c r="O3" s="433"/>
+      <c r="P3" s="434"/>
+      <c r="Q3" s="434"/>
+      <c r="R3" s="435"/>
+      <c r="S3" s="442"/>
+      <c r="T3" s="443"/>
+      <c r="U3" s="443"/>
+      <c r="V3" s="443"/>
+      <c r="W3" s="443"/>
+      <c r="X3" s="443"/>
+      <c r="Y3" s="443"/>
+      <c r="Z3" s="444"/>
+      <c r="AA3" s="417"/>
+      <c r="AB3" s="419"/>
+      <c r="AC3" s="445"/>
+      <c r="AD3" s="446"/>
+      <c r="AE3" s="446"/>
+      <c r="AF3" s="447"/>
+      <c r="AG3" s="411"/>
+      <c r="AH3" s="412"/>
+      <c r="AI3" s="413"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7935,1190 +7929,1034 @@
       <c r="A7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="388" t="s">
+      <c r="B7" s="414" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="389"/>
-      <c r="D7" s="388" t="s">
+      <c r="C7" s="415"/>
+      <c r="D7" s="414" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="390"/>
-      <c r="F7" s="389"/>
-      <c r="G7" s="388" t="s">
+      <c r="E7" s="416"/>
+      <c r="F7" s="415"/>
+      <c r="G7" s="414" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="390"/>
-      <c r="I7" s="389"/>
-      <c r="J7" s="388" t="s">
+      <c r="H7" s="416"/>
+      <c r="I7" s="415"/>
+      <c r="J7" s="414" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="390"/>
-      <c r="L7" s="390"/>
-      <c r="M7" s="390"/>
-      <c r="N7" s="390"/>
-      <c r="O7" s="390"/>
-      <c r="P7" s="389"/>
-      <c r="Q7" s="388" t="s">
+      <c r="K7" s="416"/>
+      <c r="L7" s="416"/>
+      <c r="M7" s="416"/>
+      <c r="N7" s="416"/>
+      <c r="O7" s="416"/>
+      <c r="P7" s="415"/>
+      <c r="Q7" s="414" t="s">
         <v>117</v>
       </c>
-      <c r="R7" s="390"/>
-      <c r="S7" s="390"/>
-      <c r="T7" s="390"/>
-      <c r="U7" s="390"/>
-      <c r="V7" s="390"/>
-      <c r="W7" s="390"/>
-      <c r="X7" s="390"/>
-      <c r="Y7" s="390"/>
-      <c r="Z7" s="390"/>
-      <c r="AA7" s="390"/>
-      <c r="AB7" s="390"/>
-      <c r="AC7" s="390"/>
-      <c r="AD7" s="390"/>
-      <c r="AE7" s="389"/>
-      <c r="AF7" s="388" t="s">
+      <c r="R7" s="416"/>
+      <c r="S7" s="416"/>
+      <c r="T7" s="416"/>
+      <c r="U7" s="416"/>
+      <c r="V7" s="416"/>
+      <c r="W7" s="416"/>
+      <c r="X7" s="416"/>
+      <c r="Y7" s="416"/>
+      <c r="Z7" s="416"/>
+      <c r="AA7" s="416"/>
+      <c r="AB7" s="416"/>
+      <c r="AC7" s="416"/>
+      <c r="AD7" s="416"/>
+      <c r="AE7" s="415"/>
+      <c r="AF7" s="414" t="s">
         <v>118</v>
       </c>
-      <c r="AG7" s="390"/>
-      <c r="AH7" s="390"/>
-      <c r="AI7" s="389"/>
+      <c r="AG7" s="416"/>
+      <c r="AH7" s="416"/>
+      <c r="AI7" s="415"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="434" t="s">
+      <c r="B8" s="398" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="399"/>
+      <c r="D8" s="400">
+        <v>43657</v>
+      </c>
+      <c r="E8" s="401"/>
+      <c r="F8" s="402"/>
+      <c r="G8" s="403" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="435"/>
-      <c r="D8" s="436">
-        <v>43657</v>
-      </c>
-      <c r="E8" s="437"/>
-      <c r="F8" s="438"/>
-      <c r="G8" s="439" t="s">
+      <c r="H8" s="404"/>
+      <c r="I8" s="399"/>
+      <c r="J8" s="405" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="440"/>
-      <c r="I8" s="435"/>
-      <c r="J8" s="441" t="s">
+      <c r="K8" s="406"/>
+      <c r="L8" s="406"/>
+      <c r="M8" s="406"/>
+      <c r="N8" s="406"/>
+      <c r="O8" s="406"/>
+      <c r="P8" s="407"/>
+      <c r="Q8" s="408" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="442"/>
-      <c r="L8" s="442"/>
-      <c r="M8" s="442"/>
-      <c r="N8" s="442"/>
-      <c r="O8" s="442"/>
-      <c r="P8" s="443"/>
-      <c r="Q8" s="444" t="s">
+      <c r="R8" s="409"/>
+      <c r="S8" s="409"/>
+      <c r="T8" s="409"/>
+      <c r="U8" s="409"/>
+      <c r="V8" s="409"/>
+      <c r="W8" s="409"/>
+      <c r="X8" s="409"/>
+      <c r="Y8" s="409"/>
+      <c r="Z8" s="409"/>
+      <c r="AA8" s="409"/>
+      <c r="AB8" s="409"/>
+      <c r="AC8" s="409"/>
+      <c r="AD8" s="409"/>
+      <c r="AE8" s="410"/>
+      <c r="AF8" s="405" t="s">
         <v>154</v>
       </c>
-      <c r="R8" s="445"/>
-      <c r="S8" s="445"/>
-      <c r="T8" s="445"/>
-      <c r="U8" s="445"/>
-      <c r="V8" s="445"/>
-      <c r="W8" s="445"/>
-      <c r="X8" s="445"/>
-      <c r="Y8" s="445"/>
-      <c r="Z8" s="445"/>
-      <c r="AA8" s="445"/>
-      <c r="AB8" s="445"/>
-      <c r="AC8" s="445"/>
-      <c r="AD8" s="445"/>
-      <c r="AE8" s="446"/>
-      <c r="AF8" s="441" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG8" s="442"/>
-      <c r="AH8" s="442"/>
-      <c r="AI8" s="443"/>
+      <c r="AG8" s="406"/>
+      <c r="AH8" s="406"/>
+      <c r="AI8" s="407"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="422"/>
-      <c r="C9" s="423"/>
-      <c r="D9" s="424"/>
-      <c r="E9" s="425"/>
-      <c r="F9" s="426"/>
-      <c r="G9" s="424"/>
-      <c r="H9" s="427"/>
-      <c r="I9" s="423"/>
-      <c r="J9" s="428"/>
-      <c r="K9" s="429"/>
-      <c r="L9" s="429"/>
-      <c r="M9" s="429"/>
-      <c r="N9" s="429"/>
-      <c r="O9" s="429"/>
-      <c r="P9" s="430"/>
-      <c r="Q9" s="431"/>
-      <c r="R9" s="432"/>
-      <c r="S9" s="432"/>
-      <c r="T9" s="432"/>
-      <c r="U9" s="432"/>
-      <c r="V9" s="432"/>
-      <c r="W9" s="432"/>
-      <c r="X9" s="432"/>
-      <c r="Y9" s="432"/>
-      <c r="Z9" s="432"/>
-      <c r="AA9" s="432"/>
-      <c r="AB9" s="432"/>
-      <c r="AC9" s="432"/>
-      <c r="AD9" s="432"/>
-      <c r="AE9" s="433"/>
-      <c r="AF9" s="428"/>
-      <c r="AG9" s="429"/>
-      <c r="AH9" s="429"/>
-      <c r="AI9" s="430"/>
+      <c r="B9" s="385"/>
+      <c r="C9" s="386"/>
+      <c r="D9" s="387"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="389"/>
+      <c r="G9" s="387"/>
+      <c r="H9" s="390"/>
+      <c r="I9" s="386"/>
+      <c r="J9" s="391"/>
+      <c r="K9" s="392"/>
+      <c r="L9" s="392"/>
+      <c r="M9" s="392"/>
+      <c r="N9" s="392"/>
+      <c r="O9" s="392"/>
+      <c r="P9" s="393"/>
+      <c r="Q9" s="394"/>
+      <c r="R9" s="395"/>
+      <c r="S9" s="395"/>
+      <c r="T9" s="395"/>
+      <c r="U9" s="395"/>
+      <c r="V9" s="395"/>
+      <c r="W9" s="395"/>
+      <c r="X9" s="395"/>
+      <c r="Y9" s="395"/>
+      <c r="Z9" s="395"/>
+      <c r="AA9" s="395"/>
+      <c r="AB9" s="395"/>
+      <c r="AC9" s="395"/>
+      <c r="AD9" s="395"/>
+      <c r="AE9" s="396"/>
+      <c r="AF9" s="391"/>
+      <c r="AG9" s="392"/>
+      <c r="AH9" s="392"/>
+      <c r="AI9" s="393"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="422"/>
-      <c r="C10" s="423"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="425"/>
-      <c r="F10" s="426"/>
-      <c r="G10" s="422"/>
-      <c r="H10" s="427"/>
-      <c r="I10" s="423"/>
-      <c r="J10" s="428"/>
-      <c r="K10" s="429"/>
-      <c r="L10" s="429"/>
-      <c r="M10" s="429"/>
-      <c r="N10" s="429"/>
-      <c r="O10" s="429"/>
-      <c r="P10" s="430"/>
-      <c r="Q10" s="431"/>
-      <c r="R10" s="432"/>
-      <c r="S10" s="432"/>
-      <c r="T10" s="432"/>
-      <c r="U10" s="432"/>
-      <c r="V10" s="432"/>
-      <c r="W10" s="432"/>
-      <c r="X10" s="432"/>
-      <c r="Y10" s="432"/>
-      <c r="Z10" s="432"/>
-      <c r="AA10" s="432"/>
-      <c r="AB10" s="432"/>
-      <c r="AC10" s="432"/>
-      <c r="AD10" s="432"/>
-      <c r="AE10" s="433"/>
-      <c r="AF10" s="428"/>
-      <c r="AG10" s="429"/>
-      <c r="AH10" s="429"/>
-      <c r="AI10" s="430"/>
+      <c r="B10" s="385"/>
+      <c r="C10" s="386"/>
+      <c r="D10" s="387"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="389"/>
+      <c r="G10" s="385"/>
+      <c r="H10" s="390"/>
+      <c r="I10" s="386"/>
+      <c r="J10" s="391"/>
+      <c r="K10" s="392"/>
+      <c r="L10" s="392"/>
+      <c r="M10" s="392"/>
+      <c r="N10" s="392"/>
+      <c r="O10" s="392"/>
+      <c r="P10" s="393"/>
+      <c r="Q10" s="394"/>
+      <c r="R10" s="395"/>
+      <c r="S10" s="395"/>
+      <c r="T10" s="395"/>
+      <c r="U10" s="395"/>
+      <c r="V10" s="395"/>
+      <c r="W10" s="395"/>
+      <c r="X10" s="395"/>
+      <c r="Y10" s="395"/>
+      <c r="Z10" s="395"/>
+      <c r="AA10" s="395"/>
+      <c r="AB10" s="395"/>
+      <c r="AC10" s="395"/>
+      <c r="AD10" s="395"/>
+      <c r="AE10" s="396"/>
+      <c r="AF10" s="391"/>
+      <c r="AG10" s="392"/>
+      <c r="AH10" s="392"/>
+      <c r="AI10" s="393"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="422"/>
-      <c r="C11" s="423"/>
-      <c r="D11" s="424"/>
-      <c r="E11" s="425"/>
-      <c r="F11" s="426"/>
-      <c r="G11" s="422"/>
-      <c r="H11" s="427"/>
-      <c r="I11" s="423"/>
-      <c r="J11" s="428"/>
-      <c r="K11" s="429"/>
-      <c r="L11" s="429"/>
-      <c r="M11" s="429"/>
-      <c r="N11" s="429"/>
-      <c r="O11" s="429"/>
-      <c r="P11" s="430"/>
-      <c r="Q11" s="431"/>
-      <c r="R11" s="432"/>
-      <c r="S11" s="432"/>
-      <c r="T11" s="432"/>
-      <c r="U11" s="432"/>
-      <c r="V11" s="432"/>
-      <c r="W11" s="432"/>
-      <c r="X11" s="432"/>
-      <c r="Y11" s="432"/>
-      <c r="Z11" s="432"/>
-      <c r="AA11" s="432"/>
-      <c r="AB11" s="432"/>
-      <c r="AC11" s="432"/>
-      <c r="AD11" s="432"/>
-      <c r="AE11" s="433"/>
-      <c r="AF11" s="428"/>
-      <c r="AG11" s="429"/>
-      <c r="AH11" s="429"/>
-      <c r="AI11" s="430"/>
+      <c r="B11" s="385"/>
+      <c r="C11" s="386"/>
+      <c r="D11" s="387"/>
+      <c r="E11" s="388"/>
+      <c r="F11" s="389"/>
+      <c r="G11" s="385"/>
+      <c r="H11" s="390"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="391"/>
+      <c r="K11" s="392"/>
+      <c r="L11" s="392"/>
+      <c r="M11" s="392"/>
+      <c r="N11" s="392"/>
+      <c r="O11" s="392"/>
+      <c r="P11" s="393"/>
+      <c r="Q11" s="394"/>
+      <c r="R11" s="395"/>
+      <c r="S11" s="395"/>
+      <c r="T11" s="395"/>
+      <c r="U11" s="395"/>
+      <c r="V11" s="395"/>
+      <c r="W11" s="395"/>
+      <c r="X11" s="395"/>
+      <c r="Y11" s="395"/>
+      <c r="Z11" s="395"/>
+      <c r="AA11" s="395"/>
+      <c r="AB11" s="395"/>
+      <c r="AC11" s="395"/>
+      <c r="AD11" s="395"/>
+      <c r="AE11" s="396"/>
+      <c r="AF11" s="391"/>
+      <c r="AG11" s="392"/>
+      <c r="AH11" s="392"/>
+      <c r="AI11" s="393"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="422"/>
-      <c r="C12" s="423"/>
-      <c r="D12" s="424"/>
-      <c r="E12" s="425"/>
-      <c r="F12" s="426"/>
-      <c r="G12" s="422"/>
-      <c r="H12" s="427"/>
-      <c r="I12" s="423"/>
-      <c r="J12" s="428"/>
-      <c r="K12" s="429"/>
-      <c r="L12" s="429"/>
-      <c r="M12" s="429"/>
-      <c r="N12" s="429"/>
-      <c r="O12" s="429"/>
-      <c r="P12" s="430"/>
-      <c r="Q12" s="431"/>
-      <c r="R12" s="432"/>
-      <c r="S12" s="432"/>
-      <c r="T12" s="432"/>
-      <c r="U12" s="432"/>
-      <c r="V12" s="432"/>
-      <c r="W12" s="432"/>
-      <c r="X12" s="432"/>
-      <c r="Y12" s="432"/>
-      <c r="Z12" s="432"/>
-      <c r="AA12" s="432"/>
-      <c r="AB12" s="432"/>
-      <c r="AC12" s="432"/>
-      <c r="AD12" s="432"/>
-      <c r="AE12" s="433"/>
-      <c r="AF12" s="428"/>
-      <c r="AG12" s="429"/>
-      <c r="AH12" s="429"/>
-      <c r="AI12" s="430"/>
+      <c r="B12" s="385"/>
+      <c r="C12" s="386"/>
+      <c r="D12" s="387"/>
+      <c r="E12" s="388"/>
+      <c r="F12" s="389"/>
+      <c r="G12" s="385"/>
+      <c r="H12" s="390"/>
+      <c r="I12" s="386"/>
+      <c r="J12" s="391"/>
+      <c r="K12" s="392"/>
+      <c r="L12" s="392"/>
+      <c r="M12" s="392"/>
+      <c r="N12" s="392"/>
+      <c r="O12" s="392"/>
+      <c r="P12" s="393"/>
+      <c r="Q12" s="394"/>
+      <c r="R12" s="395"/>
+      <c r="S12" s="395"/>
+      <c r="T12" s="395"/>
+      <c r="U12" s="395"/>
+      <c r="V12" s="395"/>
+      <c r="W12" s="395"/>
+      <c r="X12" s="395"/>
+      <c r="Y12" s="395"/>
+      <c r="Z12" s="395"/>
+      <c r="AA12" s="395"/>
+      <c r="AB12" s="395"/>
+      <c r="AC12" s="395"/>
+      <c r="AD12" s="395"/>
+      <c r="AE12" s="396"/>
+      <c r="AF12" s="391"/>
+      <c r="AG12" s="392"/>
+      <c r="AH12" s="392"/>
+      <c r="AI12" s="393"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="422"/>
-      <c r="C13" s="423"/>
-      <c r="D13" s="424"/>
-      <c r="E13" s="425"/>
-      <c r="F13" s="426"/>
-      <c r="G13" s="422"/>
-      <c r="H13" s="427"/>
-      <c r="I13" s="423"/>
-      <c r="J13" s="428"/>
-      <c r="K13" s="429"/>
-      <c r="L13" s="429"/>
-      <c r="M13" s="429"/>
-      <c r="N13" s="429"/>
-      <c r="O13" s="429"/>
-      <c r="P13" s="430"/>
-      <c r="Q13" s="431"/>
-      <c r="R13" s="432"/>
-      <c r="S13" s="432"/>
-      <c r="T13" s="432"/>
-      <c r="U13" s="432"/>
-      <c r="V13" s="432"/>
-      <c r="W13" s="432"/>
-      <c r="X13" s="432"/>
-      <c r="Y13" s="432"/>
-      <c r="Z13" s="432"/>
-      <c r="AA13" s="432"/>
-      <c r="AB13" s="432"/>
-      <c r="AC13" s="432"/>
-      <c r="AD13" s="432"/>
-      <c r="AE13" s="433"/>
-      <c r="AF13" s="428"/>
-      <c r="AG13" s="429"/>
-      <c r="AH13" s="429"/>
-      <c r="AI13" s="430"/>
+      <c r="B13" s="385"/>
+      <c r="C13" s="386"/>
+      <c r="D13" s="387"/>
+      <c r="E13" s="388"/>
+      <c r="F13" s="389"/>
+      <c r="G13" s="385"/>
+      <c r="H13" s="390"/>
+      <c r="I13" s="386"/>
+      <c r="J13" s="391"/>
+      <c r="K13" s="392"/>
+      <c r="L13" s="392"/>
+      <c r="M13" s="392"/>
+      <c r="N13" s="392"/>
+      <c r="O13" s="392"/>
+      <c r="P13" s="393"/>
+      <c r="Q13" s="394"/>
+      <c r="R13" s="395"/>
+      <c r="S13" s="395"/>
+      <c r="T13" s="395"/>
+      <c r="U13" s="395"/>
+      <c r="V13" s="395"/>
+      <c r="W13" s="395"/>
+      <c r="X13" s="395"/>
+      <c r="Y13" s="395"/>
+      <c r="Z13" s="395"/>
+      <c r="AA13" s="395"/>
+      <c r="AB13" s="395"/>
+      <c r="AC13" s="395"/>
+      <c r="AD13" s="395"/>
+      <c r="AE13" s="396"/>
+      <c r="AF13" s="391"/>
+      <c r="AG13" s="392"/>
+      <c r="AH13" s="392"/>
+      <c r="AI13" s="393"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="422"/>
-      <c r="C14" s="423"/>
-      <c r="D14" s="424"/>
-      <c r="E14" s="425"/>
-      <c r="F14" s="426"/>
-      <c r="G14" s="422"/>
-      <c r="H14" s="427"/>
-      <c r="I14" s="423"/>
-      <c r="J14" s="428"/>
-      <c r="K14" s="429"/>
-      <c r="L14" s="429"/>
-      <c r="M14" s="429"/>
-      <c r="N14" s="429"/>
-      <c r="O14" s="429"/>
-      <c r="P14" s="430"/>
-      <c r="Q14" s="431"/>
-      <c r="R14" s="432"/>
-      <c r="S14" s="432"/>
-      <c r="T14" s="432"/>
-      <c r="U14" s="432"/>
-      <c r="V14" s="432"/>
-      <c r="W14" s="432"/>
-      <c r="X14" s="432"/>
-      <c r="Y14" s="432"/>
-      <c r="Z14" s="432"/>
-      <c r="AA14" s="432"/>
-      <c r="AB14" s="432"/>
-      <c r="AC14" s="432"/>
-      <c r="AD14" s="432"/>
-      <c r="AE14" s="433"/>
-      <c r="AF14" s="428"/>
-      <c r="AG14" s="429"/>
-      <c r="AH14" s="429"/>
-      <c r="AI14" s="430"/>
+      <c r="B14" s="385"/>
+      <c r="C14" s="386"/>
+      <c r="D14" s="387"/>
+      <c r="E14" s="388"/>
+      <c r="F14" s="389"/>
+      <c r="G14" s="385"/>
+      <c r="H14" s="390"/>
+      <c r="I14" s="386"/>
+      <c r="J14" s="391"/>
+      <c r="K14" s="392"/>
+      <c r="L14" s="392"/>
+      <c r="M14" s="392"/>
+      <c r="N14" s="392"/>
+      <c r="O14" s="392"/>
+      <c r="P14" s="393"/>
+      <c r="Q14" s="394"/>
+      <c r="R14" s="395"/>
+      <c r="S14" s="395"/>
+      <c r="T14" s="395"/>
+      <c r="U14" s="395"/>
+      <c r="V14" s="395"/>
+      <c r="W14" s="395"/>
+      <c r="X14" s="395"/>
+      <c r="Y14" s="395"/>
+      <c r="Z14" s="395"/>
+      <c r="AA14" s="395"/>
+      <c r="AB14" s="395"/>
+      <c r="AC14" s="395"/>
+      <c r="AD14" s="395"/>
+      <c r="AE14" s="396"/>
+      <c r="AF14" s="391"/>
+      <c r="AG14" s="392"/>
+      <c r="AH14" s="392"/>
+      <c r="AI14" s="393"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="422"/>
-      <c r="C15" s="423"/>
-      <c r="D15" s="424"/>
-      <c r="E15" s="425"/>
-      <c r="F15" s="426"/>
-      <c r="G15" s="422"/>
-      <c r="H15" s="427"/>
-      <c r="I15" s="423"/>
-      <c r="J15" s="428"/>
-      <c r="K15" s="429"/>
-      <c r="L15" s="429"/>
-      <c r="M15" s="429"/>
-      <c r="N15" s="429"/>
-      <c r="O15" s="429"/>
-      <c r="P15" s="430"/>
-      <c r="Q15" s="431"/>
-      <c r="R15" s="432"/>
-      <c r="S15" s="432"/>
-      <c r="T15" s="432"/>
-      <c r="U15" s="432"/>
-      <c r="V15" s="432"/>
-      <c r="W15" s="432"/>
-      <c r="X15" s="432"/>
-      <c r="Y15" s="432"/>
-      <c r="Z15" s="432"/>
-      <c r="AA15" s="432"/>
-      <c r="AB15" s="432"/>
-      <c r="AC15" s="432"/>
-      <c r="AD15" s="432"/>
-      <c r="AE15" s="433"/>
-      <c r="AF15" s="428"/>
-      <c r="AG15" s="429"/>
-      <c r="AH15" s="429"/>
-      <c r="AI15" s="430"/>
+      <c r="B15" s="385"/>
+      <c r="C15" s="386"/>
+      <c r="D15" s="387"/>
+      <c r="E15" s="388"/>
+      <c r="F15" s="389"/>
+      <c r="G15" s="385"/>
+      <c r="H15" s="390"/>
+      <c r="I15" s="386"/>
+      <c r="J15" s="391"/>
+      <c r="K15" s="392"/>
+      <c r="L15" s="392"/>
+      <c r="M15" s="392"/>
+      <c r="N15" s="392"/>
+      <c r="O15" s="392"/>
+      <c r="P15" s="393"/>
+      <c r="Q15" s="394"/>
+      <c r="R15" s="395"/>
+      <c r="S15" s="395"/>
+      <c r="T15" s="395"/>
+      <c r="U15" s="395"/>
+      <c r="V15" s="395"/>
+      <c r="W15" s="395"/>
+      <c r="X15" s="395"/>
+      <c r="Y15" s="395"/>
+      <c r="Z15" s="395"/>
+      <c r="AA15" s="395"/>
+      <c r="AB15" s="395"/>
+      <c r="AC15" s="395"/>
+      <c r="AD15" s="395"/>
+      <c r="AE15" s="396"/>
+      <c r="AF15" s="391"/>
+      <c r="AG15" s="392"/>
+      <c r="AH15" s="392"/>
+      <c r="AI15" s="393"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="422"/>
-      <c r="C16" s="423"/>
-      <c r="D16" s="424"/>
-      <c r="E16" s="425"/>
-      <c r="F16" s="426"/>
-      <c r="G16" s="422"/>
-      <c r="H16" s="427"/>
-      <c r="I16" s="423"/>
-      <c r="J16" s="428"/>
-      <c r="K16" s="429"/>
-      <c r="L16" s="429"/>
-      <c r="M16" s="429"/>
-      <c r="N16" s="429"/>
-      <c r="O16" s="429"/>
-      <c r="P16" s="430"/>
-      <c r="Q16" s="431"/>
-      <c r="R16" s="432"/>
-      <c r="S16" s="432"/>
-      <c r="T16" s="432"/>
-      <c r="U16" s="432"/>
-      <c r="V16" s="432"/>
-      <c r="W16" s="432"/>
-      <c r="X16" s="432"/>
-      <c r="Y16" s="432"/>
-      <c r="Z16" s="432"/>
-      <c r="AA16" s="432"/>
-      <c r="AB16" s="432"/>
-      <c r="AC16" s="432"/>
-      <c r="AD16" s="432"/>
-      <c r="AE16" s="433"/>
-      <c r="AF16" s="428"/>
-      <c r="AG16" s="429"/>
-      <c r="AH16" s="429"/>
-      <c r="AI16" s="430"/>
+      <c r="B16" s="385"/>
+      <c r="C16" s="386"/>
+      <c r="D16" s="387"/>
+      <c r="E16" s="388"/>
+      <c r="F16" s="389"/>
+      <c r="G16" s="385"/>
+      <c r="H16" s="390"/>
+      <c r="I16" s="386"/>
+      <c r="J16" s="391"/>
+      <c r="K16" s="392"/>
+      <c r="L16" s="392"/>
+      <c r="M16" s="392"/>
+      <c r="N16" s="392"/>
+      <c r="O16" s="392"/>
+      <c r="P16" s="393"/>
+      <c r="Q16" s="394"/>
+      <c r="R16" s="395"/>
+      <c r="S16" s="395"/>
+      <c r="T16" s="395"/>
+      <c r="U16" s="395"/>
+      <c r="V16" s="395"/>
+      <c r="W16" s="395"/>
+      <c r="X16" s="395"/>
+      <c r="Y16" s="395"/>
+      <c r="Z16" s="395"/>
+      <c r="AA16" s="395"/>
+      <c r="AB16" s="395"/>
+      <c r="AC16" s="395"/>
+      <c r="AD16" s="395"/>
+      <c r="AE16" s="396"/>
+      <c r="AF16" s="391"/>
+      <c r="AG16" s="392"/>
+      <c r="AH16" s="392"/>
+      <c r="AI16" s="393"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="422"/>
-      <c r="C17" s="423"/>
-      <c r="D17" s="424"/>
-      <c r="E17" s="425"/>
-      <c r="F17" s="426"/>
-      <c r="G17" s="422"/>
-      <c r="H17" s="427"/>
-      <c r="I17" s="423"/>
-      <c r="J17" s="428"/>
-      <c r="K17" s="429"/>
-      <c r="L17" s="429"/>
-      <c r="M17" s="429"/>
-      <c r="N17" s="429"/>
-      <c r="O17" s="429"/>
-      <c r="P17" s="430"/>
-      <c r="Q17" s="431"/>
-      <c r="R17" s="432"/>
-      <c r="S17" s="432"/>
-      <c r="T17" s="432"/>
-      <c r="U17" s="432"/>
-      <c r="V17" s="432"/>
-      <c r="W17" s="432"/>
-      <c r="X17" s="432"/>
-      <c r="Y17" s="432"/>
-      <c r="Z17" s="432"/>
-      <c r="AA17" s="432"/>
-      <c r="AB17" s="432"/>
-      <c r="AC17" s="432"/>
-      <c r="AD17" s="432"/>
-      <c r="AE17" s="433"/>
-      <c r="AF17" s="428"/>
-      <c r="AG17" s="429"/>
-      <c r="AH17" s="429"/>
-      <c r="AI17" s="430"/>
+      <c r="B17" s="385"/>
+      <c r="C17" s="386"/>
+      <c r="D17" s="387"/>
+      <c r="E17" s="388"/>
+      <c r="F17" s="389"/>
+      <c r="G17" s="385"/>
+      <c r="H17" s="390"/>
+      <c r="I17" s="386"/>
+      <c r="J17" s="391"/>
+      <c r="K17" s="392"/>
+      <c r="L17" s="392"/>
+      <c r="M17" s="392"/>
+      <c r="N17" s="392"/>
+      <c r="O17" s="392"/>
+      <c r="P17" s="393"/>
+      <c r="Q17" s="394"/>
+      <c r="R17" s="395"/>
+      <c r="S17" s="395"/>
+      <c r="T17" s="395"/>
+      <c r="U17" s="395"/>
+      <c r="V17" s="395"/>
+      <c r="W17" s="395"/>
+      <c r="X17" s="395"/>
+      <c r="Y17" s="395"/>
+      <c r="Z17" s="395"/>
+      <c r="AA17" s="395"/>
+      <c r="AB17" s="395"/>
+      <c r="AC17" s="395"/>
+      <c r="AD17" s="395"/>
+      <c r="AE17" s="396"/>
+      <c r="AF17" s="391"/>
+      <c r="AG17" s="392"/>
+      <c r="AH17" s="392"/>
+      <c r="AI17" s="393"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="422"/>
-      <c r="C18" s="423"/>
-      <c r="D18" s="424"/>
-      <c r="E18" s="425"/>
-      <c r="F18" s="426"/>
-      <c r="G18" s="422"/>
-      <c r="H18" s="427"/>
-      <c r="I18" s="423"/>
-      <c r="J18" s="428"/>
-      <c r="K18" s="429"/>
-      <c r="L18" s="429"/>
-      <c r="M18" s="429"/>
-      <c r="N18" s="429"/>
-      <c r="O18" s="429"/>
-      <c r="P18" s="430"/>
-      <c r="Q18" s="431"/>
-      <c r="R18" s="432"/>
-      <c r="S18" s="432"/>
-      <c r="T18" s="432"/>
-      <c r="U18" s="432"/>
-      <c r="V18" s="432"/>
-      <c r="W18" s="432"/>
-      <c r="X18" s="432"/>
-      <c r="Y18" s="432"/>
-      <c r="Z18" s="432"/>
-      <c r="AA18" s="432"/>
-      <c r="AB18" s="432"/>
-      <c r="AC18" s="432"/>
-      <c r="AD18" s="432"/>
-      <c r="AE18" s="433"/>
-      <c r="AF18" s="428"/>
-      <c r="AG18" s="429"/>
-      <c r="AH18" s="429"/>
-      <c r="AI18" s="430"/>
+      <c r="B18" s="385"/>
+      <c r="C18" s="386"/>
+      <c r="D18" s="387"/>
+      <c r="E18" s="388"/>
+      <c r="F18" s="389"/>
+      <c r="G18" s="385"/>
+      <c r="H18" s="390"/>
+      <c r="I18" s="386"/>
+      <c r="J18" s="391"/>
+      <c r="K18" s="392"/>
+      <c r="L18" s="392"/>
+      <c r="M18" s="392"/>
+      <c r="N18" s="392"/>
+      <c r="O18" s="392"/>
+      <c r="P18" s="393"/>
+      <c r="Q18" s="394"/>
+      <c r="R18" s="395"/>
+      <c r="S18" s="395"/>
+      <c r="T18" s="395"/>
+      <c r="U18" s="395"/>
+      <c r="V18" s="395"/>
+      <c r="W18" s="395"/>
+      <c r="X18" s="395"/>
+      <c r="Y18" s="395"/>
+      <c r="Z18" s="395"/>
+      <c r="AA18" s="395"/>
+      <c r="AB18" s="395"/>
+      <c r="AC18" s="395"/>
+      <c r="AD18" s="395"/>
+      <c r="AE18" s="396"/>
+      <c r="AF18" s="391"/>
+      <c r="AG18" s="392"/>
+      <c r="AH18" s="392"/>
+      <c r="AI18" s="393"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="422"/>
-      <c r="C19" s="423"/>
-      <c r="D19" s="424"/>
-      <c r="E19" s="425"/>
-      <c r="F19" s="426"/>
-      <c r="G19" s="422"/>
-      <c r="H19" s="427"/>
-      <c r="I19" s="423"/>
-      <c r="J19" s="428"/>
-      <c r="K19" s="429"/>
-      <c r="L19" s="429"/>
-      <c r="M19" s="429"/>
-      <c r="N19" s="429"/>
-      <c r="O19" s="429"/>
-      <c r="P19" s="430"/>
-      <c r="Q19" s="431"/>
-      <c r="R19" s="432"/>
-      <c r="S19" s="432"/>
-      <c r="T19" s="432"/>
-      <c r="U19" s="432"/>
-      <c r="V19" s="432"/>
-      <c r="W19" s="432"/>
-      <c r="X19" s="432"/>
-      <c r="Y19" s="432"/>
-      <c r="Z19" s="432"/>
-      <c r="AA19" s="432"/>
-      <c r="AB19" s="432"/>
-      <c r="AC19" s="432"/>
-      <c r="AD19" s="432"/>
-      <c r="AE19" s="433"/>
-      <c r="AF19" s="428"/>
-      <c r="AG19" s="429"/>
-      <c r="AH19" s="429"/>
-      <c r="AI19" s="430"/>
+      <c r="B19" s="385"/>
+      <c r="C19" s="386"/>
+      <c r="D19" s="387"/>
+      <c r="E19" s="388"/>
+      <c r="F19" s="389"/>
+      <c r="G19" s="385"/>
+      <c r="H19" s="390"/>
+      <c r="I19" s="386"/>
+      <c r="J19" s="391"/>
+      <c r="K19" s="392"/>
+      <c r="L19" s="392"/>
+      <c r="M19" s="392"/>
+      <c r="N19" s="392"/>
+      <c r="O19" s="392"/>
+      <c r="P19" s="393"/>
+      <c r="Q19" s="394"/>
+      <c r="R19" s="395"/>
+      <c r="S19" s="395"/>
+      <c r="T19" s="395"/>
+      <c r="U19" s="395"/>
+      <c r="V19" s="395"/>
+      <c r="W19" s="395"/>
+      <c r="X19" s="395"/>
+      <c r="Y19" s="395"/>
+      <c r="Z19" s="395"/>
+      <c r="AA19" s="395"/>
+      <c r="AB19" s="395"/>
+      <c r="AC19" s="395"/>
+      <c r="AD19" s="395"/>
+      <c r="AE19" s="396"/>
+      <c r="AF19" s="391"/>
+      <c r="AG19" s="392"/>
+      <c r="AH19" s="392"/>
+      <c r="AI19" s="393"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="422"/>
-      <c r="C20" s="423"/>
-      <c r="D20" s="424"/>
-      <c r="E20" s="425"/>
-      <c r="F20" s="426"/>
-      <c r="G20" s="422"/>
-      <c r="H20" s="427"/>
-      <c r="I20" s="423"/>
-      <c r="J20" s="428"/>
-      <c r="K20" s="429"/>
-      <c r="L20" s="429"/>
-      <c r="M20" s="429"/>
-      <c r="N20" s="429"/>
-      <c r="O20" s="429"/>
-      <c r="P20" s="430"/>
-      <c r="Q20" s="431"/>
-      <c r="R20" s="432"/>
-      <c r="S20" s="432"/>
-      <c r="T20" s="432"/>
-      <c r="U20" s="432"/>
-      <c r="V20" s="432"/>
-      <c r="W20" s="432"/>
-      <c r="X20" s="432"/>
-      <c r="Y20" s="432"/>
-      <c r="Z20" s="432"/>
-      <c r="AA20" s="432"/>
-      <c r="AB20" s="432"/>
-      <c r="AC20" s="432"/>
-      <c r="AD20" s="432"/>
-      <c r="AE20" s="433"/>
-      <c r="AF20" s="428"/>
-      <c r="AG20" s="429"/>
-      <c r="AH20" s="429"/>
-      <c r="AI20" s="430"/>
+      <c r="B20" s="385"/>
+      <c r="C20" s="386"/>
+      <c r="D20" s="387"/>
+      <c r="E20" s="388"/>
+      <c r="F20" s="389"/>
+      <c r="G20" s="385"/>
+      <c r="H20" s="390"/>
+      <c r="I20" s="386"/>
+      <c r="J20" s="391"/>
+      <c r="K20" s="392"/>
+      <c r="L20" s="392"/>
+      <c r="M20" s="392"/>
+      <c r="N20" s="392"/>
+      <c r="O20" s="392"/>
+      <c r="P20" s="393"/>
+      <c r="Q20" s="394"/>
+      <c r="R20" s="395"/>
+      <c r="S20" s="395"/>
+      <c r="T20" s="395"/>
+      <c r="U20" s="395"/>
+      <c r="V20" s="395"/>
+      <c r="W20" s="395"/>
+      <c r="X20" s="395"/>
+      <c r="Y20" s="395"/>
+      <c r="Z20" s="395"/>
+      <c r="AA20" s="395"/>
+      <c r="AB20" s="395"/>
+      <c r="AC20" s="395"/>
+      <c r="AD20" s="395"/>
+      <c r="AE20" s="396"/>
+      <c r="AF20" s="391"/>
+      <c r="AG20" s="392"/>
+      <c r="AH20" s="392"/>
+      <c r="AI20" s="393"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="422"/>
-      <c r="C21" s="423"/>
-      <c r="D21" s="424"/>
-      <c r="E21" s="425"/>
-      <c r="F21" s="426"/>
-      <c r="G21" s="422"/>
-      <c r="H21" s="427"/>
-      <c r="I21" s="423"/>
-      <c r="J21" s="428"/>
-      <c r="K21" s="429"/>
-      <c r="L21" s="429"/>
-      <c r="M21" s="429"/>
-      <c r="N21" s="429"/>
-      <c r="O21" s="429"/>
-      <c r="P21" s="430"/>
-      <c r="Q21" s="431"/>
-      <c r="R21" s="432"/>
-      <c r="S21" s="432"/>
-      <c r="T21" s="432"/>
-      <c r="U21" s="432"/>
-      <c r="V21" s="432"/>
-      <c r="W21" s="432"/>
-      <c r="X21" s="432"/>
-      <c r="Y21" s="432"/>
-      <c r="Z21" s="432"/>
-      <c r="AA21" s="432"/>
-      <c r="AB21" s="432"/>
-      <c r="AC21" s="432"/>
-      <c r="AD21" s="432"/>
-      <c r="AE21" s="433"/>
-      <c r="AF21" s="428"/>
-      <c r="AG21" s="429"/>
-      <c r="AH21" s="429"/>
-      <c r="AI21" s="430"/>
+      <c r="B21" s="385"/>
+      <c r="C21" s="386"/>
+      <c r="D21" s="387"/>
+      <c r="E21" s="388"/>
+      <c r="F21" s="389"/>
+      <c r="G21" s="385"/>
+      <c r="H21" s="390"/>
+      <c r="I21" s="386"/>
+      <c r="J21" s="391"/>
+      <c r="K21" s="392"/>
+      <c r="L21" s="392"/>
+      <c r="M21" s="392"/>
+      <c r="N21" s="392"/>
+      <c r="O21" s="392"/>
+      <c r="P21" s="393"/>
+      <c r="Q21" s="394"/>
+      <c r="R21" s="395"/>
+      <c r="S21" s="395"/>
+      <c r="T21" s="395"/>
+      <c r="U21" s="395"/>
+      <c r="V21" s="395"/>
+      <c r="W21" s="395"/>
+      <c r="X21" s="395"/>
+      <c r="Y21" s="395"/>
+      <c r="Z21" s="395"/>
+      <c r="AA21" s="395"/>
+      <c r="AB21" s="395"/>
+      <c r="AC21" s="395"/>
+      <c r="AD21" s="395"/>
+      <c r="AE21" s="396"/>
+      <c r="AF21" s="391"/>
+      <c r="AG21" s="392"/>
+      <c r="AH21" s="392"/>
+      <c r="AI21" s="393"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="422"/>
-      <c r="C22" s="423"/>
-      <c r="D22" s="424"/>
-      <c r="E22" s="425"/>
-      <c r="F22" s="426"/>
-      <c r="G22" s="422"/>
-      <c r="H22" s="427"/>
-      <c r="I22" s="423"/>
-      <c r="J22" s="428"/>
-      <c r="K22" s="429"/>
-      <c r="L22" s="429"/>
-      <c r="M22" s="429"/>
-      <c r="N22" s="429"/>
-      <c r="O22" s="429"/>
-      <c r="P22" s="430"/>
-      <c r="Q22" s="431"/>
-      <c r="R22" s="432"/>
-      <c r="S22" s="432"/>
-      <c r="T22" s="432"/>
-      <c r="U22" s="432"/>
-      <c r="V22" s="432"/>
-      <c r="W22" s="432"/>
-      <c r="X22" s="432"/>
-      <c r="Y22" s="432"/>
-      <c r="Z22" s="432"/>
-      <c r="AA22" s="432"/>
-      <c r="AB22" s="432"/>
-      <c r="AC22" s="432"/>
-      <c r="AD22" s="432"/>
-      <c r="AE22" s="433"/>
-      <c r="AF22" s="428"/>
-      <c r="AG22" s="429"/>
-      <c r="AH22" s="429"/>
-      <c r="AI22" s="430"/>
+      <c r="B22" s="385"/>
+      <c r="C22" s="386"/>
+      <c r="D22" s="387"/>
+      <c r="E22" s="388"/>
+      <c r="F22" s="389"/>
+      <c r="G22" s="385"/>
+      <c r="H22" s="390"/>
+      <c r="I22" s="386"/>
+      <c r="J22" s="391"/>
+      <c r="K22" s="392"/>
+      <c r="L22" s="392"/>
+      <c r="M22" s="392"/>
+      <c r="N22" s="392"/>
+      <c r="O22" s="392"/>
+      <c r="P22" s="393"/>
+      <c r="Q22" s="394"/>
+      <c r="R22" s="395"/>
+      <c r="S22" s="395"/>
+      <c r="T22" s="395"/>
+      <c r="U22" s="395"/>
+      <c r="V22" s="395"/>
+      <c r="W22" s="395"/>
+      <c r="X22" s="395"/>
+      <c r="Y22" s="395"/>
+      <c r="Z22" s="395"/>
+      <c r="AA22" s="395"/>
+      <c r="AB22" s="395"/>
+      <c r="AC22" s="395"/>
+      <c r="AD22" s="395"/>
+      <c r="AE22" s="396"/>
+      <c r="AF22" s="391"/>
+      <c r="AG22" s="392"/>
+      <c r="AH22" s="392"/>
+      <c r="AI22" s="393"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="422"/>
-      <c r="C23" s="423"/>
-      <c r="D23" s="424"/>
-      <c r="E23" s="425"/>
-      <c r="F23" s="426"/>
-      <c r="G23" s="422"/>
-      <c r="H23" s="427"/>
-      <c r="I23" s="423"/>
-      <c r="J23" s="428"/>
-      <c r="K23" s="429"/>
-      <c r="L23" s="429"/>
-      <c r="M23" s="429"/>
-      <c r="N23" s="429"/>
-      <c r="O23" s="429"/>
-      <c r="P23" s="430"/>
-      <c r="Q23" s="431"/>
-      <c r="R23" s="432"/>
-      <c r="S23" s="432"/>
-      <c r="T23" s="432"/>
-      <c r="U23" s="432"/>
-      <c r="V23" s="432"/>
-      <c r="W23" s="432"/>
-      <c r="X23" s="432"/>
-      <c r="Y23" s="432"/>
-      <c r="Z23" s="432"/>
-      <c r="AA23" s="432"/>
-      <c r="AB23" s="432"/>
-      <c r="AC23" s="432"/>
-      <c r="AD23" s="432"/>
-      <c r="AE23" s="433"/>
-      <c r="AF23" s="428"/>
-      <c r="AG23" s="429"/>
-      <c r="AH23" s="429"/>
-      <c r="AI23" s="430"/>
+      <c r="B23" s="385"/>
+      <c r="C23" s="386"/>
+      <c r="D23" s="387"/>
+      <c r="E23" s="388"/>
+      <c r="F23" s="389"/>
+      <c r="G23" s="385"/>
+      <c r="H23" s="390"/>
+      <c r="I23" s="386"/>
+      <c r="J23" s="391"/>
+      <c r="K23" s="392"/>
+      <c r="L23" s="392"/>
+      <c r="M23" s="392"/>
+      <c r="N23" s="392"/>
+      <c r="O23" s="392"/>
+      <c r="P23" s="393"/>
+      <c r="Q23" s="394"/>
+      <c r="R23" s="395"/>
+      <c r="S23" s="395"/>
+      <c r="T23" s="395"/>
+      <c r="U23" s="395"/>
+      <c r="V23" s="395"/>
+      <c r="W23" s="395"/>
+      <c r="X23" s="395"/>
+      <c r="Y23" s="395"/>
+      <c r="Z23" s="395"/>
+      <c r="AA23" s="395"/>
+      <c r="AB23" s="395"/>
+      <c r="AC23" s="395"/>
+      <c r="AD23" s="395"/>
+      <c r="AE23" s="396"/>
+      <c r="AF23" s="391"/>
+      <c r="AG23" s="392"/>
+      <c r="AH23" s="392"/>
+      <c r="AI23" s="393"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="422"/>
-      <c r="C24" s="423"/>
-      <c r="D24" s="424"/>
-      <c r="E24" s="425"/>
-      <c r="F24" s="426"/>
-      <c r="G24" s="422"/>
-      <c r="H24" s="427"/>
-      <c r="I24" s="423"/>
-      <c r="J24" s="428"/>
-      <c r="K24" s="429"/>
-      <c r="L24" s="429"/>
-      <c r="M24" s="429"/>
-      <c r="N24" s="429"/>
-      <c r="O24" s="429"/>
-      <c r="P24" s="430"/>
-      <c r="Q24" s="431"/>
-      <c r="R24" s="432"/>
-      <c r="S24" s="432"/>
-      <c r="T24" s="432"/>
-      <c r="U24" s="432"/>
-      <c r="V24" s="432"/>
-      <c r="W24" s="432"/>
-      <c r="X24" s="432"/>
-      <c r="Y24" s="432"/>
-      <c r="Z24" s="432"/>
-      <c r="AA24" s="432"/>
-      <c r="AB24" s="432"/>
-      <c r="AC24" s="432"/>
-      <c r="AD24" s="432"/>
-      <c r="AE24" s="433"/>
-      <c r="AF24" s="428"/>
-      <c r="AG24" s="429"/>
-      <c r="AH24" s="429"/>
-      <c r="AI24" s="430"/>
+      <c r="B24" s="385"/>
+      <c r="C24" s="386"/>
+      <c r="D24" s="387"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="385"/>
+      <c r="H24" s="390"/>
+      <c r="I24" s="386"/>
+      <c r="J24" s="391"/>
+      <c r="K24" s="392"/>
+      <c r="L24" s="392"/>
+      <c r="M24" s="392"/>
+      <c r="N24" s="392"/>
+      <c r="O24" s="392"/>
+      <c r="P24" s="393"/>
+      <c r="Q24" s="394"/>
+      <c r="R24" s="395"/>
+      <c r="S24" s="395"/>
+      <c r="T24" s="395"/>
+      <c r="U24" s="395"/>
+      <c r="V24" s="395"/>
+      <c r="W24" s="395"/>
+      <c r="X24" s="395"/>
+      <c r="Y24" s="395"/>
+      <c r="Z24" s="395"/>
+      <c r="AA24" s="395"/>
+      <c r="AB24" s="395"/>
+      <c r="AC24" s="395"/>
+      <c r="AD24" s="395"/>
+      <c r="AE24" s="396"/>
+      <c r="AF24" s="391"/>
+      <c r="AG24" s="392"/>
+      <c r="AH24" s="392"/>
+      <c r="AI24" s="393"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="422"/>
-      <c r="C25" s="423"/>
-      <c r="D25" s="424"/>
-      <c r="E25" s="425"/>
-      <c r="F25" s="426"/>
-      <c r="G25" s="422"/>
-      <c r="H25" s="427"/>
-      <c r="I25" s="423"/>
-      <c r="J25" s="428"/>
-      <c r="K25" s="429"/>
-      <c r="L25" s="429"/>
-      <c r="M25" s="429"/>
-      <c r="N25" s="429"/>
-      <c r="O25" s="429"/>
-      <c r="P25" s="430"/>
-      <c r="Q25" s="431"/>
-      <c r="R25" s="432"/>
-      <c r="S25" s="432"/>
-      <c r="T25" s="432"/>
-      <c r="U25" s="432"/>
-      <c r="V25" s="432"/>
-      <c r="W25" s="432"/>
-      <c r="X25" s="432"/>
-      <c r="Y25" s="432"/>
-      <c r="Z25" s="432"/>
-      <c r="AA25" s="432"/>
-      <c r="AB25" s="432"/>
-      <c r="AC25" s="432"/>
-      <c r="AD25" s="432"/>
-      <c r="AE25" s="433"/>
-      <c r="AF25" s="428"/>
-      <c r="AG25" s="429"/>
-      <c r="AH25" s="429"/>
-      <c r="AI25" s="430"/>
+      <c r="B25" s="385"/>
+      <c r="C25" s="386"/>
+      <c r="D25" s="387"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="385"/>
+      <c r="H25" s="390"/>
+      <c r="I25" s="386"/>
+      <c r="J25" s="391"/>
+      <c r="K25" s="392"/>
+      <c r="L25" s="392"/>
+      <c r="M25" s="392"/>
+      <c r="N25" s="392"/>
+      <c r="O25" s="392"/>
+      <c r="P25" s="393"/>
+      <c r="Q25" s="394"/>
+      <c r="R25" s="395"/>
+      <c r="S25" s="395"/>
+      <c r="T25" s="395"/>
+      <c r="U25" s="395"/>
+      <c r="V25" s="395"/>
+      <c r="W25" s="395"/>
+      <c r="X25" s="395"/>
+      <c r="Y25" s="395"/>
+      <c r="Z25" s="395"/>
+      <c r="AA25" s="395"/>
+      <c r="AB25" s="395"/>
+      <c r="AC25" s="395"/>
+      <c r="AD25" s="395"/>
+      <c r="AE25" s="396"/>
+      <c r="AF25" s="391"/>
+      <c r="AG25" s="392"/>
+      <c r="AH25" s="392"/>
+      <c r="AI25" s="393"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="422"/>
-      <c r="C26" s="423"/>
-      <c r="D26" s="424"/>
-      <c r="E26" s="425"/>
-      <c r="F26" s="426"/>
-      <c r="G26" s="422"/>
-      <c r="H26" s="427"/>
-      <c r="I26" s="423"/>
-      <c r="J26" s="428"/>
-      <c r="K26" s="429"/>
-      <c r="L26" s="429"/>
-      <c r="M26" s="429"/>
-      <c r="N26" s="429"/>
-      <c r="O26" s="429"/>
-      <c r="P26" s="430"/>
-      <c r="Q26" s="431"/>
-      <c r="R26" s="432"/>
-      <c r="S26" s="432"/>
-      <c r="T26" s="432"/>
-      <c r="U26" s="432"/>
-      <c r="V26" s="432"/>
-      <c r="W26" s="432"/>
-      <c r="X26" s="432"/>
-      <c r="Y26" s="432"/>
-      <c r="Z26" s="432"/>
-      <c r="AA26" s="432"/>
-      <c r="AB26" s="432"/>
-      <c r="AC26" s="432"/>
-      <c r="AD26" s="432"/>
-      <c r="AE26" s="433"/>
-      <c r="AF26" s="428"/>
-      <c r="AG26" s="429"/>
-      <c r="AH26" s="429"/>
-      <c r="AI26" s="430"/>
+      <c r="B26" s="385"/>
+      <c r="C26" s="386"/>
+      <c r="D26" s="387"/>
+      <c r="E26" s="388"/>
+      <c r="F26" s="389"/>
+      <c r="G26" s="385"/>
+      <c r="H26" s="390"/>
+      <c r="I26" s="386"/>
+      <c r="J26" s="391"/>
+      <c r="K26" s="392"/>
+      <c r="L26" s="392"/>
+      <c r="M26" s="392"/>
+      <c r="N26" s="392"/>
+      <c r="O26" s="392"/>
+      <c r="P26" s="393"/>
+      <c r="Q26" s="394"/>
+      <c r="R26" s="395"/>
+      <c r="S26" s="395"/>
+      <c r="T26" s="395"/>
+      <c r="U26" s="395"/>
+      <c r="V26" s="395"/>
+      <c r="W26" s="395"/>
+      <c r="X26" s="395"/>
+      <c r="Y26" s="395"/>
+      <c r="Z26" s="395"/>
+      <c r="AA26" s="395"/>
+      <c r="AB26" s="395"/>
+      <c r="AC26" s="395"/>
+      <c r="AD26" s="395"/>
+      <c r="AE26" s="396"/>
+      <c r="AF26" s="391"/>
+      <c r="AG26" s="392"/>
+      <c r="AH26" s="392"/>
+      <c r="AI26" s="393"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="422"/>
-      <c r="C27" s="423"/>
-      <c r="D27" s="424"/>
-      <c r="E27" s="425"/>
-      <c r="F27" s="426"/>
-      <c r="G27" s="422"/>
-      <c r="H27" s="427"/>
-      <c r="I27" s="423"/>
-      <c r="J27" s="428"/>
-      <c r="K27" s="429"/>
-      <c r="L27" s="429"/>
-      <c r="M27" s="429"/>
-      <c r="N27" s="429"/>
-      <c r="O27" s="429"/>
-      <c r="P27" s="430"/>
-      <c r="Q27" s="431"/>
-      <c r="R27" s="432"/>
-      <c r="S27" s="432"/>
-      <c r="T27" s="432"/>
-      <c r="U27" s="432"/>
-      <c r="V27" s="432"/>
-      <c r="W27" s="432"/>
-      <c r="X27" s="432"/>
-      <c r="Y27" s="432"/>
-      <c r="Z27" s="432"/>
-      <c r="AA27" s="432"/>
-      <c r="AB27" s="432"/>
-      <c r="AC27" s="432"/>
-      <c r="AD27" s="432"/>
-      <c r="AE27" s="433"/>
-      <c r="AF27" s="428"/>
-      <c r="AG27" s="429"/>
-      <c r="AH27" s="429"/>
-      <c r="AI27" s="430"/>
+      <c r="B27" s="385"/>
+      <c r="C27" s="386"/>
+      <c r="D27" s="387"/>
+      <c r="E27" s="388"/>
+      <c r="F27" s="389"/>
+      <c r="G27" s="385"/>
+      <c r="H27" s="390"/>
+      <c r="I27" s="386"/>
+      <c r="J27" s="391"/>
+      <c r="K27" s="392"/>
+      <c r="L27" s="392"/>
+      <c r="M27" s="392"/>
+      <c r="N27" s="392"/>
+      <c r="O27" s="392"/>
+      <c r="P27" s="393"/>
+      <c r="Q27" s="394"/>
+      <c r="R27" s="395"/>
+      <c r="S27" s="395"/>
+      <c r="T27" s="395"/>
+      <c r="U27" s="395"/>
+      <c r="V27" s="395"/>
+      <c r="W27" s="395"/>
+      <c r="X27" s="395"/>
+      <c r="Y27" s="395"/>
+      <c r="Z27" s="395"/>
+      <c r="AA27" s="395"/>
+      <c r="AB27" s="395"/>
+      <c r="AC27" s="395"/>
+      <c r="AD27" s="395"/>
+      <c r="AE27" s="396"/>
+      <c r="AF27" s="391"/>
+      <c r="AG27" s="392"/>
+      <c r="AH27" s="392"/>
+      <c r="AI27" s="393"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="422"/>
-      <c r="C28" s="423"/>
-      <c r="D28" s="424"/>
-      <c r="E28" s="425"/>
-      <c r="F28" s="426"/>
-      <c r="G28" s="422"/>
-      <c r="H28" s="427"/>
-      <c r="I28" s="423"/>
-      <c r="J28" s="428"/>
-      <c r="K28" s="429"/>
-      <c r="L28" s="429"/>
-      <c r="M28" s="429"/>
-      <c r="N28" s="429"/>
-      <c r="O28" s="429"/>
-      <c r="P28" s="430"/>
-      <c r="Q28" s="431"/>
-      <c r="R28" s="432"/>
-      <c r="S28" s="432"/>
-      <c r="T28" s="432"/>
-      <c r="U28" s="432"/>
-      <c r="V28" s="432"/>
-      <c r="W28" s="432"/>
-      <c r="X28" s="432"/>
-      <c r="Y28" s="432"/>
-      <c r="Z28" s="432"/>
-      <c r="AA28" s="432"/>
-      <c r="AB28" s="432"/>
-      <c r="AC28" s="432"/>
-      <c r="AD28" s="432"/>
-      <c r="AE28" s="433"/>
-      <c r="AF28" s="428"/>
-      <c r="AG28" s="429"/>
-      <c r="AH28" s="429"/>
-      <c r="AI28" s="430"/>
+      <c r="B28" s="385"/>
+      <c r="C28" s="386"/>
+      <c r="D28" s="387"/>
+      <c r="E28" s="388"/>
+      <c r="F28" s="389"/>
+      <c r="G28" s="385"/>
+      <c r="H28" s="390"/>
+      <c r="I28" s="386"/>
+      <c r="J28" s="391"/>
+      <c r="K28" s="392"/>
+      <c r="L28" s="392"/>
+      <c r="M28" s="392"/>
+      <c r="N28" s="392"/>
+      <c r="O28" s="392"/>
+      <c r="P28" s="393"/>
+      <c r="Q28" s="394"/>
+      <c r="R28" s="395"/>
+      <c r="S28" s="395"/>
+      <c r="T28" s="395"/>
+      <c r="U28" s="395"/>
+      <c r="V28" s="395"/>
+      <c r="W28" s="395"/>
+      <c r="X28" s="395"/>
+      <c r="Y28" s="395"/>
+      <c r="Z28" s="395"/>
+      <c r="AA28" s="395"/>
+      <c r="AB28" s="395"/>
+      <c r="AC28" s="395"/>
+      <c r="AD28" s="395"/>
+      <c r="AE28" s="396"/>
+      <c r="AF28" s="391"/>
+      <c r="AG28" s="392"/>
+      <c r="AH28" s="392"/>
+      <c r="AI28" s="393"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="422"/>
-      <c r="C29" s="423"/>
-      <c r="D29" s="424"/>
-      <c r="E29" s="425"/>
-      <c r="F29" s="426"/>
-      <c r="G29" s="422"/>
-      <c r="H29" s="427"/>
-      <c r="I29" s="423"/>
-      <c r="J29" s="428"/>
-      <c r="K29" s="429"/>
-      <c r="L29" s="429"/>
-      <c r="M29" s="429"/>
-      <c r="N29" s="429"/>
-      <c r="O29" s="429"/>
-      <c r="P29" s="430"/>
-      <c r="Q29" s="431"/>
-      <c r="R29" s="432"/>
-      <c r="S29" s="432"/>
-      <c r="T29" s="432"/>
-      <c r="U29" s="432"/>
-      <c r="V29" s="432"/>
-      <c r="W29" s="432"/>
-      <c r="X29" s="432"/>
-      <c r="Y29" s="432"/>
-      <c r="Z29" s="432"/>
-      <c r="AA29" s="432"/>
-      <c r="AB29" s="432"/>
-      <c r="AC29" s="432"/>
-      <c r="AD29" s="432"/>
-      <c r="AE29" s="433"/>
-      <c r="AF29" s="428"/>
-      <c r="AG29" s="429"/>
-      <c r="AH29" s="429"/>
-      <c r="AI29" s="430"/>
+      <c r="B29" s="385"/>
+      <c r="C29" s="386"/>
+      <c r="D29" s="387"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="385"/>
+      <c r="H29" s="390"/>
+      <c r="I29" s="386"/>
+      <c r="J29" s="391"/>
+      <c r="K29" s="392"/>
+      <c r="L29" s="392"/>
+      <c r="M29" s="392"/>
+      <c r="N29" s="392"/>
+      <c r="O29" s="392"/>
+      <c r="P29" s="393"/>
+      <c r="Q29" s="394"/>
+      <c r="R29" s="395"/>
+      <c r="S29" s="395"/>
+      <c r="T29" s="395"/>
+      <c r="U29" s="395"/>
+      <c r="V29" s="395"/>
+      <c r="W29" s="395"/>
+      <c r="X29" s="395"/>
+      <c r="Y29" s="395"/>
+      <c r="Z29" s="395"/>
+      <c r="AA29" s="395"/>
+      <c r="AB29" s="395"/>
+      <c r="AC29" s="395"/>
+      <c r="AD29" s="395"/>
+      <c r="AE29" s="396"/>
+      <c r="AF29" s="391"/>
+      <c r="AG29" s="392"/>
+      <c r="AH29" s="392"/>
+      <c r="AI29" s="393"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="422"/>
-      <c r="C30" s="423"/>
-      <c r="D30" s="424"/>
-      <c r="E30" s="425"/>
-      <c r="F30" s="426"/>
-      <c r="G30" s="422"/>
-      <c r="H30" s="427"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="428"/>
-      <c r="K30" s="429"/>
-      <c r="L30" s="429"/>
-      <c r="M30" s="429"/>
-      <c r="N30" s="429"/>
-      <c r="O30" s="429"/>
-      <c r="P30" s="430"/>
-      <c r="Q30" s="431"/>
-      <c r="R30" s="432"/>
-      <c r="S30" s="432"/>
-      <c r="T30" s="432"/>
-      <c r="U30" s="432"/>
-      <c r="V30" s="432"/>
-      <c r="W30" s="432"/>
-      <c r="X30" s="432"/>
-      <c r="Y30" s="432"/>
-      <c r="Z30" s="432"/>
-      <c r="AA30" s="432"/>
-      <c r="AB30" s="432"/>
-      <c r="AC30" s="432"/>
-      <c r="AD30" s="432"/>
-      <c r="AE30" s="433"/>
-      <c r="AF30" s="428"/>
-      <c r="AG30" s="429"/>
-      <c r="AH30" s="429"/>
-      <c r="AI30" s="430"/>
+      <c r="B30" s="385"/>
+      <c r="C30" s="386"/>
+      <c r="D30" s="387"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="385"/>
+      <c r="H30" s="390"/>
+      <c r="I30" s="386"/>
+      <c r="J30" s="391"/>
+      <c r="K30" s="392"/>
+      <c r="L30" s="392"/>
+      <c r="M30" s="392"/>
+      <c r="N30" s="392"/>
+      <c r="O30" s="392"/>
+      <c r="P30" s="393"/>
+      <c r="Q30" s="394"/>
+      <c r="R30" s="395"/>
+      <c r="S30" s="395"/>
+      <c r="T30" s="395"/>
+      <c r="U30" s="395"/>
+      <c r="V30" s="395"/>
+      <c r="W30" s="395"/>
+      <c r="X30" s="395"/>
+      <c r="Y30" s="395"/>
+      <c r="Z30" s="395"/>
+      <c r="AA30" s="395"/>
+      <c r="AB30" s="395"/>
+      <c r="AC30" s="395"/>
+      <c r="AD30" s="395"/>
+      <c r="AE30" s="396"/>
+      <c r="AF30" s="391"/>
+      <c r="AG30" s="392"/>
+      <c r="AH30" s="392"/>
+      <c r="AI30" s="393"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="422"/>
-      <c r="C31" s="423"/>
-      <c r="D31" s="424"/>
-      <c r="E31" s="425"/>
-      <c r="F31" s="426"/>
-      <c r="G31" s="422"/>
-      <c r="H31" s="427"/>
-      <c r="I31" s="423"/>
-      <c r="J31" s="428"/>
-      <c r="K31" s="429"/>
-      <c r="L31" s="429"/>
-      <c r="M31" s="429"/>
-      <c r="N31" s="429"/>
-      <c r="O31" s="429"/>
-      <c r="P31" s="430"/>
-      <c r="Q31" s="431"/>
-      <c r="R31" s="432"/>
-      <c r="S31" s="432"/>
-      <c r="T31" s="432"/>
-      <c r="U31" s="432"/>
-      <c r="V31" s="432"/>
-      <c r="W31" s="432"/>
-      <c r="X31" s="432"/>
-      <c r="Y31" s="432"/>
-      <c r="Z31" s="432"/>
-      <c r="AA31" s="432"/>
-      <c r="AB31" s="432"/>
-      <c r="AC31" s="432"/>
-      <c r="AD31" s="432"/>
-      <c r="AE31" s="433"/>
-      <c r="AF31" s="428"/>
-      <c r="AG31" s="429"/>
-      <c r="AH31" s="429"/>
-      <c r="AI31" s="430"/>
+      <c r="B31" s="385"/>
+      <c r="C31" s="386"/>
+      <c r="D31" s="387"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="385"/>
+      <c r="H31" s="390"/>
+      <c r="I31" s="386"/>
+      <c r="J31" s="391"/>
+      <c r="K31" s="392"/>
+      <c r="L31" s="392"/>
+      <c r="M31" s="392"/>
+      <c r="N31" s="392"/>
+      <c r="O31" s="392"/>
+      <c r="P31" s="393"/>
+      <c r="Q31" s="394"/>
+      <c r="R31" s="395"/>
+      <c r="S31" s="395"/>
+      <c r="T31" s="395"/>
+      <c r="U31" s="395"/>
+      <c r="V31" s="395"/>
+      <c r="W31" s="395"/>
+      <c r="X31" s="395"/>
+      <c r="Y31" s="395"/>
+      <c r="Z31" s="395"/>
+      <c r="AA31" s="395"/>
+      <c r="AB31" s="395"/>
+      <c r="AC31" s="395"/>
+      <c r="AD31" s="395"/>
+      <c r="AE31" s="396"/>
+      <c r="AF31" s="391"/>
+      <c r="AG31" s="392"/>
+      <c r="AH31" s="392"/>
+      <c r="AI31" s="393"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="422"/>
-      <c r="C32" s="423"/>
-      <c r="D32" s="424"/>
-      <c r="E32" s="425"/>
-      <c r="F32" s="426"/>
-      <c r="G32" s="422"/>
-      <c r="H32" s="427"/>
-      <c r="I32" s="423"/>
-      <c r="J32" s="428"/>
-      <c r="K32" s="447"/>
-      <c r="L32" s="429"/>
-      <c r="M32" s="429"/>
-      <c r="N32" s="429"/>
-      <c r="O32" s="429"/>
-      <c r="P32" s="430"/>
-      <c r="Q32" s="431"/>
-      <c r="R32" s="432"/>
-      <c r="S32" s="432"/>
-      <c r="T32" s="432"/>
-      <c r="U32" s="432"/>
-      <c r="V32" s="432"/>
-      <c r="W32" s="432"/>
-      <c r="X32" s="432"/>
-      <c r="Y32" s="432"/>
-      <c r="Z32" s="432"/>
-      <c r="AA32" s="432"/>
-      <c r="AB32" s="432"/>
-      <c r="AC32" s="432"/>
-      <c r="AD32" s="432"/>
-      <c r="AE32" s="433"/>
-      <c r="AF32" s="428"/>
-      <c r="AG32" s="429"/>
-      <c r="AH32" s="429"/>
-      <c r="AI32" s="430"/>
+      <c r="B32" s="385"/>
+      <c r="C32" s="386"/>
+      <c r="D32" s="387"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="385"/>
+      <c r="H32" s="390"/>
+      <c r="I32" s="386"/>
+      <c r="J32" s="391"/>
+      <c r="K32" s="397"/>
+      <c r="L32" s="392"/>
+      <c r="M32" s="392"/>
+      <c r="N32" s="392"/>
+      <c r="O32" s="392"/>
+      <c r="P32" s="393"/>
+      <c r="Q32" s="394"/>
+      <c r="R32" s="395"/>
+      <c r="S32" s="395"/>
+      <c r="T32" s="395"/>
+      <c r="U32" s="395"/>
+      <c r="V32" s="395"/>
+      <c r="W32" s="395"/>
+      <c r="X32" s="395"/>
+      <c r="Y32" s="395"/>
+      <c r="Z32" s="395"/>
+      <c r="AA32" s="395"/>
+      <c r="AB32" s="395"/>
+      <c r="AC32" s="395"/>
+      <c r="AD32" s="395"/>
+      <c r="AE32" s="396"/>
+      <c r="AF32" s="391"/>
+      <c r="AG32" s="392"/>
+      <c r="AH32" s="392"/>
+      <c r="AI32" s="393"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="422"/>
-      <c r="C33" s="423"/>
-      <c r="D33" s="424"/>
-      <c r="E33" s="425"/>
-      <c r="F33" s="426"/>
-      <c r="G33" s="422"/>
-      <c r="H33" s="427"/>
-      <c r="I33" s="423"/>
-      <c r="J33" s="428"/>
-      <c r="K33" s="429"/>
-      <c r="L33" s="429"/>
-      <c r="M33" s="429"/>
-      <c r="N33" s="429"/>
-      <c r="O33" s="429"/>
-      <c r="P33" s="430"/>
-      <c r="Q33" s="431"/>
-      <c r="R33" s="432"/>
-      <c r="S33" s="432"/>
-      <c r="T33" s="432"/>
-      <c r="U33" s="432"/>
-      <c r="V33" s="432"/>
-      <c r="W33" s="432"/>
-      <c r="X33" s="432"/>
-      <c r="Y33" s="432"/>
-      <c r="Z33" s="432"/>
-      <c r="AA33" s="432"/>
-      <c r="AB33" s="432"/>
-      <c r="AC33" s="432"/>
-      <c r="AD33" s="432"/>
-      <c r="AE33" s="433"/>
-      <c r="AF33" s="428"/>
-      <c r="AG33" s="429"/>
-      <c r="AH33" s="429"/>
-      <c r="AI33" s="430"/>
+      <c r="B33" s="385"/>
+      <c r="C33" s="386"/>
+      <c r="D33" s="387"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="385"/>
+      <c r="H33" s="390"/>
+      <c r="I33" s="386"/>
+      <c r="J33" s="391"/>
+      <c r="K33" s="392"/>
+      <c r="L33" s="392"/>
+      <c r="M33" s="392"/>
+      <c r="N33" s="392"/>
+      <c r="O33" s="392"/>
+      <c r="P33" s="393"/>
+      <c r="Q33" s="394"/>
+      <c r="R33" s="395"/>
+      <c r="S33" s="395"/>
+      <c r="T33" s="395"/>
+      <c r="U33" s="395"/>
+      <c r="V33" s="395"/>
+      <c r="W33" s="395"/>
+      <c r="X33" s="395"/>
+      <c r="Y33" s="395"/>
+      <c r="Z33" s="395"/>
+      <c r="AA33" s="395"/>
+      <c r="AB33" s="395"/>
+      <c r="AC33" s="395"/>
+      <c r="AD33" s="395"/>
+      <c r="AE33" s="396"/>
+      <c r="AF33" s="391"/>
+      <c r="AG33" s="392"/>
+      <c r="AH33" s="392"/>
+      <c r="AI33" s="393"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -9142,6 +8980,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -9179,7 +9173,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -9189,20 +9183,20 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>0</v>
@@ -9213,7 +9207,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -9221,7 +9215,7 @@
     </row>
     <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -9246,7 +9240,7 @@
     </row>
     <row r="10" spans="1:17" s="31" customFormat="1">
       <c r="A10" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>8</v>
@@ -9261,10 +9255,10 @@
         <v>83</v>
       </c>
       <c r="F10" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="83" t="s">
         <v>161</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>162</v>
       </c>
       <c r="H10" s="84" t="s">
         <v>11</v>
@@ -9279,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>4</v>
@@ -9318,27 +9312,27 @@
         <v>76</v>
       </c>
       <c r="J11" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="K11" s="91" t="s">
         <v>339</v>
-      </c>
-      <c r="K11" s="91" t="s">
-        <v>340</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N11" s="129">
         <v>43658</v>
       </c>
       <c r="O11" s="101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="92"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="373" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="374"/>
       <c r="C12" s="49" t="s">
@@ -9349,13 +9343,13 @@
       <c r="F12" s="132"/>
       <c r="G12" s="133"/>
       <c r="H12" s="134" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I12" s="135" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J12" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K12" s="135"/>
       <c r="L12" s="52"/>
@@ -9367,7 +9361,7 @@
     </row>
     <row r="13" spans="1:17" s="31" customFormat="1" ht="56.25">
       <c r="A13" s="373" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="375"/>
       <c r="C13" s="138" t="s">
@@ -9377,7 +9371,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="140"/>
       <c r="G13" s="141"/>
@@ -9385,10 +9379,10 @@
         <v>21</v>
       </c>
       <c r="I13" s="142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J13" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K13" s="142"/>
       <c r="L13" s="143"/>
@@ -9400,13 +9394,13 @@
     </row>
     <row r="14" spans="1:17" s="31" customFormat="1">
       <c r="A14" s="373" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="375"/>
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
       <c r="E14" s="148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="149"/>
@@ -9417,7 +9411,7 @@
         <v>22</v>
       </c>
       <c r="J14" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="58"/>
@@ -9429,7 +9423,7 @@
     </row>
     <row r="15" spans="1:17" s="31" customFormat="1" ht="56.25">
       <c r="A15" s="373" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="375"/>
       <c r="C15" s="55"/>
@@ -9443,10 +9437,10 @@
         <v>21</v>
       </c>
       <c r="I15" s="152" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J15" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K15" s="152"/>
       <c r="L15" s="153"/>
@@ -9458,13 +9452,13 @@
     </row>
     <row r="16" spans="1:17" s="31" customFormat="1" ht="67.5">
       <c r="A16" s="373" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="375"/>
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
       <c r="E16" s="148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="149"/>
@@ -9472,10 +9466,10 @@
         <v>21</v>
       </c>
       <c r="I16" s="152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J16" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K16" s="152"/>
       <c r="L16" s="153"/>
@@ -9487,7 +9481,7 @@
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1">
       <c r="A17" s="376" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="374"/>
       <c r="C17" s="61"/>
@@ -9504,7 +9498,7 @@
         <v>81</v>
       </c>
       <c r="J17" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K17" s="158"/>
       <c r="L17" s="52"/>
@@ -9516,7 +9510,7 @@
     </row>
     <row r="18" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A18" s="376" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="374"/>
       <c r="C18" s="56"/>
@@ -9533,7 +9527,7 @@
         <v>28</v>
       </c>
       <c r="J18" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K18" s="160"/>
       <c r="L18" s="52"/>
@@ -9545,7 +9539,7 @@
     </row>
     <row r="19" spans="1:17" s="31" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="56"/>
@@ -9553,16 +9547,16 @@
         <v>78</v>
       </c>
       <c r="E19" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="132" t="s">
+      <c r="G19" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="133" t="s">
-        <v>178</v>
-      </c>
       <c r="H19" s="157" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I19" s="160" t="s">
         <v>28</v>
@@ -9578,22 +9572,22 @@
     </row>
     <row r="20" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A20" s="93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="56"/>
       <c r="D20" s="161"/>
       <c r="E20" s="148" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G20" s="149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H20" s="322" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I20" s="323" t="s">
         <v>28</v>
@@ -9609,22 +9603,22 @@
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A21" s="93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="56"/>
       <c r="D21" s="161"/>
       <c r="E21" s="328" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F21" s="163" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G21" s="164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H21" s="165" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I21" s="329" t="s">
         <v>28</v>
@@ -9640,22 +9634,22 @@
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A22" s="94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="56"/>
       <c r="D22" s="161"/>
       <c r="E22" s="328" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F22" s="163" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22" s="164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H22" s="165" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I22" s="329" t="s">
         <v>28</v>
@@ -9671,7 +9665,7 @@
     </row>
     <row r="23" spans="1:17" ht="22.5">
       <c r="A23" s="377" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="374"/>
       <c r="C23" s="56"/>
@@ -9690,7 +9684,7 @@
         <v>79</v>
       </c>
       <c r="J23" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K23" s="166"/>
       <c r="L23" s="167"/>
@@ -9702,7 +9696,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="377" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="374"/>
       <c r="C24" s="61"/>
@@ -9719,7 +9713,7 @@
         <v>79</v>
       </c>
       <c r="J24" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K24" s="166"/>
       <c r="L24" s="167"/>
@@ -9731,7 +9725,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="377" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B25" s="374"/>
       <c r="C25" s="61"/>
@@ -9748,7 +9742,7 @@
         <v>79</v>
       </c>
       <c r="J25" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K25" s="166"/>
       <c r="L25" s="167"/>
@@ -9760,7 +9754,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="377" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" s="374"/>
       <c r="C26" s="61"/>
@@ -9777,7 +9771,7 @@
         <v>79</v>
       </c>
       <c r="J26" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K26" s="166"/>
       <c r="L26" s="167"/>
@@ -9789,7 +9783,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="377" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="374"/>
       <c r="C27" s="61"/>
@@ -9806,7 +9800,7 @@
         <v>79</v>
       </c>
       <c r="J27" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K27" s="166"/>
       <c r="L27" s="167"/>
@@ -9818,7 +9812,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="377" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" s="374"/>
       <c r="C28" s="56"/>
@@ -9835,7 +9829,7 @@
         <v>24</v>
       </c>
       <c r="J28" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K28" s="176"/>
       <c r="L28" s="177"/>
@@ -9847,7 +9841,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="378" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="374"/>
       <c r="C29" s="56"/>
@@ -9864,7 +9858,7 @@
         <v>28</v>
       </c>
       <c r="J29" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K29" s="185"/>
       <c r="L29" s="186"/>
@@ -9876,7 +9870,7 @@
     </row>
     <row r="30" spans="1:17" ht="22.5">
       <c r="A30" s="376" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="374"/>
       <c r="C30" s="56"/>
@@ -9884,18 +9878,18 @@
         <v>128</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F30" s="182"/>
       <c r="G30" s="183"/>
       <c r="H30" s="184" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I30" s="191" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J30" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K30" s="185"/>
       <c r="L30" s="186"/>
@@ -9907,15 +9901,15 @@
     </row>
     <row r="31" spans="1:17" s="31" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="376" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" s="375"/>
       <c r="C31" s="55"/>
       <c r="D31" s="192" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="193" t="s">
         <v>199</v>
-      </c>
-      <c r="E31" s="193" t="s">
-        <v>200</v>
       </c>
       <c r="F31" s="182"/>
       <c r="G31" s="183"/>
@@ -9926,7 +9920,7 @@
         <v>120</v>
       </c>
       <c r="J31" s="195" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K31" s="195"/>
       <c r="L31" s="196"/>
@@ -9938,13 +9932,13 @@
     </row>
     <row r="32" spans="1:17" s="31" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="376" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" s="375"/>
       <c r="C32" s="55"/>
       <c r="D32" s="63"/>
       <c r="E32" s="193" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F32" s="182"/>
       <c r="G32" s="183"/>
@@ -9955,7 +9949,7 @@
         <v>121</v>
       </c>
       <c r="J32" s="195" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K32" s="195"/>
       <c r="L32" s="196"/>
@@ -9967,13 +9961,13 @@
     </row>
     <row r="33" spans="1:17" s="31" customFormat="1" ht="45">
       <c r="A33" s="376" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="375"/>
       <c r="C33" s="55"/>
       <c r="D33" s="63"/>
       <c r="E33" s="193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F33" s="182"/>
       <c r="G33" s="183"/>
@@ -9984,7 +9978,7 @@
         <v>121</v>
       </c>
       <c r="J33" s="195" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K33" s="195"/>
       <c r="L33" s="196"/>
@@ -9996,13 +9990,13 @@
     </row>
     <row r="34" spans="1:17" s="31" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="376" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B34" s="375"/>
       <c r="C34" s="55"/>
       <c r="D34" s="63"/>
       <c r="E34" s="193" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F34" s="182"/>
       <c r="G34" s="183"/>
@@ -10013,7 +10007,7 @@
         <v>119</v>
       </c>
       <c r="J34" s="195" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K34" s="195"/>
       <c r="L34" s="196"/>
@@ -10025,13 +10019,13 @@
     </row>
     <row r="35" spans="1:17" ht="50.25" customHeight="1">
       <c r="A35" s="376" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B35" s="375"/>
       <c r="C35" s="55"/>
       <c r="D35" s="63"/>
       <c r="E35" s="193" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F35" s="182"/>
       <c r="G35" s="183"/>
@@ -10042,7 +10036,7 @@
         <v>122</v>
       </c>
       <c r="J35" s="195" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K35" s="195"/>
       <c r="L35" s="201"/>
@@ -10054,13 +10048,13 @@
     </row>
     <row r="36" spans="1:17" ht="50.25" customHeight="1">
       <c r="A36" s="376" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B36" s="375"/>
       <c r="C36" s="55"/>
       <c r="D36" s="63"/>
       <c r="E36" s="193" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F36" s="182"/>
       <c r="G36" s="183"/>
@@ -10071,7 +10065,7 @@
         <v>122</v>
       </c>
       <c r="J36" s="195" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K36" s="195"/>
       <c r="L36" s="201"/>
@@ -10083,24 +10077,24 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="376" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B37" s="375"/>
       <c r="C37" s="55"/>
       <c r="D37" s="63"/>
       <c r="E37" s="193" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F37" s="182"/>
       <c r="G37" s="183"/>
       <c r="H37" s="194" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" s="195" t="s">
         <v>213</v>
       </c>
-      <c r="I37" s="195" t="s">
-        <v>214</v>
-      </c>
       <c r="J37" s="195" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K37" s="195"/>
       <c r="L37" s="201"/>
@@ -10112,24 +10106,24 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="376" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B38" s="375"/>
       <c r="C38" s="55"/>
       <c r="D38" s="63"/>
       <c r="E38" s="193" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F38" s="182"/>
       <c r="G38" s="183"/>
       <c r="H38" s="194" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="195" t="s">
         <v>213</v>
       </c>
-      <c r="I38" s="195" t="s">
-        <v>214</v>
-      </c>
       <c r="J38" s="195" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K38" s="195"/>
       <c r="L38" s="201"/>
@@ -10141,13 +10135,13 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="376" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B39" s="375"/>
       <c r="C39" s="55"/>
       <c r="D39" s="64"/>
       <c r="E39" s="193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F39" s="182"/>
       <c r="G39" s="183"/>
@@ -10158,7 +10152,7 @@
         <v>33</v>
       </c>
       <c r="J39" s="195" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K39" s="195"/>
       <c r="L39" s="201"/>
@@ -10170,15 +10164,15 @@
     </row>
     <row r="40" spans="1:17" ht="59.25" customHeight="1">
       <c r="A40" s="370" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="375"/>
       <c r="C40" s="55"/>
       <c r="D40" s="204" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="193" t="s">
         <v>220</v>
-      </c>
-      <c r="E40" s="193" t="s">
-        <v>221</v>
       </c>
       <c r="F40" s="182"/>
       <c r="G40" s="183"/>
@@ -10189,7 +10183,7 @@
         <v>121</v>
       </c>
       <c r="J40" s="195" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K40" s="195"/>
       <c r="L40" s="201"/>
@@ -10201,13 +10195,13 @@
     </row>
     <row r="41" spans="1:17" ht="45">
       <c r="A41" s="370" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B41" s="375"/>
       <c r="C41" s="55"/>
       <c r="D41" s="63"/>
       <c r="E41" s="193" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F41" s="182"/>
       <c r="G41" s="183"/>
@@ -10218,7 +10212,7 @@
         <v>121</v>
       </c>
       <c r="J41" s="195" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K41" s="195"/>
       <c r="L41" s="201"/>
@@ -10236,7 +10230,7 @@
       <c r="C42" s="55"/>
       <c r="D42" s="63"/>
       <c r="E42" s="193" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F42" s="182"/>
       <c r="G42" s="183"/>
@@ -10247,7 +10241,7 @@
         <v>123</v>
       </c>
       <c r="J42" s="195" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K42" s="195"/>
       <c r="L42" s="201"/>
@@ -10265,7 +10259,7 @@
       <c r="C43" s="55"/>
       <c r="D43" s="63"/>
       <c r="E43" s="193" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F43" s="182"/>
       <c r="G43" s="183"/>
@@ -10276,7 +10270,7 @@
         <v>123</v>
       </c>
       <c r="J43" s="195" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K43" s="195"/>
       <c r="L43" s="201"/>
@@ -10288,24 +10282,24 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="370" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44" s="375"/>
       <c r="C44" s="55"/>
       <c r="D44" s="63"/>
       <c r="E44" s="205" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F44" s="182"/>
       <c r="G44" s="183"/>
       <c r="H44" s="206" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I44" s="207" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J44" s="195" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K44" s="207"/>
       <c r="L44" s="208"/>
@@ -10317,7 +10311,7 @@
     </row>
     <row r="45" spans="1:17" ht="22.5">
       <c r="A45" s="370" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="210" t="s">
@@ -10325,18 +10319,18 @@
       </c>
       <c r="D45" s="211"/>
       <c r="E45" s="211" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F45" s="212"/>
       <c r="G45" s="213"/>
       <c r="H45" s="214" t="s">
+        <v>230</v>
+      </c>
+      <c r="I45" s="215" t="s">
         <v>231</v>
       </c>
-      <c r="I45" s="215" t="s">
-        <v>232</v>
-      </c>
       <c r="J45" s="215" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K45" s="215"/>
       <c r="L45" s="216"/>
@@ -10348,24 +10342,24 @@
     </row>
     <row r="46" spans="1:17" ht="22.5">
       <c r="A46" s="370" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
       <c r="D46" s="63"/>
       <c r="E46" s="219" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F46" s="220"/>
       <c r="G46" s="221"/>
       <c r="H46" s="222" t="s">
+        <v>230</v>
+      </c>
+      <c r="I46" s="223" t="s">
         <v>231</v>
       </c>
-      <c r="I46" s="223" t="s">
-        <v>232</v>
-      </c>
       <c r="J46" s="215" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K46" s="223"/>
       <c r="L46" s="224"/>
@@ -10377,24 +10371,24 @@
     </row>
     <row r="47" spans="1:17" ht="22.5">
       <c r="A47" s="370" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
       <c r="D47" s="63"/>
       <c r="E47" s="227" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F47" s="228"/>
       <c r="G47" s="229"/>
       <c r="H47" s="230" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I47" s="231" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J47" s="215" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K47" s="231"/>
       <c r="L47" s="232"/>
@@ -10406,24 +10400,24 @@
     </row>
     <row r="48" spans="1:17" ht="22.5">
       <c r="A48" s="370" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
       <c r="D48" s="63"/>
       <c r="E48" s="235" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F48" s="236"/>
       <c r="G48" s="237"/>
       <c r="H48" s="238" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I48" s="239" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J48" s="215" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K48" s="239"/>
       <c r="L48" s="240"/>
@@ -10435,24 +10429,24 @@
     </row>
     <row r="49" spans="1:17" ht="33.75">
       <c r="A49" s="370" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
       <c r="D49" s="63"/>
       <c r="E49" s="243" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F49" s="244"/>
       <c r="G49" s="245"/>
       <c r="H49" s="246" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I49" s="247" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J49" s="215" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K49" s="247"/>
       <c r="L49" s="248"/>
@@ -10464,24 +10458,24 @@
     </row>
     <row r="50" spans="1:17" ht="22.5">
       <c r="A50" s="370" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
       <c r="D50" s="63"/>
       <c r="E50" s="251" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F50" s="252"/>
       <c r="G50" s="253"/>
       <c r="H50" s="254" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I50" s="255" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J50" s="215" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K50" s="255"/>
       <c r="L50" s="256"/>
@@ -10493,24 +10487,24 @@
     </row>
     <row r="51" spans="1:17" ht="22.5">
       <c r="A51" s="370" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
       <c r="D51" s="63"/>
       <c r="E51" s="259" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F51" s="260"/>
       <c r="G51" s="261"/>
       <c r="H51" s="262" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I51" s="263" t="s">
         <v>132</v>
       </c>
       <c r="J51" s="215" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K51" s="263"/>
       <c r="L51" s="264"/>
@@ -10522,24 +10516,24 @@
     </row>
     <row r="52" spans="1:17" ht="22.5">
       <c r="A52" s="370" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
       <c r="D52" s="63"/>
       <c r="E52" s="267" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F52" s="268"/>
       <c r="G52" s="269"/>
       <c r="H52" s="270" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I52" s="271" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J52" s="215" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K52" s="271"/>
       <c r="L52" s="272"/>
@@ -10551,24 +10545,24 @@
     </row>
     <row r="53" spans="1:17" ht="22.5">
       <c r="A53" s="370" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B53" s="275"/>
       <c r="C53" s="275"/>
       <c r="D53" s="63"/>
       <c r="E53" s="276" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F53" s="277"/>
       <c r="G53" s="278"/>
       <c r="H53" s="279" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I53" s="280" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J53" s="215" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K53" s="280"/>
       <c r="L53" s="281"/>
@@ -10580,7 +10574,7 @@
     </row>
     <row r="54" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A54" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B54" s="39" t="s">
         <v>34</v>
@@ -10589,10 +10583,10 @@
         <v>35</v>
       </c>
       <c r="D54" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="96" t="s">
         <v>250</v>
-      </c>
-      <c r="E54" s="96" t="s">
-        <v>251</v>
       </c>
       <c r="F54" s="97"/>
       <c r="G54" s="98"/>
@@ -10603,27 +10597,27 @@
         <v>37</v>
       </c>
       <c r="J54" s="100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K54" s="100" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L54" s="46"/>
       <c r="M54" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N54" s="129">
         <v>43658</v>
       </c>
       <c r="O54" s="101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P54" s="47"/>
       <c r="Q54" s="102"/>
     </row>
     <row r="55" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A55" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -10637,30 +10631,30 @@
         <v>36</v>
       </c>
       <c r="I55" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J55" s="104" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K55" s="100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L55" s="34"/>
       <c r="M55" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N55" s="129">
         <v>43658</v>
       </c>
       <c r="O55" s="101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P55" s="32"/>
       <c r="Q55" s="107"/>
     </row>
     <row r="56" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A56" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -10674,30 +10668,30 @@
         <v>36</v>
       </c>
       <c r="I56" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J56" s="100" t="s">
+        <v>347</v>
+      </c>
+      <c r="K56" s="100" t="s">
         <v>348</v>
-      </c>
-      <c r="K56" s="100" t="s">
-        <v>349</v>
       </c>
       <c r="L56" s="34"/>
       <c r="M56" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N56" s="129">
         <v>43658</v>
       </c>
       <c r="O56" s="101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P56" s="32"/>
       <c r="Q56" s="107"/>
     </row>
     <row r="57" spans="1:17" s="43" customFormat="1" ht="33.75">
       <c r="A57" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -10714,27 +10708,27 @@
         <v>37</v>
       </c>
       <c r="J57" s="104" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K57" s="104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L57" s="34"/>
       <c r="M57" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N57" s="48">
         <v>43658</v>
       </c>
       <c r="O57" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P57" s="32"/>
       <c r="Q57" s="107"/>
     </row>
     <row r="58" spans="1:17" s="43" customFormat="1" ht="22.5">
       <c r="A58" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -10748,35 +10742,35 @@
         <v>36</v>
       </c>
       <c r="I58" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J58" s="104" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K58" s="100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L58" s="34"/>
       <c r="M58" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N58" s="129">
         <v>43658</v>
       </c>
       <c r="O58" s="101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P58" s="32"/>
       <c r="Q58" s="107"/>
     </row>
     <row r="59" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A59" s="370" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
       <c r="D59" s="372" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E59" s="284" t="s">
         <v>42</v>
@@ -10787,10 +10781,10 @@
         <v>36</v>
       </c>
       <c r="I59" s="287" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J59" s="323" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K59" s="288"/>
       <c r="L59" s="52"/>
@@ -10802,7 +10796,7 @@
     </row>
     <row r="60" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A60" s="370" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -10816,10 +10810,10 @@
         <v>36</v>
       </c>
       <c r="I60" s="287" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J60" s="323" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K60" s="288"/>
       <c r="L60" s="52"/>
@@ -10831,7 +10825,7 @@
     </row>
     <row r="61" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="370" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -10848,7 +10842,7 @@
         <v>37</v>
       </c>
       <c r="J61" s="323" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K61" s="288"/>
       <c r="L61" s="52"/>
@@ -10860,7 +10854,7 @@
     </row>
     <row r="62" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A62" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -10879,27 +10873,27 @@
         <v>37</v>
       </c>
       <c r="J62" s="359" t="s">
+        <v>350</v>
+      </c>
+      <c r="K62" s="359" t="s">
         <v>351</v>
-      </c>
-      <c r="K62" s="359" t="s">
-        <v>352</v>
       </c>
       <c r="L62" s="34"/>
       <c r="M62" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N62" s="48">
         <v>43658</v>
       </c>
       <c r="O62" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P62" s="32"/>
       <c r="Q62" s="360"/>
     </row>
     <row r="63" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A63" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -10916,27 +10910,27 @@
         <v>37</v>
       </c>
       <c r="J63" s="359" t="s">
+        <v>352</v>
+      </c>
+      <c r="K63" s="359" t="s">
         <v>353</v>
-      </c>
-      <c r="K63" s="359" t="s">
-        <v>354</v>
       </c>
       <c r="L63" s="34"/>
       <c r="M63" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N63" s="48">
         <v>43658</v>
       </c>
       <c r="O63" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P63" s="32"/>
       <c r="Q63" s="360"/>
     </row>
     <row r="64" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A64" s="370" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -10955,7 +10949,7 @@
         <v>50</v>
       </c>
       <c r="J64" s="288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K64" s="288"/>
       <c r="L64" s="52"/>
@@ -10967,7 +10961,7 @@
     </row>
     <row r="65" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="370" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -10984,7 +10978,7 @@
         <v>50</v>
       </c>
       <c r="J65" s="288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K65" s="288"/>
       <c r="L65" s="52"/>
@@ -10996,7 +10990,7 @@
     </row>
     <row r="66" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="370" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -11013,7 +11007,7 @@
         <v>50</v>
       </c>
       <c r="J66" s="288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K66" s="288"/>
       <c r="L66" s="52"/>
@@ -11025,7 +11019,7 @@
     </row>
     <row r="67" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -11034,10 +11028,10 @@
         <v>138</v>
       </c>
       <c r="F67" s="285" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G67" s="286" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H67" s="287" t="s">
         <v>32</v>
@@ -11056,7 +11050,7 @@
     </row>
     <row r="68" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="370" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -11073,7 +11067,7 @@
         <v>50</v>
       </c>
       <c r="J68" s="288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K68" s="288"/>
       <c r="L68" s="52"/>
@@ -11085,13 +11079,13 @@
     </row>
     <row r="69" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="370" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
       <c r="D69" s="56"/>
       <c r="E69" s="288" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F69" s="285"/>
       <c r="G69" s="286"/>
@@ -11102,7 +11096,7 @@
         <v>50</v>
       </c>
       <c r="J69" s="288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K69" s="288"/>
       <c r="L69" s="52"/>
@@ -11114,7 +11108,7 @@
     </row>
     <row r="70" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="370" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -11131,7 +11125,7 @@
         <v>50</v>
       </c>
       <c r="J70" s="288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K70" s="288"/>
       <c r="L70" s="52"/>
@@ -11143,13 +11137,13 @@
     </row>
     <row r="71" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="370" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
       <c r="D71" s="62"/>
       <c r="E71" s="288" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F71" s="285"/>
       <c r="G71" s="286"/>
@@ -11160,7 +11154,7 @@
         <v>50</v>
       </c>
       <c r="J71" s="288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K71" s="288"/>
       <c r="L71" s="52"/>
@@ -11172,7 +11166,7 @@
     </row>
     <row r="72" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="370" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -11180,7 +11174,7 @@
         <v>135</v>
       </c>
       <c r="E72" s="288" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F72" s="285"/>
       <c r="G72" s="286"/>
@@ -11188,10 +11182,10 @@
         <v>32</v>
       </c>
       <c r="I72" s="65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J72" s="288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K72" s="288"/>
       <c r="L72" s="52"/>
@@ -11203,7 +11197,7 @@
     </row>
     <row r="73" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="370" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -11222,7 +11216,7 @@
         <v>54</v>
       </c>
       <c r="J73" s="288" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K73" s="288"/>
       <c r="L73" s="52"/>
@@ -11234,24 +11228,24 @@
     </row>
     <row r="74" spans="1:17" s="31" customFormat="1">
       <c r="A74" s="370" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
       <c r="D74" s="56"/>
       <c r="E74" s="288" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F74" s="285"/>
       <c r="G74" s="286"/>
       <c r="H74" s="287" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I74" s="290" t="s">
         <v>54</v>
       </c>
       <c r="J74" s="288" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K74" s="288"/>
       <c r="L74" s="52"/>
@@ -11263,7 +11257,7 @@
     </row>
     <row r="75" spans="1:17" s="31" customFormat="1">
       <c r="A75" s="370" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -11274,13 +11268,13 @@
       <c r="F75" s="285"/>
       <c r="G75" s="286"/>
       <c r="H75" s="287" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I75" s="290" t="s">
         <v>54</v>
       </c>
       <c r="J75" s="288" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K75" s="288"/>
       <c r="L75" s="52"/>
@@ -11292,7 +11286,7 @@
     </row>
     <row r="76" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="370" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -11305,13 +11299,13 @@
       <c r="F76" s="285"/>
       <c r="G76" s="286"/>
       <c r="H76" s="287" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I76" s="290" t="s">
         <v>54</v>
       </c>
       <c r="J76" s="288" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K76" s="288"/>
       <c r="L76" s="52"/>
@@ -11323,7 +11317,7 @@
     </row>
     <row r="77" spans="1:17" s="31" customFormat="1">
       <c r="A77" s="370" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -11334,13 +11328,13 @@
       <c r="F77" s="285"/>
       <c r="G77" s="286"/>
       <c r="H77" s="287" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I77" s="290" t="s">
         <v>54</v>
       </c>
       <c r="J77" s="288" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K77" s="288"/>
       <c r="L77" s="52"/>
@@ -11352,7 +11346,7 @@
     </row>
     <row r="78" spans="1:17" s="31" customFormat="1">
       <c r="A78" s="370" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -11369,7 +11363,7 @@
         <v>54</v>
       </c>
       <c r="J78" s="288" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K78" s="288"/>
       <c r="L78" s="52"/>
@@ -11381,7 +11375,7 @@
     </row>
     <row r="79" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A79" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -11392,33 +11386,33 @@
       <c r="F79" s="363"/>
       <c r="G79" s="364"/>
       <c r="H79" s="365" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I79" s="313" t="s">
         <v>54</v>
       </c>
       <c r="J79" s="112" t="s">
+        <v>360</v>
+      </c>
+      <c r="K79" s="112" t="s">
         <v>361</v>
-      </c>
-      <c r="K79" s="112" t="s">
-        <v>362</v>
       </c>
       <c r="L79" s="34"/>
       <c r="M79" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N79" s="48">
         <v>43658</v>
       </c>
       <c r="O79" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P79" s="32"/>
       <c r="Q79" s="113"/>
     </row>
     <row r="80" spans="1:17" s="31" customFormat="1" ht="78.75">
       <c r="A80" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -11429,27 +11423,27 @@
       <c r="H80" s="39"/>
       <c r="I80" s="39"/>
       <c r="J80" s="112" t="s">
+        <v>362</v>
+      </c>
+      <c r="K80" s="112" t="s">
         <v>363</v>
-      </c>
-      <c r="K80" s="112" t="s">
-        <v>364</v>
       </c>
       <c r="L80" s="34"/>
       <c r="M80" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N80" s="48">
         <v>43658</v>
       </c>
       <c r="O80" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P80" s="32"/>
       <c r="Q80" s="113"/>
     </row>
     <row r="81" spans="1:17" s="31" customFormat="1" ht="22.5" hidden="1">
       <c r="A81" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -11458,16 +11452,16 @@
       </c>
       <c r="E81" s="159"/>
       <c r="F81" s="132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G81" s="133" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H81" s="287" t="s">
         <v>32</v>
       </c>
       <c r="I81" s="290" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J81" s="288"/>
       <c r="K81" s="288"/>
@@ -11480,7 +11474,7 @@
     </row>
     <row r="82" spans="1:17" s="31" customFormat="1" ht="33.75" customHeight="1">
       <c r="A82" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="114" t="s">
@@ -11493,33 +11487,33 @@
       <c r="F82" s="116"/>
       <c r="G82" s="117"/>
       <c r="H82" s="114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I82" s="114" t="s">
         <v>61</v>
       </c>
       <c r="J82" s="112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K82" s="112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L82" s="118"/>
       <c r="M82" s="119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N82" s="130">
         <v>43658</v>
       </c>
       <c r="O82" s="120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P82" s="119"/>
       <c r="Q82" s="121"/>
     </row>
     <row r="83" spans="1:17" s="31" customFormat="1" ht="33.75" customHeight="1">
       <c r="A83" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -11532,50 +11526,50 @@
       <c r="F83" s="116"/>
       <c r="G83" s="117"/>
       <c r="H83" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I83" s="114" t="s">
         <v>61</v>
       </c>
       <c r="J83" s="112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K83" s="112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L83" s="118"/>
       <c r="M83" s="119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N83" s="130">
         <v>43658</v>
       </c>
       <c r="O83" s="120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P83" s="119"/>
       <c r="Q83" s="121"/>
     </row>
     <row r="84" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A84" s="370" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
       <c r="D84" s="292"/>
       <c r="E84" s="293" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F84" s="294"/>
       <c r="G84" s="295"/>
       <c r="H84" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I84" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J84" s="288" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K84" s="288"/>
       <c r="L84" s="296"/>
@@ -11587,7 +11581,7 @@
     </row>
     <row r="85" spans="1:17" s="31" customFormat="1" ht="33.75" customHeight="1">
       <c r="A85" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -11598,33 +11592,33 @@
       <c r="F85" s="116"/>
       <c r="G85" s="117"/>
       <c r="H85" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I85" s="114" t="s">
         <v>61</v>
       </c>
       <c r="J85" s="112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K85" s="112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L85" s="118"/>
       <c r="M85" s="119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N85" s="130">
         <v>43658</v>
       </c>
       <c r="O85" s="120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P85" s="119"/>
       <c r="Q85" s="121"/>
     </row>
     <row r="86" spans="1:17" s="31" customFormat="1" ht="33.75" customHeight="1">
       <c r="A86" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -11635,33 +11629,33 @@
       <c r="F86" s="116"/>
       <c r="G86" s="117"/>
       <c r="H86" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I86" s="114" t="s">
         <v>61</v>
       </c>
       <c r="J86" s="112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K86" s="112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L86" s="118"/>
       <c r="M86" s="119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N86" s="130">
         <v>43658</v>
       </c>
       <c r="O86" s="120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P86" s="119"/>
       <c r="Q86" s="121"/>
     </row>
     <row r="87" spans="1:17" s="31" customFormat="1" ht="33.75" customHeight="1">
       <c r="A87" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -11672,48 +11666,48 @@
       <c r="F87" s="116"/>
       <c r="G87" s="117"/>
       <c r="H87" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I87" s="114" t="s">
         <v>61</v>
       </c>
       <c r="J87" s="112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K87" s="112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L87" s="118"/>
       <c r="M87" s="119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N87" s="130">
         <v>43658</v>
       </c>
       <c r="O87" s="120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P87" s="119"/>
       <c r="Q87" s="121"/>
     </row>
     <row r="88" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
       <c r="D88" s="292" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E88" s="301"/>
       <c r="F88" s="294" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G88" s="295" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H88" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I88" s="290" t="s">
         <v>61</v>
@@ -11729,7 +11723,7 @@
     </row>
     <row r="89" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -11738,13 +11732,13 @@
       </c>
       <c r="E89" s="301"/>
       <c r="F89" s="294" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G89" s="295" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H89" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I89" s="290" t="s">
         <v>61</v>
@@ -11760,7 +11754,7 @@
     </row>
     <row r="90" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -11769,13 +11763,13 @@
       </c>
       <c r="E90" s="301"/>
       <c r="F90" s="294" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G90" s="295" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H90" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I90" s="290" t="s">
         <v>61</v>
@@ -11791,7 +11785,7 @@
     </row>
     <row r="91" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -11800,13 +11794,13 @@
       </c>
       <c r="E91" s="301"/>
       <c r="F91" s="294" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G91" s="295" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H91" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I91" s="290" t="s">
         <v>61</v>
@@ -11822,7 +11816,7 @@
     </row>
     <row r="92" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A92" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -11831,13 +11825,13 @@
       </c>
       <c r="E92" s="301"/>
       <c r="F92" s="294" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G92" s="295" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H92" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I92" s="290" t="s">
         <v>61</v>
@@ -11853,7 +11847,7 @@
     </row>
     <row r="93" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="370" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -11864,13 +11858,13 @@
       <c r="F93" s="294"/>
       <c r="G93" s="295"/>
       <c r="H93" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I93" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J93" s="288" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K93" s="288"/>
       <c r="L93" s="296"/>
@@ -11882,7 +11876,7 @@
     </row>
     <row r="94" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="370" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -11893,13 +11887,13 @@
       <c r="F94" s="294"/>
       <c r="G94" s="295"/>
       <c r="H94" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I94" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J94" s="288" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K94" s="288"/>
       <c r="L94" s="296"/>
@@ -11911,7 +11905,7 @@
     </row>
     <row r="95" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="370" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -11922,13 +11916,13 @@
       <c r="F95" s="294"/>
       <c r="G95" s="295"/>
       <c r="H95" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I95" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J95" s="288" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K95" s="288"/>
       <c r="L95" s="296"/>
@@ -11940,7 +11934,7 @@
     </row>
     <row r="96" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="370" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -11951,13 +11945,13 @@
       <c r="F96" s="294"/>
       <c r="G96" s="295"/>
       <c r="H96" s="284" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I96" s="284" t="s">
         <v>61</v>
       </c>
       <c r="J96" s="288" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K96" s="302"/>
       <c r="L96" s="52"/>
@@ -11969,7 +11963,7 @@
     </row>
     <row r="97" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A97" s="370" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -11980,13 +11974,13 @@
       <c r="F97" s="294"/>
       <c r="G97" s="295"/>
       <c r="H97" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I97" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J97" s="288" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K97" s="288"/>
       <c r="L97" s="296"/>
@@ -11998,7 +11992,7 @@
     </row>
     <row r="98" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A98" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -12007,13 +12001,13 @@
       </c>
       <c r="E98" s="301"/>
       <c r="F98" s="294" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G98" s="295" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H98" s="284" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I98" s="284" t="s">
         <v>61</v>
@@ -12029,24 +12023,24 @@
     </row>
     <row r="99" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="370" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
       <c r="D99" s="67" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E99" s="70"/>
       <c r="F99" s="294"/>
       <c r="G99" s="295"/>
       <c r="H99" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I99" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J99" s="288" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K99" s="288"/>
       <c r="L99" s="296"/>
@@ -12058,24 +12052,24 @@
     </row>
     <row r="100" spans="1:17" s="31" customFormat="1" ht="106.5" customHeight="1">
       <c r="A100" s="370" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
       <c r="D100" s="67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E100" s="70"/>
       <c r="F100" s="294"/>
       <c r="G100" s="295"/>
       <c r="H100" s="290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I100" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J100" s="288" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K100" s="288"/>
       <c r="L100" s="296"/>
@@ -12087,7 +12081,7 @@
     </row>
     <row r="101" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1">
       <c r="A101" s="371" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -12098,13 +12092,13 @@
       <c r="F101" s="285"/>
       <c r="G101" s="286"/>
       <c r="H101" s="305" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I101" s="305" t="s">
         <v>61</v>
       </c>
       <c r="J101" s="306" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K101" s="306"/>
       <c r="L101" s="307"/>
@@ -12116,22 +12110,22 @@
     </row>
     <row r="102" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
       <c r="D102" s="67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E102" s="70"/>
       <c r="F102" s="285" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G102" s="286" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H102" s="56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I102" s="56" t="s">
         <v>61</v>
@@ -12147,7 +12141,7 @@
     </row>
     <row r="103" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A103" s="68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B103" s="69"/>
       <c r="C103" s="69"/>
@@ -12156,16 +12150,16 @@
       </c>
       <c r="E103" s="304"/>
       <c r="F103" s="285" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G103" s="286" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H103" s="305" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I103" s="305" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J103" s="306"/>
       <c r="K103" s="306"/>
@@ -12370,7 +12364,9 @@
   </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
@@ -12389,7 +12385,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -12399,20 +12395,20 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>0</v>
@@ -12420,10 +12416,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>1</v>
@@ -12453,7 +12449,7 @@
     </row>
     <row r="10" spans="1:17" s="31" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>8</v>
@@ -12468,10 +12464,10 @@
         <v>83</v>
       </c>
       <c r="F10" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="78" t="s">
         <v>161</v>
-      </c>
-      <c r="G10" s="78" t="s">
-        <v>162</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>11</v>
@@ -12486,7 +12482,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>4</v>
@@ -12506,13 +12502,13 @@
     </row>
     <row r="11" spans="1:17" s="31" customFormat="1" ht="120.75" customHeight="1">
       <c r="A11" s="312" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" s="313" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="313" t="s">
-        <v>141</v>
+        <v>386</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>85</v>
@@ -12521,33 +12517,33 @@
       <c r="F11" s="76"/>
       <c r="G11" s="76"/>
       <c r="H11" s="313" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I11" s="313" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J11" s="108" t="s">
+        <v>383</v>
+      </c>
+      <c r="K11" s="108" t="s">
         <v>384</v>
-      </c>
-      <c r="K11" s="108" t="s">
-        <v>385</v>
       </c>
       <c r="L11" s="314"/>
       <c r="M11" s="315" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N11" s="336">
         <v>43658</v>
       </c>
       <c r="O11" s="315" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P11" s="315"/>
       <c r="Q11" s="315"/>
     </row>
     <row r="12" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A12" s="337" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="72"/>
       <c r="C12" s="72"/>
@@ -12558,13 +12554,13 @@
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
       <c r="H12" s="339" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I12" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J12" s="340" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K12" s="340"/>
       <c r="L12" s="341"/>
@@ -12576,7 +12572,7 @@
     </row>
     <row r="13" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="337" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="72"/>
       <c r="C13" s="72"/>
@@ -12587,13 +12583,13 @@
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
       <c r="H13" s="339" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I13" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J13" s="340" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K13" s="340"/>
       <c r="L13" s="341"/>
@@ -12605,7 +12601,7 @@
     </row>
     <row r="14" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A14" s="337" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
@@ -12616,13 +12612,13 @@
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
       <c r="H14" s="339" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I14" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J14" s="340" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K14" s="340"/>
       <c r="L14" s="341"/>
@@ -12634,7 +12630,7 @@
     </row>
     <row r="15" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="337" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="72"/>
       <c r="C15" s="72"/>
@@ -12647,13 +12643,13 @@
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
       <c r="H15" s="339" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I15" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J15" s="340" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K15" s="340"/>
       <c r="L15" s="341"/>
@@ -12665,7 +12661,7 @@
     </row>
     <row r="16" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="337" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
@@ -12676,13 +12672,13 @@
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
       <c r="H16" s="339" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I16" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J16" s="340" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K16" s="340"/>
       <c r="L16" s="341"/>
@@ -12694,7 +12690,7 @@
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="337" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
@@ -12705,13 +12701,13 @@
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
       <c r="H17" s="339" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I17" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J17" s="340" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K17" s="340"/>
       <c r="L17" s="341"/>
@@ -12723,7 +12719,7 @@
     </row>
     <row r="18" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="337" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
@@ -12734,13 +12730,13 @@
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
       <c r="H18" s="339" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I18" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J18" s="340" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K18" s="340"/>
       <c r="L18" s="341"/>
@@ -12752,12 +12748,12 @@
     </row>
     <row r="19" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="337" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
       <c r="D19" s="74" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E19" s="65" t="s">
         <v>93</v>
@@ -12765,13 +12761,13 @@
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
       <c r="H19" s="339" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I19" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J19" s="340" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K19" s="340"/>
       <c r="L19" s="341"/>
@@ -12783,7 +12779,7 @@
     </row>
     <row r="20" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A20" s="337" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
@@ -12791,18 +12787,18 @@
         <v>102</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F20" s="77"/>
       <c r="G20" s="77"/>
       <c r="H20" s="339" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I20" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J20" s="340" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K20" s="340"/>
       <c r="L20" s="341"/>
@@ -12814,44 +12810,44 @@
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="379" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="380"/>
       <c r="C21" s="380"/>
       <c r="D21" s="448" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E21" s="449"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
       <c r="H21" s="313" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I21" s="313" t="s">
         <v>86</v>
       </c>
       <c r="J21" s="381" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K21" s="381" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L21" s="382"/>
       <c r="M21" s="315" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N21" s="336">
         <v>43658</v>
       </c>
       <c r="O21" s="315" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P21" s="383"/>
       <c r="Q21" s="383"/>
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A22" s="337" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B22" s="72"/>
       <c r="C22" s="344" t="s">
@@ -12864,13 +12860,13 @@
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="H22" s="339" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I22" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J22" s="340" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K22" s="340"/>
       <c r="L22" s="341"/>
@@ -12882,7 +12878,7 @@
     </row>
     <row r="23" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="337" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
@@ -12893,13 +12889,13 @@
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="339" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I23" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J23" s="340" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K23" s="340"/>
       <c r="L23" s="341"/>
@@ -12911,10 +12907,10 @@
     </row>
     <row r="24" spans="1:17" s="31" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A24" s="337" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" s="339" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="345" t="s">
         <v>100</v>
@@ -12922,10 +12918,10 @@
       <c r="D24" s="346"/>
       <c r="E24" s="347"/>
       <c r="F24" s="77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G24" s="348" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H24" s="74" t="s">
         <v>26</v>
@@ -12944,25 +12940,25 @@
     </row>
     <row r="25" spans="1:17" s="31" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A25" s="349" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" s="350"/>
       <c r="C25" s="351" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D25" s="352"/>
       <c r="E25" s="353"/>
       <c r="F25" s="77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G25" s="77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H25" s="354" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I25" s="354" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J25" s="355"/>
       <c r="K25" s="355"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10103_TOPメニュー.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10103_TOPメニュー.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834E756-8CF8-4C7B-9AC4-2217FC8B89F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0FA11D-C17F-40E1-ACC0-AFA1518F82B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="445" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -24,7 +24,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2. 取引単体'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1350,6 +1358,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>画面遷移パターン(※1)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>UI部品動作確認</t>
     <rPh sb="2" eb="4">
       <t>ブヒン</t>
@@ -2811,16 +2829,6 @@
   </si>
   <si>
     <t>シナリオID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面遷移パターン</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6067,6 +6075,117 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6103,9 +6222,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6145,115 +6261,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7121,9 +7129,7 @@
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
@@ -7742,57 +7748,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="417" t="s">
+      <c r="A1" s="391" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="418"/>
-      <c r="C1" s="418"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="426" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
-      <c r="I1" s="421"/>
-      <c r="J1" s="421"/>
-      <c r="K1" s="421"/>
-      <c r="L1" s="421"/>
-      <c r="M1" s="421"/>
-      <c r="N1" s="422"/>
-      <c r="O1" s="427" t="s">
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="400" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="395"/>
+      <c r="G1" s="395"/>
+      <c r="H1" s="395"/>
+      <c r="I1" s="395"/>
+      <c r="J1" s="395"/>
+      <c r="K1" s="395"/>
+      <c r="L1" s="395"/>
+      <c r="M1" s="395"/>
+      <c r="N1" s="396"/>
+      <c r="O1" s="401" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="428"/>
-      <c r="Q1" s="428"/>
-      <c r="R1" s="429"/>
-      <c r="S1" s="436" t="s">
+      <c r="P1" s="402"/>
+      <c r="Q1" s="402"/>
+      <c r="R1" s="403"/>
+      <c r="S1" s="410" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="437"/>
-      <c r="U1" s="437"/>
-      <c r="V1" s="437"/>
-      <c r="W1" s="437"/>
-      <c r="X1" s="437"/>
-      <c r="Y1" s="437"/>
-      <c r="Z1" s="438"/>
-      <c r="AA1" s="417" t="s">
+      <c r="T1" s="411"/>
+      <c r="U1" s="411"/>
+      <c r="V1" s="411"/>
+      <c r="W1" s="411"/>
+      <c r="X1" s="411"/>
+      <c r="Y1" s="411"/>
+      <c r="Z1" s="412"/>
+      <c r="AA1" s="391" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="419"/>
-      <c r="AC1" s="445" t="str">
+      <c r="AB1" s="393"/>
+      <c r="AC1" s="419" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="446"/>
-      <c r="AE1" s="446"/>
-      <c r="AF1" s="447"/>
-      <c r="AG1" s="411">
+      <c r="AD1" s="420"/>
+      <c r="AE1" s="420"/>
+      <c r="AF1" s="421"/>
+      <c r="AG1" s="385">
         <f>IF(D8="","",D8)</f>
         <v>43657</v>
       </c>
-      <c r="AH1" s="412"/>
-      <c r="AI1" s="413"/>
+      <c r="AH1" s="386"/>
+      <c r="AI1" s="387"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -7800,53 +7806,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="417" t="s">
+      <c r="A2" s="391" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="418"/>
-      <c r="C2" s="418"/>
-      <c r="D2" s="419"/>
-      <c r="E2" s="420" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="421"/>
-      <c r="G2" s="421"/>
-      <c r="H2" s="421"/>
-      <c r="I2" s="421"/>
-      <c r="J2" s="421"/>
-      <c r="K2" s="421"/>
-      <c r="L2" s="421"/>
-      <c r="M2" s="421"/>
-      <c r="N2" s="422"/>
-      <c r="O2" s="430"/>
-      <c r="P2" s="431"/>
-      <c r="Q2" s="431"/>
-      <c r="R2" s="432"/>
-      <c r="S2" s="439"/>
-      <c r="T2" s="440"/>
-      <c r="U2" s="440"/>
-      <c r="V2" s="440"/>
-      <c r="W2" s="440"/>
-      <c r="X2" s="440"/>
-      <c r="Y2" s="440"/>
-      <c r="Z2" s="441"/>
-      <c r="AA2" s="417" t="s">
+      <c r="B2" s="392"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="394" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="395"/>
+      <c r="G2" s="395"/>
+      <c r="H2" s="395"/>
+      <c r="I2" s="395"/>
+      <c r="J2" s="395"/>
+      <c r="K2" s="395"/>
+      <c r="L2" s="395"/>
+      <c r="M2" s="395"/>
+      <c r="N2" s="396"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="405"/>
+      <c r="Q2" s="405"/>
+      <c r="R2" s="406"/>
+      <c r="S2" s="413"/>
+      <c r="T2" s="414"/>
+      <c r="U2" s="414"/>
+      <c r="V2" s="414"/>
+      <c r="W2" s="414"/>
+      <c r="X2" s="414"/>
+      <c r="Y2" s="414"/>
+      <c r="Z2" s="415"/>
+      <c r="AA2" s="391" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="419"/>
-      <c r="AC2" s="423" t="str">
+      <c r="AB2" s="393"/>
+      <c r="AC2" s="397" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="424"/>
-      <c r="AE2" s="424"/>
-      <c r="AF2" s="425"/>
-      <c r="AG2" s="411" t="str">
+      <c r="AD2" s="398"/>
+      <c r="AE2" s="398"/>
+      <c r="AF2" s="399"/>
+      <c r="AG2" s="385" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="412"/>
-      <c r="AI2" s="413"/>
+      <c r="AH2" s="386"/>
+      <c r="AI2" s="387"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -7854,45 +7860,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="417" t="s">
+      <c r="A3" s="391" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="418"/>
-      <c r="C3" s="418"/>
-      <c r="D3" s="419"/>
-      <c r="E3" s="420" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="421"/>
-      <c r="G3" s="421"/>
-      <c r="H3" s="421"/>
-      <c r="I3" s="421"/>
-      <c r="J3" s="421"/>
-      <c r="K3" s="421"/>
-      <c r="L3" s="421"/>
-      <c r="M3" s="421"/>
-      <c r="N3" s="422"/>
-      <c r="O3" s="433"/>
-      <c r="P3" s="434"/>
-      <c r="Q3" s="434"/>
-      <c r="R3" s="435"/>
-      <c r="S3" s="442"/>
-      <c r="T3" s="443"/>
-      <c r="U3" s="443"/>
-      <c r="V3" s="443"/>
-      <c r="W3" s="443"/>
-      <c r="X3" s="443"/>
-      <c r="Y3" s="443"/>
-      <c r="Z3" s="444"/>
-      <c r="AA3" s="417"/>
-      <c r="AB3" s="419"/>
-      <c r="AC3" s="445"/>
-      <c r="AD3" s="446"/>
-      <c r="AE3" s="446"/>
-      <c r="AF3" s="447"/>
-      <c r="AG3" s="411"/>
-      <c r="AH3" s="412"/>
-      <c r="AI3" s="413"/>
+      <c r="B3" s="392"/>
+      <c r="C3" s="392"/>
+      <c r="D3" s="393"/>
+      <c r="E3" s="394" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="395"/>
+      <c r="N3" s="396"/>
+      <c r="O3" s="407"/>
+      <c r="P3" s="408"/>
+      <c r="Q3" s="408"/>
+      <c r="R3" s="409"/>
+      <c r="S3" s="416"/>
+      <c r="T3" s="417"/>
+      <c r="U3" s="417"/>
+      <c r="V3" s="417"/>
+      <c r="W3" s="417"/>
+      <c r="X3" s="417"/>
+      <c r="Y3" s="417"/>
+      <c r="Z3" s="418"/>
+      <c r="AA3" s="391"/>
+      <c r="AB3" s="393"/>
+      <c r="AC3" s="419"/>
+      <c r="AD3" s="420"/>
+      <c r="AE3" s="420"/>
+      <c r="AF3" s="421"/>
+      <c r="AG3" s="385"/>
+      <c r="AH3" s="386"/>
+      <c r="AI3" s="387"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7929,1034 +7935,1190 @@
       <c r="A7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="414" t="s">
+      <c r="B7" s="388" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="415"/>
-      <c r="D7" s="414" t="s">
+      <c r="C7" s="389"/>
+      <c r="D7" s="388" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="416"/>
-      <c r="F7" s="415"/>
-      <c r="G7" s="414" t="s">
+      <c r="E7" s="390"/>
+      <c r="F7" s="389"/>
+      <c r="G7" s="388" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="416"/>
-      <c r="I7" s="415"/>
-      <c r="J7" s="414" t="s">
+      <c r="H7" s="390"/>
+      <c r="I7" s="389"/>
+      <c r="J7" s="388" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="416"/>
-      <c r="L7" s="416"/>
-      <c r="M7" s="416"/>
-      <c r="N7" s="416"/>
-      <c r="O7" s="416"/>
-      <c r="P7" s="415"/>
-      <c r="Q7" s="414" t="s">
+      <c r="K7" s="390"/>
+      <c r="L7" s="390"/>
+      <c r="M7" s="390"/>
+      <c r="N7" s="390"/>
+      <c r="O7" s="390"/>
+      <c r="P7" s="389"/>
+      <c r="Q7" s="388" t="s">
         <v>117</v>
       </c>
-      <c r="R7" s="416"/>
-      <c r="S7" s="416"/>
-      <c r="T7" s="416"/>
-      <c r="U7" s="416"/>
-      <c r="V7" s="416"/>
-      <c r="W7" s="416"/>
-      <c r="X7" s="416"/>
-      <c r="Y7" s="416"/>
-      <c r="Z7" s="416"/>
-      <c r="AA7" s="416"/>
-      <c r="AB7" s="416"/>
-      <c r="AC7" s="416"/>
-      <c r="AD7" s="416"/>
-      <c r="AE7" s="415"/>
-      <c r="AF7" s="414" t="s">
+      <c r="R7" s="390"/>
+      <c r="S7" s="390"/>
+      <c r="T7" s="390"/>
+      <c r="U7" s="390"/>
+      <c r="V7" s="390"/>
+      <c r="W7" s="390"/>
+      <c r="X7" s="390"/>
+      <c r="Y7" s="390"/>
+      <c r="Z7" s="390"/>
+      <c r="AA7" s="390"/>
+      <c r="AB7" s="390"/>
+      <c r="AC7" s="390"/>
+      <c r="AD7" s="390"/>
+      <c r="AE7" s="389"/>
+      <c r="AF7" s="388" t="s">
         <v>118</v>
       </c>
-      <c r="AG7" s="416"/>
-      <c r="AH7" s="416"/>
-      <c r="AI7" s="415"/>
+      <c r="AG7" s="390"/>
+      <c r="AH7" s="390"/>
+      <c r="AI7" s="389"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="398" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="399"/>
-      <c r="D8" s="400">
+      <c r="B8" s="434" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="435"/>
+      <c r="D8" s="436">
         <v>43657</v>
       </c>
-      <c r="E8" s="401"/>
-      <c r="F8" s="402"/>
-      <c r="G8" s="403" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="404"/>
-      <c r="I8" s="399"/>
-      <c r="J8" s="405" t="s">
+      <c r="E8" s="437"/>
+      <c r="F8" s="438"/>
+      <c r="G8" s="439" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="406"/>
-      <c r="L8" s="406"/>
-      <c r="M8" s="406"/>
-      <c r="N8" s="406"/>
-      <c r="O8" s="406"/>
-      <c r="P8" s="407"/>
-      <c r="Q8" s="408" t="s">
+      <c r="H8" s="440"/>
+      <c r="I8" s="435"/>
+      <c r="J8" s="441" t="s">
         <v>153</v>
       </c>
-      <c r="R8" s="409"/>
-      <c r="S8" s="409"/>
-      <c r="T8" s="409"/>
-      <c r="U8" s="409"/>
-      <c r="V8" s="409"/>
-      <c r="W8" s="409"/>
-      <c r="X8" s="409"/>
-      <c r="Y8" s="409"/>
-      <c r="Z8" s="409"/>
-      <c r="AA8" s="409"/>
-      <c r="AB8" s="409"/>
-      <c r="AC8" s="409"/>
-      <c r="AD8" s="409"/>
-      <c r="AE8" s="410"/>
-      <c r="AF8" s="405" t="s">
+      <c r="K8" s="442"/>
+      <c r="L8" s="442"/>
+      <c r="M8" s="442"/>
+      <c r="N8" s="442"/>
+      <c r="O8" s="442"/>
+      <c r="P8" s="443"/>
+      <c r="Q8" s="444" t="s">
         <v>154</v>
       </c>
-      <c r="AG8" s="406"/>
-      <c r="AH8" s="406"/>
-      <c r="AI8" s="407"/>
+      <c r="R8" s="445"/>
+      <c r="S8" s="445"/>
+      <c r="T8" s="445"/>
+      <c r="U8" s="445"/>
+      <c r="V8" s="445"/>
+      <c r="W8" s="445"/>
+      <c r="X8" s="445"/>
+      <c r="Y8" s="445"/>
+      <c r="Z8" s="445"/>
+      <c r="AA8" s="445"/>
+      <c r="AB8" s="445"/>
+      <c r="AC8" s="445"/>
+      <c r="AD8" s="445"/>
+      <c r="AE8" s="446"/>
+      <c r="AF8" s="441" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG8" s="442"/>
+      <c r="AH8" s="442"/>
+      <c r="AI8" s="443"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="385"/>
-      <c r="C9" s="386"/>
-      <c r="D9" s="387"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="389"/>
-      <c r="G9" s="387"/>
-      <c r="H9" s="390"/>
-      <c r="I9" s="386"/>
-      <c r="J9" s="391"/>
-      <c r="K9" s="392"/>
-      <c r="L9" s="392"/>
-      <c r="M9" s="392"/>
-      <c r="N9" s="392"/>
-      <c r="O9" s="392"/>
-      <c r="P9" s="393"/>
-      <c r="Q9" s="394"/>
-      <c r="R9" s="395"/>
-      <c r="S9" s="395"/>
-      <c r="T9" s="395"/>
-      <c r="U9" s="395"/>
-      <c r="V9" s="395"/>
-      <c r="W9" s="395"/>
-      <c r="X9" s="395"/>
-      <c r="Y9" s="395"/>
-      <c r="Z9" s="395"/>
-      <c r="AA9" s="395"/>
-      <c r="AB9" s="395"/>
-      <c r="AC9" s="395"/>
-      <c r="AD9" s="395"/>
-      <c r="AE9" s="396"/>
-      <c r="AF9" s="391"/>
-      <c r="AG9" s="392"/>
-      <c r="AH9" s="392"/>
-      <c r="AI9" s="393"/>
+      <c r="B9" s="422"/>
+      <c r="C9" s="423"/>
+      <c r="D9" s="424"/>
+      <c r="E9" s="425"/>
+      <c r="F9" s="426"/>
+      <c r="G9" s="424"/>
+      <c r="H9" s="427"/>
+      <c r="I9" s="423"/>
+      <c r="J9" s="428"/>
+      <c r="K9" s="429"/>
+      <c r="L9" s="429"/>
+      <c r="M9" s="429"/>
+      <c r="N9" s="429"/>
+      <c r="O9" s="429"/>
+      <c r="P9" s="430"/>
+      <c r="Q9" s="431"/>
+      <c r="R9" s="432"/>
+      <c r="S9" s="432"/>
+      <c r="T9" s="432"/>
+      <c r="U9" s="432"/>
+      <c r="V9" s="432"/>
+      <c r="W9" s="432"/>
+      <c r="X9" s="432"/>
+      <c r="Y9" s="432"/>
+      <c r="Z9" s="432"/>
+      <c r="AA9" s="432"/>
+      <c r="AB9" s="432"/>
+      <c r="AC9" s="432"/>
+      <c r="AD9" s="432"/>
+      <c r="AE9" s="433"/>
+      <c r="AF9" s="428"/>
+      <c r="AG9" s="429"/>
+      <c r="AH9" s="429"/>
+      <c r="AI9" s="430"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="385"/>
-      <c r="C10" s="386"/>
-      <c r="D10" s="387"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="389"/>
-      <c r="G10" s="385"/>
-      <c r="H10" s="390"/>
-      <c r="I10" s="386"/>
-      <c r="J10" s="391"/>
-      <c r="K10" s="392"/>
-      <c r="L10" s="392"/>
-      <c r="M10" s="392"/>
-      <c r="N10" s="392"/>
-      <c r="O10" s="392"/>
-      <c r="P10" s="393"/>
-      <c r="Q10" s="394"/>
-      <c r="R10" s="395"/>
-      <c r="S10" s="395"/>
-      <c r="T10" s="395"/>
-      <c r="U10" s="395"/>
-      <c r="V10" s="395"/>
-      <c r="W10" s="395"/>
-      <c r="X10" s="395"/>
-      <c r="Y10" s="395"/>
-      <c r="Z10" s="395"/>
-      <c r="AA10" s="395"/>
-      <c r="AB10" s="395"/>
-      <c r="AC10" s="395"/>
-      <c r="AD10" s="395"/>
-      <c r="AE10" s="396"/>
-      <c r="AF10" s="391"/>
-      <c r="AG10" s="392"/>
-      <c r="AH10" s="392"/>
-      <c r="AI10" s="393"/>
+      <c r="B10" s="422"/>
+      <c r="C10" s="423"/>
+      <c r="D10" s="424"/>
+      <c r="E10" s="425"/>
+      <c r="F10" s="426"/>
+      <c r="G10" s="422"/>
+      <c r="H10" s="427"/>
+      <c r="I10" s="423"/>
+      <c r="J10" s="428"/>
+      <c r="K10" s="429"/>
+      <c r="L10" s="429"/>
+      <c r="M10" s="429"/>
+      <c r="N10" s="429"/>
+      <c r="O10" s="429"/>
+      <c r="P10" s="430"/>
+      <c r="Q10" s="431"/>
+      <c r="R10" s="432"/>
+      <c r="S10" s="432"/>
+      <c r="T10" s="432"/>
+      <c r="U10" s="432"/>
+      <c r="V10" s="432"/>
+      <c r="W10" s="432"/>
+      <c r="X10" s="432"/>
+      <c r="Y10" s="432"/>
+      <c r="Z10" s="432"/>
+      <c r="AA10" s="432"/>
+      <c r="AB10" s="432"/>
+      <c r="AC10" s="432"/>
+      <c r="AD10" s="432"/>
+      <c r="AE10" s="433"/>
+      <c r="AF10" s="428"/>
+      <c r="AG10" s="429"/>
+      <c r="AH10" s="429"/>
+      <c r="AI10" s="430"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="385"/>
-      <c r="C11" s="386"/>
-      <c r="D11" s="387"/>
-      <c r="E11" s="388"/>
-      <c r="F11" s="389"/>
-      <c r="G11" s="385"/>
-      <c r="H11" s="390"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="391"/>
-      <c r="K11" s="392"/>
-      <c r="L11" s="392"/>
-      <c r="M11" s="392"/>
-      <c r="N11" s="392"/>
-      <c r="O11" s="392"/>
-      <c r="P11" s="393"/>
-      <c r="Q11" s="394"/>
-      <c r="R11" s="395"/>
-      <c r="S11" s="395"/>
-      <c r="T11" s="395"/>
-      <c r="U11" s="395"/>
-      <c r="V11" s="395"/>
-      <c r="W11" s="395"/>
-      <c r="X11" s="395"/>
-      <c r="Y11" s="395"/>
-      <c r="Z11" s="395"/>
-      <c r="AA11" s="395"/>
-      <c r="AB11" s="395"/>
-      <c r="AC11" s="395"/>
-      <c r="AD11" s="395"/>
-      <c r="AE11" s="396"/>
-      <c r="AF11" s="391"/>
-      <c r="AG11" s="392"/>
-      <c r="AH11" s="392"/>
-      <c r="AI11" s="393"/>
+      <c r="B11" s="422"/>
+      <c r="C11" s="423"/>
+      <c r="D11" s="424"/>
+      <c r="E11" s="425"/>
+      <c r="F11" s="426"/>
+      <c r="G11" s="422"/>
+      <c r="H11" s="427"/>
+      <c r="I11" s="423"/>
+      <c r="J11" s="428"/>
+      <c r="K11" s="429"/>
+      <c r="L11" s="429"/>
+      <c r="M11" s="429"/>
+      <c r="N11" s="429"/>
+      <c r="O11" s="429"/>
+      <c r="P11" s="430"/>
+      <c r="Q11" s="431"/>
+      <c r="R11" s="432"/>
+      <c r="S11" s="432"/>
+      <c r="T11" s="432"/>
+      <c r="U11" s="432"/>
+      <c r="V11" s="432"/>
+      <c r="W11" s="432"/>
+      <c r="X11" s="432"/>
+      <c r="Y11" s="432"/>
+      <c r="Z11" s="432"/>
+      <c r="AA11" s="432"/>
+      <c r="AB11" s="432"/>
+      <c r="AC11" s="432"/>
+      <c r="AD11" s="432"/>
+      <c r="AE11" s="433"/>
+      <c r="AF11" s="428"/>
+      <c r="AG11" s="429"/>
+      <c r="AH11" s="429"/>
+      <c r="AI11" s="430"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="385"/>
-      <c r="C12" s="386"/>
-      <c r="D12" s="387"/>
-      <c r="E12" s="388"/>
-      <c r="F12" s="389"/>
-      <c r="G12" s="385"/>
-      <c r="H12" s="390"/>
-      <c r="I12" s="386"/>
-      <c r="J12" s="391"/>
-      <c r="K12" s="392"/>
-      <c r="L12" s="392"/>
-      <c r="M12" s="392"/>
-      <c r="N12" s="392"/>
-      <c r="O12" s="392"/>
-      <c r="P12" s="393"/>
-      <c r="Q12" s="394"/>
-      <c r="R12" s="395"/>
-      <c r="S12" s="395"/>
-      <c r="T12" s="395"/>
-      <c r="U12" s="395"/>
-      <c r="V12" s="395"/>
-      <c r="W12" s="395"/>
-      <c r="X12" s="395"/>
-      <c r="Y12" s="395"/>
-      <c r="Z12" s="395"/>
-      <c r="AA12" s="395"/>
-      <c r="AB12" s="395"/>
-      <c r="AC12" s="395"/>
-      <c r="AD12" s="395"/>
-      <c r="AE12" s="396"/>
-      <c r="AF12" s="391"/>
-      <c r="AG12" s="392"/>
-      <c r="AH12" s="392"/>
-      <c r="AI12" s="393"/>
+      <c r="B12" s="422"/>
+      <c r="C12" s="423"/>
+      <c r="D12" s="424"/>
+      <c r="E12" s="425"/>
+      <c r="F12" s="426"/>
+      <c r="G12" s="422"/>
+      <c r="H12" s="427"/>
+      <c r="I12" s="423"/>
+      <c r="J12" s="428"/>
+      <c r="K12" s="429"/>
+      <c r="L12" s="429"/>
+      <c r="M12" s="429"/>
+      <c r="N12" s="429"/>
+      <c r="O12" s="429"/>
+      <c r="P12" s="430"/>
+      <c r="Q12" s="431"/>
+      <c r="R12" s="432"/>
+      <c r="S12" s="432"/>
+      <c r="T12" s="432"/>
+      <c r="U12" s="432"/>
+      <c r="V12" s="432"/>
+      <c r="W12" s="432"/>
+      <c r="X12" s="432"/>
+      <c r="Y12" s="432"/>
+      <c r="Z12" s="432"/>
+      <c r="AA12" s="432"/>
+      <c r="AB12" s="432"/>
+      <c r="AC12" s="432"/>
+      <c r="AD12" s="432"/>
+      <c r="AE12" s="433"/>
+      <c r="AF12" s="428"/>
+      <c r="AG12" s="429"/>
+      <c r="AH12" s="429"/>
+      <c r="AI12" s="430"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="385"/>
-      <c r="C13" s="386"/>
-      <c r="D13" s="387"/>
-      <c r="E13" s="388"/>
-      <c r="F13" s="389"/>
-      <c r="G13" s="385"/>
-      <c r="H13" s="390"/>
-      <c r="I13" s="386"/>
-      <c r="J13" s="391"/>
-      <c r="K13" s="392"/>
-      <c r="L13" s="392"/>
-      <c r="M13" s="392"/>
-      <c r="N13" s="392"/>
-      <c r="O13" s="392"/>
-      <c r="P13" s="393"/>
-      <c r="Q13" s="394"/>
-      <c r="R13" s="395"/>
-      <c r="S13" s="395"/>
-      <c r="T13" s="395"/>
-      <c r="U13" s="395"/>
-      <c r="V13" s="395"/>
-      <c r="W13" s="395"/>
-      <c r="X13" s="395"/>
-      <c r="Y13" s="395"/>
-      <c r="Z13" s="395"/>
-      <c r="AA13" s="395"/>
-      <c r="AB13" s="395"/>
-      <c r="AC13" s="395"/>
-      <c r="AD13" s="395"/>
-      <c r="AE13" s="396"/>
-      <c r="AF13" s="391"/>
-      <c r="AG13" s="392"/>
-      <c r="AH13" s="392"/>
-      <c r="AI13" s="393"/>
+      <c r="B13" s="422"/>
+      <c r="C13" s="423"/>
+      <c r="D13" s="424"/>
+      <c r="E13" s="425"/>
+      <c r="F13" s="426"/>
+      <c r="G13" s="422"/>
+      <c r="H13" s="427"/>
+      <c r="I13" s="423"/>
+      <c r="J13" s="428"/>
+      <c r="K13" s="429"/>
+      <c r="L13" s="429"/>
+      <c r="M13" s="429"/>
+      <c r="N13" s="429"/>
+      <c r="O13" s="429"/>
+      <c r="P13" s="430"/>
+      <c r="Q13" s="431"/>
+      <c r="R13" s="432"/>
+      <c r="S13" s="432"/>
+      <c r="T13" s="432"/>
+      <c r="U13" s="432"/>
+      <c r="V13" s="432"/>
+      <c r="W13" s="432"/>
+      <c r="X13" s="432"/>
+      <c r="Y13" s="432"/>
+      <c r="Z13" s="432"/>
+      <c r="AA13" s="432"/>
+      <c r="AB13" s="432"/>
+      <c r="AC13" s="432"/>
+      <c r="AD13" s="432"/>
+      <c r="AE13" s="433"/>
+      <c r="AF13" s="428"/>
+      <c r="AG13" s="429"/>
+      <c r="AH13" s="429"/>
+      <c r="AI13" s="430"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="385"/>
-      <c r="C14" s="386"/>
-      <c r="D14" s="387"/>
-      <c r="E14" s="388"/>
-      <c r="F14" s="389"/>
-      <c r="G14" s="385"/>
-      <c r="H14" s="390"/>
-      <c r="I14" s="386"/>
-      <c r="J14" s="391"/>
-      <c r="K14" s="392"/>
-      <c r="L14" s="392"/>
-      <c r="M14" s="392"/>
-      <c r="N14" s="392"/>
-      <c r="O14" s="392"/>
-      <c r="P14" s="393"/>
-      <c r="Q14" s="394"/>
-      <c r="R14" s="395"/>
-      <c r="S14" s="395"/>
-      <c r="T14" s="395"/>
-      <c r="U14" s="395"/>
-      <c r="V14" s="395"/>
-      <c r="W14" s="395"/>
-      <c r="X14" s="395"/>
-      <c r="Y14" s="395"/>
-      <c r="Z14" s="395"/>
-      <c r="AA14" s="395"/>
-      <c r="AB14" s="395"/>
-      <c r="AC14" s="395"/>
-      <c r="AD14" s="395"/>
-      <c r="AE14" s="396"/>
-      <c r="AF14" s="391"/>
-      <c r="AG14" s="392"/>
-      <c r="AH14" s="392"/>
-      <c r="AI14" s="393"/>
+      <c r="B14" s="422"/>
+      <c r="C14" s="423"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="425"/>
+      <c r="F14" s="426"/>
+      <c r="G14" s="422"/>
+      <c r="H14" s="427"/>
+      <c r="I14" s="423"/>
+      <c r="J14" s="428"/>
+      <c r="K14" s="429"/>
+      <c r="L14" s="429"/>
+      <c r="M14" s="429"/>
+      <c r="N14" s="429"/>
+      <c r="O14" s="429"/>
+      <c r="P14" s="430"/>
+      <c r="Q14" s="431"/>
+      <c r="R14" s="432"/>
+      <c r="S14" s="432"/>
+      <c r="T14" s="432"/>
+      <c r="U14" s="432"/>
+      <c r="V14" s="432"/>
+      <c r="W14" s="432"/>
+      <c r="X14" s="432"/>
+      <c r="Y14" s="432"/>
+      <c r="Z14" s="432"/>
+      <c r="AA14" s="432"/>
+      <c r="AB14" s="432"/>
+      <c r="AC14" s="432"/>
+      <c r="AD14" s="432"/>
+      <c r="AE14" s="433"/>
+      <c r="AF14" s="428"/>
+      <c r="AG14" s="429"/>
+      <c r="AH14" s="429"/>
+      <c r="AI14" s="430"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="385"/>
-      <c r="C15" s="386"/>
-      <c r="D15" s="387"/>
-      <c r="E15" s="388"/>
-      <c r="F15" s="389"/>
-      <c r="G15" s="385"/>
-      <c r="H15" s="390"/>
-      <c r="I15" s="386"/>
-      <c r="J15" s="391"/>
-      <c r="K15" s="392"/>
-      <c r="L15" s="392"/>
-      <c r="M15" s="392"/>
-      <c r="N15" s="392"/>
-      <c r="O15" s="392"/>
-      <c r="P15" s="393"/>
-      <c r="Q15" s="394"/>
-      <c r="R15" s="395"/>
-      <c r="S15" s="395"/>
-      <c r="T15" s="395"/>
-      <c r="U15" s="395"/>
-      <c r="V15" s="395"/>
-      <c r="W15" s="395"/>
-      <c r="X15" s="395"/>
-      <c r="Y15" s="395"/>
-      <c r="Z15" s="395"/>
-      <c r="AA15" s="395"/>
-      <c r="AB15" s="395"/>
-      <c r="AC15" s="395"/>
-      <c r="AD15" s="395"/>
-      <c r="AE15" s="396"/>
-      <c r="AF15" s="391"/>
-      <c r="AG15" s="392"/>
-      <c r="AH15" s="392"/>
-      <c r="AI15" s="393"/>
+      <c r="B15" s="422"/>
+      <c r="C15" s="423"/>
+      <c r="D15" s="424"/>
+      <c r="E15" s="425"/>
+      <c r="F15" s="426"/>
+      <c r="G15" s="422"/>
+      <c r="H15" s="427"/>
+      <c r="I15" s="423"/>
+      <c r="J15" s="428"/>
+      <c r="K15" s="429"/>
+      <c r="L15" s="429"/>
+      <c r="M15" s="429"/>
+      <c r="N15" s="429"/>
+      <c r="O15" s="429"/>
+      <c r="P15" s="430"/>
+      <c r="Q15" s="431"/>
+      <c r="R15" s="432"/>
+      <c r="S15" s="432"/>
+      <c r="T15" s="432"/>
+      <c r="U15" s="432"/>
+      <c r="V15" s="432"/>
+      <c r="W15" s="432"/>
+      <c r="X15" s="432"/>
+      <c r="Y15" s="432"/>
+      <c r="Z15" s="432"/>
+      <c r="AA15" s="432"/>
+      <c r="AB15" s="432"/>
+      <c r="AC15" s="432"/>
+      <c r="AD15" s="432"/>
+      <c r="AE15" s="433"/>
+      <c r="AF15" s="428"/>
+      <c r="AG15" s="429"/>
+      <c r="AH15" s="429"/>
+      <c r="AI15" s="430"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="385"/>
-      <c r="C16" s="386"/>
-      <c r="D16" s="387"/>
-      <c r="E16" s="388"/>
-      <c r="F16" s="389"/>
-      <c r="G16" s="385"/>
-      <c r="H16" s="390"/>
-      <c r="I16" s="386"/>
-      <c r="J16" s="391"/>
-      <c r="K16" s="392"/>
-      <c r="L16" s="392"/>
-      <c r="M16" s="392"/>
-      <c r="N16" s="392"/>
-      <c r="O16" s="392"/>
-      <c r="P16" s="393"/>
-      <c r="Q16" s="394"/>
-      <c r="R16" s="395"/>
-      <c r="S16" s="395"/>
-      <c r="T16" s="395"/>
-      <c r="U16" s="395"/>
-      <c r="V16" s="395"/>
-      <c r="W16" s="395"/>
-      <c r="X16" s="395"/>
-      <c r="Y16" s="395"/>
-      <c r="Z16" s="395"/>
-      <c r="AA16" s="395"/>
-      <c r="AB16" s="395"/>
-      <c r="AC16" s="395"/>
-      <c r="AD16" s="395"/>
-      <c r="AE16" s="396"/>
-      <c r="AF16" s="391"/>
-      <c r="AG16" s="392"/>
-      <c r="AH16" s="392"/>
-      <c r="AI16" s="393"/>
+      <c r="B16" s="422"/>
+      <c r="C16" s="423"/>
+      <c r="D16" s="424"/>
+      <c r="E16" s="425"/>
+      <c r="F16" s="426"/>
+      <c r="G16" s="422"/>
+      <c r="H16" s="427"/>
+      <c r="I16" s="423"/>
+      <c r="J16" s="428"/>
+      <c r="K16" s="429"/>
+      <c r="L16" s="429"/>
+      <c r="M16" s="429"/>
+      <c r="N16" s="429"/>
+      <c r="O16" s="429"/>
+      <c r="P16" s="430"/>
+      <c r="Q16" s="431"/>
+      <c r="R16" s="432"/>
+      <c r="S16" s="432"/>
+      <c r="T16" s="432"/>
+      <c r="U16" s="432"/>
+      <c r="V16" s="432"/>
+      <c r="W16" s="432"/>
+      <c r="X16" s="432"/>
+      <c r="Y16" s="432"/>
+      <c r="Z16" s="432"/>
+      <c r="AA16" s="432"/>
+      <c r="AB16" s="432"/>
+      <c r="AC16" s="432"/>
+      <c r="AD16" s="432"/>
+      <c r="AE16" s="433"/>
+      <c r="AF16" s="428"/>
+      <c r="AG16" s="429"/>
+      <c r="AH16" s="429"/>
+      <c r="AI16" s="430"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="385"/>
-      <c r="C17" s="386"/>
-      <c r="D17" s="387"/>
-      <c r="E17" s="388"/>
-      <c r="F17" s="389"/>
-      <c r="G17" s="385"/>
-      <c r="H17" s="390"/>
-      <c r="I17" s="386"/>
-      <c r="J17" s="391"/>
-      <c r="K17" s="392"/>
-      <c r="L17" s="392"/>
-      <c r="M17" s="392"/>
-      <c r="N17" s="392"/>
-      <c r="O17" s="392"/>
-      <c r="P17" s="393"/>
-      <c r="Q17" s="394"/>
-      <c r="R17" s="395"/>
-      <c r="S17" s="395"/>
-      <c r="T17" s="395"/>
-      <c r="U17" s="395"/>
-      <c r="V17" s="395"/>
-      <c r="W17" s="395"/>
-      <c r="X17" s="395"/>
-      <c r="Y17" s="395"/>
-      <c r="Z17" s="395"/>
-      <c r="AA17" s="395"/>
-      <c r="AB17" s="395"/>
-      <c r="AC17" s="395"/>
-      <c r="AD17" s="395"/>
-      <c r="AE17" s="396"/>
-      <c r="AF17" s="391"/>
-      <c r="AG17" s="392"/>
-      <c r="AH17" s="392"/>
-      <c r="AI17" s="393"/>
+      <c r="B17" s="422"/>
+      <c r="C17" s="423"/>
+      <c r="D17" s="424"/>
+      <c r="E17" s="425"/>
+      <c r="F17" s="426"/>
+      <c r="G17" s="422"/>
+      <c r="H17" s="427"/>
+      <c r="I17" s="423"/>
+      <c r="J17" s="428"/>
+      <c r="K17" s="429"/>
+      <c r="L17" s="429"/>
+      <c r="M17" s="429"/>
+      <c r="N17" s="429"/>
+      <c r="O17" s="429"/>
+      <c r="P17" s="430"/>
+      <c r="Q17" s="431"/>
+      <c r="R17" s="432"/>
+      <c r="S17" s="432"/>
+      <c r="T17" s="432"/>
+      <c r="U17" s="432"/>
+      <c r="V17" s="432"/>
+      <c r="W17" s="432"/>
+      <c r="X17" s="432"/>
+      <c r="Y17" s="432"/>
+      <c r="Z17" s="432"/>
+      <c r="AA17" s="432"/>
+      <c r="AB17" s="432"/>
+      <c r="AC17" s="432"/>
+      <c r="AD17" s="432"/>
+      <c r="AE17" s="433"/>
+      <c r="AF17" s="428"/>
+      <c r="AG17" s="429"/>
+      <c r="AH17" s="429"/>
+      <c r="AI17" s="430"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="385"/>
-      <c r="C18" s="386"/>
-      <c r="D18" s="387"/>
-      <c r="E18" s="388"/>
-      <c r="F18" s="389"/>
-      <c r="G18" s="385"/>
-      <c r="H18" s="390"/>
-      <c r="I18" s="386"/>
-      <c r="J18" s="391"/>
-      <c r="K18" s="392"/>
-      <c r="L18" s="392"/>
-      <c r="M18" s="392"/>
-      <c r="N18" s="392"/>
-      <c r="O18" s="392"/>
-      <c r="P18" s="393"/>
-      <c r="Q18" s="394"/>
-      <c r="R18" s="395"/>
-      <c r="S18" s="395"/>
-      <c r="T18" s="395"/>
-      <c r="U18" s="395"/>
-      <c r="V18" s="395"/>
-      <c r="W18" s="395"/>
-      <c r="X18" s="395"/>
-      <c r="Y18" s="395"/>
-      <c r="Z18" s="395"/>
-      <c r="AA18" s="395"/>
-      <c r="AB18" s="395"/>
-      <c r="AC18" s="395"/>
-      <c r="AD18" s="395"/>
-      <c r="AE18" s="396"/>
-      <c r="AF18" s="391"/>
-      <c r="AG18" s="392"/>
-      <c r="AH18" s="392"/>
-      <c r="AI18" s="393"/>
+      <c r="B18" s="422"/>
+      <c r="C18" s="423"/>
+      <c r="D18" s="424"/>
+      <c r="E18" s="425"/>
+      <c r="F18" s="426"/>
+      <c r="G18" s="422"/>
+      <c r="H18" s="427"/>
+      <c r="I18" s="423"/>
+      <c r="J18" s="428"/>
+      <c r="K18" s="429"/>
+      <c r="L18" s="429"/>
+      <c r="M18" s="429"/>
+      <c r="N18" s="429"/>
+      <c r="O18" s="429"/>
+      <c r="P18" s="430"/>
+      <c r="Q18" s="431"/>
+      <c r="R18" s="432"/>
+      <c r="S18" s="432"/>
+      <c r="T18" s="432"/>
+      <c r="U18" s="432"/>
+      <c r="V18" s="432"/>
+      <c r="W18" s="432"/>
+      <c r="X18" s="432"/>
+      <c r="Y18" s="432"/>
+      <c r="Z18" s="432"/>
+      <c r="AA18" s="432"/>
+      <c r="AB18" s="432"/>
+      <c r="AC18" s="432"/>
+      <c r="AD18" s="432"/>
+      <c r="AE18" s="433"/>
+      <c r="AF18" s="428"/>
+      <c r="AG18" s="429"/>
+      <c r="AH18" s="429"/>
+      <c r="AI18" s="430"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="385"/>
-      <c r="C19" s="386"/>
-      <c r="D19" s="387"/>
-      <c r="E19" s="388"/>
-      <c r="F19" s="389"/>
-      <c r="G19" s="385"/>
-      <c r="H19" s="390"/>
-      <c r="I19" s="386"/>
-      <c r="J19" s="391"/>
-      <c r="K19" s="392"/>
-      <c r="L19" s="392"/>
-      <c r="M19" s="392"/>
-      <c r="N19" s="392"/>
-      <c r="O19" s="392"/>
-      <c r="P19" s="393"/>
-      <c r="Q19" s="394"/>
-      <c r="R19" s="395"/>
-      <c r="S19" s="395"/>
-      <c r="T19" s="395"/>
-      <c r="U19" s="395"/>
-      <c r="V19" s="395"/>
-      <c r="W19" s="395"/>
-      <c r="X19" s="395"/>
-      <c r="Y19" s="395"/>
-      <c r="Z19" s="395"/>
-      <c r="AA19" s="395"/>
-      <c r="AB19" s="395"/>
-      <c r="AC19" s="395"/>
-      <c r="AD19" s="395"/>
-      <c r="AE19" s="396"/>
-      <c r="AF19" s="391"/>
-      <c r="AG19" s="392"/>
-      <c r="AH19" s="392"/>
-      <c r="AI19" s="393"/>
+      <c r="B19" s="422"/>
+      <c r="C19" s="423"/>
+      <c r="D19" s="424"/>
+      <c r="E19" s="425"/>
+      <c r="F19" s="426"/>
+      <c r="G19" s="422"/>
+      <c r="H19" s="427"/>
+      <c r="I19" s="423"/>
+      <c r="J19" s="428"/>
+      <c r="K19" s="429"/>
+      <c r="L19" s="429"/>
+      <c r="M19" s="429"/>
+      <c r="N19" s="429"/>
+      <c r="O19" s="429"/>
+      <c r="P19" s="430"/>
+      <c r="Q19" s="431"/>
+      <c r="R19" s="432"/>
+      <c r="S19" s="432"/>
+      <c r="T19" s="432"/>
+      <c r="U19" s="432"/>
+      <c r="V19" s="432"/>
+      <c r="W19" s="432"/>
+      <c r="X19" s="432"/>
+      <c r="Y19" s="432"/>
+      <c r="Z19" s="432"/>
+      <c r="AA19" s="432"/>
+      <c r="AB19" s="432"/>
+      <c r="AC19" s="432"/>
+      <c r="AD19" s="432"/>
+      <c r="AE19" s="433"/>
+      <c r="AF19" s="428"/>
+      <c r="AG19" s="429"/>
+      <c r="AH19" s="429"/>
+      <c r="AI19" s="430"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="385"/>
-      <c r="C20" s="386"/>
-      <c r="D20" s="387"/>
-      <c r="E20" s="388"/>
-      <c r="F20" s="389"/>
-      <c r="G20" s="385"/>
-      <c r="H20" s="390"/>
-      <c r="I20" s="386"/>
-      <c r="J20" s="391"/>
-      <c r="K20" s="392"/>
-      <c r="L20" s="392"/>
-      <c r="M20" s="392"/>
-      <c r="N20" s="392"/>
-      <c r="O20" s="392"/>
-      <c r="P20" s="393"/>
-      <c r="Q20" s="394"/>
-      <c r="R20" s="395"/>
-      <c r="S20" s="395"/>
-      <c r="T20" s="395"/>
-      <c r="U20" s="395"/>
-      <c r="V20" s="395"/>
-      <c r="W20" s="395"/>
-      <c r="X20" s="395"/>
-      <c r="Y20" s="395"/>
-      <c r="Z20" s="395"/>
-      <c r="AA20" s="395"/>
-      <c r="AB20" s="395"/>
-      <c r="AC20" s="395"/>
-      <c r="AD20" s="395"/>
-      <c r="AE20" s="396"/>
-      <c r="AF20" s="391"/>
-      <c r="AG20" s="392"/>
-      <c r="AH20" s="392"/>
-      <c r="AI20" s="393"/>
+      <c r="B20" s="422"/>
+      <c r="C20" s="423"/>
+      <c r="D20" s="424"/>
+      <c r="E20" s="425"/>
+      <c r="F20" s="426"/>
+      <c r="G20" s="422"/>
+      <c r="H20" s="427"/>
+      <c r="I20" s="423"/>
+      <c r="J20" s="428"/>
+      <c r="K20" s="429"/>
+      <c r="L20" s="429"/>
+      <c r="M20" s="429"/>
+      <c r="N20" s="429"/>
+      <c r="O20" s="429"/>
+      <c r="P20" s="430"/>
+      <c r="Q20" s="431"/>
+      <c r="R20" s="432"/>
+      <c r="S20" s="432"/>
+      <c r="T20" s="432"/>
+      <c r="U20" s="432"/>
+      <c r="V20" s="432"/>
+      <c r="W20" s="432"/>
+      <c r="X20" s="432"/>
+      <c r="Y20" s="432"/>
+      <c r="Z20" s="432"/>
+      <c r="AA20" s="432"/>
+      <c r="AB20" s="432"/>
+      <c r="AC20" s="432"/>
+      <c r="AD20" s="432"/>
+      <c r="AE20" s="433"/>
+      <c r="AF20" s="428"/>
+      <c r="AG20" s="429"/>
+      <c r="AH20" s="429"/>
+      <c r="AI20" s="430"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="385"/>
-      <c r="C21" s="386"/>
-      <c r="D21" s="387"/>
-      <c r="E21" s="388"/>
-      <c r="F21" s="389"/>
-      <c r="G21" s="385"/>
-      <c r="H21" s="390"/>
-      <c r="I21" s="386"/>
-      <c r="J21" s="391"/>
-      <c r="K21" s="392"/>
-      <c r="L21" s="392"/>
-      <c r="M21" s="392"/>
-      <c r="N21" s="392"/>
-      <c r="O21" s="392"/>
-      <c r="P21" s="393"/>
-      <c r="Q21" s="394"/>
-      <c r="R21" s="395"/>
-      <c r="S21" s="395"/>
-      <c r="T21" s="395"/>
-      <c r="U21" s="395"/>
-      <c r="V21" s="395"/>
-      <c r="W21" s="395"/>
-      <c r="X21" s="395"/>
-      <c r="Y21" s="395"/>
-      <c r="Z21" s="395"/>
-      <c r="AA21" s="395"/>
-      <c r="AB21" s="395"/>
-      <c r="AC21" s="395"/>
-      <c r="AD21" s="395"/>
-      <c r="AE21" s="396"/>
-      <c r="AF21" s="391"/>
-      <c r="AG21" s="392"/>
-      <c r="AH21" s="392"/>
-      <c r="AI21" s="393"/>
+      <c r="B21" s="422"/>
+      <c r="C21" s="423"/>
+      <c r="D21" s="424"/>
+      <c r="E21" s="425"/>
+      <c r="F21" s="426"/>
+      <c r="G21" s="422"/>
+      <c r="H21" s="427"/>
+      <c r="I21" s="423"/>
+      <c r="J21" s="428"/>
+      <c r="K21" s="429"/>
+      <c r="L21" s="429"/>
+      <c r="M21" s="429"/>
+      <c r="N21" s="429"/>
+      <c r="O21" s="429"/>
+      <c r="P21" s="430"/>
+      <c r="Q21" s="431"/>
+      <c r="R21" s="432"/>
+      <c r="S21" s="432"/>
+      <c r="T21" s="432"/>
+      <c r="U21" s="432"/>
+      <c r="V21" s="432"/>
+      <c r="W21" s="432"/>
+      <c r="X21" s="432"/>
+      <c r="Y21" s="432"/>
+      <c r="Z21" s="432"/>
+      <c r="AA21" s="432"/>
+      <c r="AB21" s="432"/>
+      <c r="AC21" s="432"/>
+      <c r="AD21" s="432"/>
+      <c r="AE21" s="433"/>
+      <c r="AF21" s="428"/>
+      <c r="AG21" s="429"/>
+      <c r="AH21" s="429"/>
+      <c r="AI21" s="430"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="385"/>
-      <c r="C22" s="386"/>
-      <c r="D22" s="387"/>
-      <c r="E22" s="388"/>
-      <c r="F22" s="389"/>
-      <c r="G22" s="385"/>
-      <c r="H22" s="390"/>
-      <c r="I22" s="386"/>
-      <c r="J22" s="391"/>
-      <c r="K22" s="392"/>
-      <c r="L22" s="392"/>
-      <c r="M22" s="392"/>
-      <c r="N22" s="392"/>
-      <c r="O22" s="392"/>
-      <c r="P22" s="393"/>
-      <c r="Q22" s="394"/>
-      <c r="R22" s="395"/>
-      <c r="S22" s="395"/>
-      <c r="T22" s="395"/>
-      <c r="U22" s="395"/>
-      <c r="V22" s="395"/>
-      <c r="W22" s="395"/>
-      <c r="X22" s="395"/>
-      <c r="Y22" s="395"/>
-      <c r="Z22" s="395"/>
-      <c r="AA22" s="395"/>
-      <c r="AB22" s="395"/>
-      <c r="AC22" s="395"/>
-      <c r="AD22" s="395"/>
-      <c r="AE22" s="396"/>
-      <c r="AF22" s="391"/>
-      <c r="AG22" s="392"/>
-      <c r="AH22" s="392"/>
-      <c r="AI22" s="393"/>
+      <c r="B22" s="422"/>
+      <c r="C22" s="423"/>
+      <c r="D22" s="424"/>
+      <c r="E22" s="425"/>
+      <c r="F22" s="426"/>
+      <c r="G22" s="422"/>
+      <c r="H22" s="427"/>
+      <c r="I22" s="423"/>
+      <c r="J22" s="428"/>
+      <c r="K22" s="429"/>
+      <c r="L22" s="429"/>
+      <c r="M22" s="429"/>
+      <c r="N22" s="429"/>
+      <c r="O22" s="429"/>
+      <c r="P22" s="430"/>
+      <c r="Q22" s="431"/>
+      <c r="R22" s="432"/>
+      <c r="S22" s="432"/>
+      <c r="T22" s="432"/>
+      <c r="U22" s="432"/>
+      <c r="V22" s="432"/>
+      <c r="W22" s="432"/>
+      <c r="X22" s="432"/>
+      <c r="Y22" s="432"/>
+      <c r="Z22" s="432"/>
+      <c r="AA22" s="432"/>
+      <c r="AB22" s="432"/>
+      <c r="AC22" s="432"/>
+      <c r="AD22" s="432"/>
+      <c r="AE22" s="433"/>
+      <c r="AF22" s="428"/>
+      <c r="AG22" s="429"/>
+      <c r="AH22" s="429"/>
+      <c r="AI22" s="430"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="385"/>
-      <c r="C23" s="386"/>
-      <c r="D23" s="387"/>
-      <c r="E23" s="388"/>
-      <c r="F23" s="389"/>
-      <c r="G23" s="385"/>
-      <c r="H23" s="390"/>
-      <c r="I23" s="386"/>
-      <c r="J23" s="391"/>
-      <c r="K23" s="392"/>
-      <c r="L23" s="392"/>
-      <c r="M23" s="392"/>
-      <c r="N23" s="392"/>
-      <c r="O23" s="392"/>
-      <c r="P23" s="393"/>
-      <c r="Q23" s="394"/>
-      <c r="R23" s="395"/>
-      <c r="S23" s="395"/>
-      <c r="T23" s="395"/>
-      <c r="U23" s="395"/>
-      <c r="V23" s="395"/>
-      <c r="W23" s="395"/>
-      <c r="X23" s="395"/>
-      <c r="Y23" s="395"/>
-      <c r="Z23" s="395"/>
-      <c r="AA23" s="395"/>
-      <c r="AB23" s="395"/>
-      <c r="AC23" s="395"/>
-      <c r="AD23" s="395"/>
-      <c r="AE23" s="396"/>
-      <c r="AF23" s="391"/>
-      <c r="AG23" s="392"/>
-      <c r="AH23" s="392"/>
-      <c r="AI23" s="393"/>
+      <c r="B23" s="422"/>
+      <c r="C23" s="423"/>
+      <c r="D23" s="424"/>
+      <c r="E23" s="425"/>
+      <c r="F23" s="426"/>
+      <c r="G23" s="422"/>
+      <c r="H23" s="427"/>
+      <c r="I23" s="423"/>
+      <c r="J23" s="428"/>
+      <c r="K23" s="429"/>
+      <c r="L23" s="429"/>
+      <c r="M23" s="429"/>
+      <c r="N23" s="429"/>
+      <c r="O23" s="429"/>
+      <c r="P23" s="430"/>
+      <c r="Q23" s="431"/>
+      <c r="R23" s="432"/>
+      <c r="S23" s="432"/>
+      <c r="T23" s="432"/>
+      <c r="U23" s="432"/>
+      <c r="V23" s="432"/>
+      <c r="W23" s="432"/>
+      <c r="X23" s="432"/>
+      <c r="Y23" s="432"/>
+      <c r="Z23" s="432"/>
+      <c r="AA23" s="432"/>
+      <c r="AB23" s="432"/>
+      <c r="AC23" s="432"/>
+      <c r="AD23" s="432"/>
+      <c r="AE23" s="433"/>
+      <c r="AF23" s="428"/>
+      <c r="AG23" s="429"/>
+      <c r="AH23" s="429"/>
+      <c r="AI23" s="430"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="385"/>
-      <c r="C24" s="386"/>
-      <c r="D24" s="387"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="385"/>
-      <c r="H24" s="390"/>
-      <c r="I24" s="386"/>
-      <c r="J24" s="391"/>
-      <c r="K24" s="392"/>
-      <c r="L24" s="392"/>
-      <c r="M24" s="392"/>
-      <c r="N24" s="392"/>
-      <c r="O24" s="392"/>
-      <c r="P24" s="393"/>
-      <c r="Q24" s="394"/>
-      <c r="R24" s="395"/>
-      <c r="S24" s="395"/>
-      <c r="T24" s="395"/>
-      <c r="U24" s="395"/>
-      <c r="V24" s="395"/>
-      <c r="W24" s="395"/>
-      <c r="X24" s="395"/>
-      <c r="Y24" s="395"/>
-      <c r="Z24" s="395"/>
-      <c r="AA24" s="395"/>
-      <c r="AB24" s="395"/>
-      <c r="AC24" s="395"/>
-      <c r="AD24" s="395"/>
-      <c r="AE24" s="396"/>
-      <c r="AF24" s="391"/>
-      <c r="AG24" s="392"/>
-      <c r="AH24" s="392"/>
-      <c r="AI24" s="393"/>
+      <c r="B24" s="422"/>
+      <c r="C24" s="423"/>
+      <c r="D24" s="424"/>
+      <c r="E24" s="425"/>
+      <c r="F24" s="426"/>
+      <c r="G24" s="422"/>
+      <c r="H24" s="427"/>
+      <c r="I24" s="423"/>
+      <c r="J24" s="428"/>
+      <c r="K24" s="429"/>
+      <c r="L24" s="429"/>
+      <c r="M24" s="429"/>
+      <c r="N24" s="429"/>
+      <c r="O24" s="429"/>
+      <c r="P24" s="430"/>
+      <c r="Q24" s="431"/>
+      <c r="R24" s="432"/>
+      <c r="S24" s="432"/>
+      <c r="T24" s="432"/>
+      <c r="U24" s="432"/>
+      <c r="V24" s="432"/>
+      <c r="W24" s="432"/>
+      <c r="X24" s="432"/>
+      <c r="Y24" s="432"/>
+      <c r="Z24" s="432"/>
+      <c r="AA24" s="432"/>
+      <c r="AB24" s="432"/>
+      <c r="AC24" s="432"/>
+      <c r="AD24" s="432"/>
+      <c r="AE24" s="433"/>
+      <c r="AF24" s="428"/>
+      <c r="AG24" s="429"/>
+      <c r="AH24" s="429"/>
+      <c r="AI24" s="430"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="385"/>
-      <c r="C25" s="386"/>
-      <c r="D25" s="387"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="385"/>
-      <c r="H25" s="390"/>
-      <c r="I25" s="386"/>
-      <c r="J25" s="391"/>
-      <c r="K25" s="392"/>
-      <c r="L25" s="392"/>
-      <c r="M25" s="392"/>
-      <c r="N25" s="392"/>
-      <c r="O25" s="392"/>
-      <c r="P25" s="393"/>
-      <c r="Q25" s="394"/>
-      <c r="R25" s="395"/>
-      <c r="S25" s="395"/>
-      <c r="T25" s="395"/>
-      <c r="U25" s="395"/>
-      <c r="V25" s="395"/>
-      <c r="W25" s="395"/>
-      <c r="X25" s="395"/>
-      <c r="Y25" s="395"/>
-      <c r="Z25" s="395"/>
-      <c r="AA25" s="395"/>
-      <c r="AB25" s="395"/>
-      <c r="AC25" s="395"/>
-      <c r="AD25" s="395"/>
-      <c r="AE25" s="396"/>
-      <c r="AF25" s="391"/>
-      <c r="AG25" s="392"/>
-      <c r="AH25" s="392"/>
-      <c r="AI25" s="393"/>
+      <c r="B25" s="422"/>
+      <c r="C25" s="423"/>
+      <c r="D25" s="424"/>
+      <c r="E25" s="425"/>
+      <c r="F25" s="426"/>
+      <c r="G25" s="422"/>
+      <c r="H25" s="427"/>
+      <c r="I25" s="423"/>
+      <c r="J25" s="428"/>
+      <c r="K25" s="429"/>
+      <c r="L25" s="429"/>
+      <c r="M25" s="429"/>
+      <c r="N25" s="429"/>
+      <c r="O25" s="429"/>
+      <c r="P25" s="430"/>
+      <c r="Q25" s="431"/>
+      <c r="R25" s="432"/>
+      <c r="S25" s="432"/>
+      <c r="T25" s="432"/>
+      <c r="U25" s="432"/>
+      <c r="V25" s="432"/>
+      <c r="W25" s="432"/>
+      <c r="X25" s="432"/>
+      <c r="Y25" s="432"/>
+      <c r="Z25" s="432"/>
+      <c r="AA25" s="432"/>
+      <c r="AB25" s="432"/>
+      <c r="AC25" s="432"/>
+      <c r="AD25" s="432"/>
+      <c r="AE25" s="433"/>
+      <c r="AF25" s="428"/>
+      <c r="AG25" s="429"/>
+      <c r="AH25" s="429"/>
+      <c r="AI25" s="430"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="385"/>
-      <c r="C26" s="386"/>
-      <c r="D26" s="387"/>
-      <c r="E26" s="388"/>
-      <c r="F26" s="389"/>
-      <c r="G26" s="385"/>
-      <c r="H26" s="390"/>
-      <c r="I26" s="386"/>
-      <c r="J26" s="391"/>
-      <c r="K26" s="392"/>
-      <c r="L26" s="392"/>
-      <c r="M26" s="392"/>
-      <c r="N26" s="392"/>
-      <c r="O26" s="392"/>
-      <c r="P26" s="393"/>
-      <c r="Q26" s="394"/>
-      <c r="R26" s="395"/>
-      <c r="S26" s="395"/>
-      <c r="T26" s="395"/>
-      <c r="U26" s="395"/>
-      <c r="V26" s="395"/>
-      <c r="W26" s="395"/>
-      <c r="X26" s="395"/>
-      <c r="Y26" s="395"/>
-      <c r="Z26" s="395"/>
-      <c r="AA26" s="395"/>
-      <c r="AB26" s="395"/>
-      <c r="AC26" s="395"/>
-      <c r="AD26" s="395"/>
-      <c r="AE26" s="396"/>
-      <c r="AF26" s="391"/>
-      <c r="AG26" s="392"/>
-      <c r="AH26" s="392"/>
-      <c r="AI26" s="393"/>
+      <c r="B26" s="422"/>
+      <c r="C26" s="423"/>
+      <c r="D26" s="424"/>
+      <c r="E26" s="425"/>
+      <c r="F26" s="426"/>
+      <c r="G26" s="422"/>
+      <c r="H26" s="427"/>
+      <c r="I26" s="423"/>
+      <c r="J26" s="428"/>
+      <c r="K26" s="429"/>
+      <c r="L26" s="429"/>
+      <c r="M26" s="429"/>
+      <c r="N26" s="429"/>
+      <c r="O26" s="429"/>
+      <c r="P26" s="430"/>
+      <c r="Q26" s="431"/>
+      <c r="R26" s="432"/>
+      <c r="S26" s="432"/>
+      <c r="T26" s="432"/>
+      <c r="U26" s="432"/>
+      <c r="V26" s="432"/>
+      <c r="W26" s="432"/>
+      <c r="X26" s="432"/>
+      <c r="Y26" s="432"/>
+      <c r="Z26" s="432"/>
+      <c r="AA26" s="432"/>
+      <c r="AB26" s="432"/>
+      <c r="AC26" s="432"/>
+      <c r="AD26" s="432"/>
+      <c r="AE26" s="433"/>
+      <c r="AF26" s="428"/>
+      <c r="AG26" s="429"/>
+      <c r="AH26" s="429"/>
+      <c r="AI26" s="430"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="385"/>
-      <c r="C27" s="386"/>
-      <c r="D27" s="387"/>
-      <c r="E27" s="388"/>
-      <c r="F27" s="389"/>
-      <c r="G27" s="385"/>
-      <c r="H27" s="390"/>
-      <c r="I27" s="386"/>
-      <c r="J27" s="391"/>
-      <c r="K27" s="392"/>
-      <c r="L27" s="392"/>
-      <c r="M27" s="392"/>
-      <c r="N27" s="392"/>
-      <c r="O27" s="392"/>
-      <c r="P27" s="393"/>
-      <c r="Q27" s="394"/>
-      <c r="R27" s="395"/>
-      <c r="S27" s="395"/>
-      <c r="T27" s="395"/>
-      <c r="U27" s="395"/>
-      <c r="V27" s="395"/>
-      <c r="W27" s="395"/>
-      <c r="X27" s="395"/>
-      <c r="Y27" s="395"/>
-      <c r="Z27" s="395"/>
-      <c r="AA27" s="395"/>
-      <c r="AB27" s="395"/>
-      <c r="AC27" s="395"/>
-      <c r="AD27" s="395"/>
-      <c r="AE27" s="396"/>
-      <c r="AF27" s="391"/>
-      <c r="AG27" s="392"/>
-      <c r="AH27" s="392"/>
-      <c r="AI27" s="393"/>
+      <c r="B27" s="422"/>
+      <c r="C27" s="423"/>
+      <c r="D27" s="424"/>
+      <c r="E27" s="425"/>
+      <c r="F27" s="426"/>
+      <c r="G27" s="422"/>
+      <c r="H27" s="427"/>
+      <c r="I27" s="423"/>
+      <c r="J27" s="428"/>
+      <c r="K27" s="429"/>
+      <c r="L27" s="429"/>
+      <c r="M27" s="429"/>
+      <c r="N27" s="429"/>
+      <c r="O27" s="429"/>
+      <c r="P27" s="430"/>
+      <c r="Q27" s="431"/>
+      <c r="R27" s="432"/>
+      <c r="S27" s="432"/>
+      <c r="T27" s="432"/>
+      <c r="U27" s="432"/>
+      <c r="V27" s="432"/>
+      <c r="W27" s="432"/>
+      <c r="X27" s="432"/>
+      <c r="Y27" s="432"/>
+      <c r="Z27" s="432"/>
+      <c r="AA27" s="432"/>
+      <c r="AB27" s="432"/>
+      <c r="AC27" s="432"/>
+      <c r="AD27" s="432"/>
+      <c r="AE27" s="433"/>
+      <c r="AF27" s="428"/>
+      <c r="AG27" s="429"/>
+      <c r="AH27" s="429"/>
+      <c r="AI27" s="430"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="385"/>
-      <c r="C28" s="386"/>
-      <c r="D28" s="387"/>
-      <c r="E28" s="388"/>
-      <c r="F28" s="389"/>
-      <c r="G28" s="385"/>
-      <c r="H28" s="390"/>
-      <c r="I28" s="386"/>
-      <c r="J28" s="391"/>
-      <c r="K28" s="392"/>
-      <c r="L28" s="392"/>
-      <c r="M28" s="392"/>
-      <c r="N28" s="392"/>
-      <c r="O28" s="392"/>
-      <c r="P28" s="393"/>
-      <c r="Q28" s="394"/>
-      <c r="R28" s="395"/>
-      <c r="S28" s="395"/>
-      <c r="T28" s="395"/>
-      <c r="U28" s="395"/>
-      <c r="V28" s="395"/>
-      <c r="W28" s="395"/>
-      <c r="X28" s="395"/>
-      <c r="Y28" s="395"/>
-      <c r="Z28" s="395"/>
-      <c r="AA28" s="395"/>
-      <c r="AB28" s="395"/>
-      <c r="AC28" s="395"/>
-      <c r="AD28" s="395"/>
-      <c r="AE28" s="396"/>
-      <c r="AF28" s="391"/>
-      <c r="AG28" s="392"/>
-      <c r="AH28" s="392"/>
-      <c r="AI28" s="393"/>
+      <c r="B28" s="422"/>
+      <c r="C28" s="423"/>
+      <c r="D28" s="424"/>
+      <c r="E28" s="425"/>
+      <c r="F28" s="426"/>
+      <c r="G28" s="422"/>
+      <c r="H28" s="427"/>
+      <c r="I28" s="423"/>
+      <c r="J28" s="428"/>
+      <c r="K28" s="429"/>
+      <c r="L28" s="429"/>
+      <c r="M28" s="429"/>
+      <c r="N28" s="429"/>
+      <c r="O28" s="429"/>
+      <c r="P28" s="430"/>
+      <c r="Q28" s="431"/>
+      <c r="R28" s="432"/>
+      <c r="S28" s="432"/>
+      <c r="T28" s="432"/>
+      <c r="U28" s="432"/>
+      <c r="V28" s="432"/>
+      <c r="W28" s="432"/>
+      <c r="X28" s="432"/>
+      <c r="Y28" s="432"/>
+      <c r="Z28" s="432"/>
+      <c r="AA28" s="432"/>
+      <c r="AB28" s="432"/>
+      <c r="AC28" s="432"/>
+      <c r="AD28" s="432"/>
+      <c r="AE28" s="433"/>
+      <c r="AF28" s="428"/>
+      <c r="AG28" s="429"/>
+      <c r="AH28" s="429"/>
+      <c r="AI28" s="430"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="385"/>
-      <c r="C29" s="386"/>
-      <c r="D29" s="387"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="385"/>
-      <c r="H29" s="390"/>
-      <c r="I29" s="386"/>
-      <c r="J29" s="391"/>
-      <c r="K29" s="392"/>
-      <c r="L29" s="392"/>
-      <c r="M29" s="392"/>
-      <c r="N29" s="392"/>
-      <c r="O29" s="392"/>
-      <c r="P29" s="393"/>
-      <c r="Q29" s="394"/>
-      <c r="R29" s="395"/>
-      <c r="S29" s="395"/>
-      <c r="T29" s="395"/>
-      <c r="U29" s="395"/>
-      <c r="V29" s="395"/>
-      <c r="W29" s="395"/>
-      <c r="X29" s="395"/>
-      <c r="Y29" s="395"/>
-      <c r="Z29" s="395"/>
-      <c r="AA29" s="395"/>
-      <c r="AB29" s="395"/>
-      <c r="AC29" s="395"/>
-      <c r="AD29" s="395"/>
-      <c r="AE29" s="396"/>
-      <c r="AF29" s="391"/>
-      <c r="AG29" s="392"/>
-      <c r="AH29" s="392"/>
-      <c r="AI29" s="393"/>
+      <c r="B29" s="422"/>
+      <c r="C29" s="423"/>
+      <c r="D29" s="424"/>
+      <c r="E29" s="425"/>
+      <c r="F29" s="426"/>
+      <c r="G29" s="422"/>
+      <c r="H29" s="427"/>
+      <c r="I29" s="423"/>
+      <c r="J29" s="428"/>
+      <c r="K29" s="429"/>
+      <c r="L29" s="429"/>
+      <c r="M29" s="429"/>
+      <c r="N29" s="429"/>
+      <c r="O29" s="429"/>
+      <c r="P29" s="430"/>
+      <c r="Q29" s="431"/>
+      <c r="R29" s="432"/>
+      <c r="S29" s="432"/>
+      <c r="T29" s="432"/>
+      <c r="U29" s="432"/>
+      <c r="V29" s="432"/>
+      <c r="W29" s="432"/>
+      <c r="X29" s="432"/>
+      <c r="Y29" s="432"/>
+      <c r="Z29" s="432"/>
+      <c r="AA29" s="432"/>
+      <c r="AB29" s="432"/>
+      <c r="AC29" s="432"/>
+      <c r="AD29" s="432"/>
+      <c r="AE29" s="433"/>
+      <c r="AF29" s="428"/>
+      <c r="AG29" s="429"/>
+      <c r="AH29" s="429"/>
+      <c r="AI29" s="430"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="385"/>
-      <c r="C30" s="386"/>
-      <c r="D30" s="387"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="385"/>
-      <c r="H30" s="390"/>
-      <c r="I30" s="386"/>
-      <c r="J30" s="391"/>
-      <c r="K30" s="392"/>
-      <c r="L30" s="392"/>
-      <c r="M30" s="392"/>
-      <c r="N30" s="392"/>
-      <c r="O30" s="392"/>
-      <c r="P30" s="393"/>
-      <c r="Q30" s="394"/>
-      <c r="R30" s="395"/>
-      <c r="S30" s="395"/>
-      <c r="T30" s="395"/>
-      <c r="U30" s="395"/>
-      <c r="V30" s="395"/>
-      <c r="W30" s="395"/>
-      <c r="X30" s="395"/>
-      <c r="Y30" s="395"/>
-      <c r="Z30" s="395"/>
-      <c r="AA30" s="395"/>
-      <c r="AB30" s="395"/>
-      <c r="AC30" s="395"/>
-      <c r="AD30" s="395"/>
-      <c r="AE30" s="396"/>
-      <c r="AF30" s="391"/>
-      <c r="AG30" s="392"/>
-      <c r="AH30" s="392"/>
-      <c r="AI30" s="393"/>
+      <c r="B30" s="422"/>
+      <c r="C30" s="423"/>
+      <c r="D30" s="424"/>
+      <c r="E30" s="425"/>
+      <c r="F30" s="426"/>
+      <c r="G30" s="422"/>
+      <c r="H30" s="427"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="428"/>
+      <c r="K30" s="429"/>
+      <c r="L30" s="429"/>
+      <c r="M30" s="429"/>
+      <c r="N30" s="429"/>
+      <c r="O30" s="429"/>
+      <c r="P30" s="430"/>
+      <c r="Q30" s="431"/>
+      <c r="R30" s="432"/>
+      <c r="S30" s="432"/>
+      <c r="T30" s="432"/>
+      <c r="U30" s="432"/>
+      <c r="V30" s="432"/>
+      <c r="W30" s="432"/>
+      <c r="X30" s="432"/>
+      <c r="Y30" s="432"/>
+      <c r="Z30" s="432"/>
+      <c r="AA30" s="432"/>
+      <c r="AB30" s="432"/>
+      <c r="AC30" s="432"/>
+      <c r="AD30" s="432"/>
+      <c r="AE30" s="433"/>
+      <c r="AF30" s="428"/>
+      <c r="AG30" s="429"/>
+      <c r="AH30" s="429"/>
+      <c r="AI30" s="430"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="385"/>
-      <c r="C31" s="386"/>
-      <c r="D31" s="387"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="385"/>
-      <c r="H31" s="390"/>
-      <c r="I31" s="386"/>
-      <c r="J31" s="391"/>
-      <c r="K31" s="392"/>
-      <c r="L31" s="392"/>
-      <c r="M31" s="392"/>
-      <c r="N31" s="392"/>
-      <c r="O31" s="392"/>
-      <c r="P31" s="393"/>
-      <c r="Q31" s="394"/>
-      <c r="R31" s="395"/>
-      <c r="S31" s="395"/>
-      <c r="T31" s="395"/>
-      <c r="U31" s="395"/>
-      <c r="V31" s="395"/>
-      <c r="W31" s="395"/>
-      <c r="X31" s="395"/>
-      <c r="Y31" s="395"/>
-      <c r="Z31" s="395"/>
-      <c r="AA31" s="395"/>
-      <c r="AB31" s="395"/>
-      <c r="AC31" s="395"/>
-      <c r="AD31" s="395"/>
-      <c r="AE31" s="396"/>
-      <c r="AF31" s="391"/>
-      <c r="AG31" s="392"/>
-      <c r="AH31" s="392"/>
-      <c r="AI31" s="393"/>
+      <c r="B31" s="422"/>
+      <c r="C31" s="423"/>
+      <c r="D31" s="424"/>
+      <c r="E31" s="425"/>
+      <c r="F31" s="426"/>
+      <c r="G31" s="422"/>
+      <c r="H31" s="427"/>
+      <c r="I31" s="423"/>
+      <c r="J31" s="428"/>
+      <c r="K31" s="429"/>
+      <c r="L31" s="429"/>
+      <c r="M31" s="429"/>
+      <c r="N31" s="429"/>
+      <c r="O31" s="429"/>
+      <c r="P31" s="430"/>
+      <c r="Q31" s="431"/>
+      <c r="R31" s="432"/>
+      <c r="S31" s="432"/>
+      <c r="T31" s="432"/>
+      <c r="U31" s="432"/>
+      <c r="V31" s="432"/>
+      <c r="W31" s="432"/>
+      <c r="X31" s="432"/>
+      <c r="Y31" s="432"/>
+      <c r="Z31" s="432"/>
+      <c r="AA31" s="432"/>
+      <c r="AB31" s="432"/>
+      <c r="AC31" s="432"/>
+      <c r="AD31" s="432"/>
+      <c r="AE31" s="433"/>
+      <c r="AF31" s="428"/>
+      <c r="AG31" s="429"/>
+      <c r="AH31" s="429"/>
+      <c r="AI31" s="430"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="385"/>
-      <c r="C32" s="386"/>
-      <c r="D32" s="387"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="385"/>
-      <c r="H32" s="390"/>
-      <c r="I32" s="386"/>
-      <c r="J32" s="391"/>
-      <c r="K32" s="397"/>
-      <c r="L32" s="392"/>
-      <c r="M32" s="392"/>
-      <c r="N32" s="392"/>
-      <c r="O32" s="392"/>
-      <c r="P32" s="393"/>
-      <c r="Q32" s="394"/>
-      <c r="R32" s="395"/>
-      <c r="S32" s="395"/>
-      <c r="T32" s="395"/>
-      <c r="U32" s="395"/>
-      <c r="V32" s="395"/>
-      <c r="W32" s="395"/>
-      <c r="X32" s="395"/>
-      <c r="Y32" s="395"/>
-      <c r="Z32" s="395"/>
-      <c r="AA32" s="395"/>
-      <c r="AB32" s="395"/>
-      <c r="AC32" s="395"/>
-      <c r="AD32" s="395"/>
-      <c r="AE32" s="396"/>
-      <c r="AF32" s="391"/>
-      <c r="AG32" s="392"/>
-      <c r="AH32" s="392"/>
-      <c r="AI32" s="393"/>
+      <c r="B32" s="422"/>
+      <c r="C32" s="423"/>
+      <c r="D32" s="424"/>
+      <c r="E32" s="425"/>
+      <c r="F32" s="426"/>
+      <c r="G32" s="422"/>
+      <c r="H32" s="427"/>
+      <c r="I32" s="423"/>
+      <c r="J32" s="428"/>
+      <c r="K32" s="447"/>
+      <c r="L32" s="429"/>
+      <c r="M32" s="429"/>
+      <c r="N32" s="429"/>
+      <c r="O32" s="429"/>
+      <c r="P32" s="430"/>
+      <c r="Q32" s="431"/>
+      <c r="R32" s="432"/>
+      <c r="S32" s="432"/>
+      <c r="T32" s="432"/>
+      <c r="U32" s="432"/>
+      <c r="V32" s="432"/>
+      <c r="W32" s="432"/>
+      <c r="X32" s="432"/>
+      <c r="Y32" s="432"/>
+      <c r="Z32" s="432"/>
+      <c r="AA32" s="432"/>
+      <c r="AB32" s="432"/>
+      <c r="AC32" s="432"/>
+      <c r="AD32" s="432"/>
+      <c r="AE32" s="433"/>
+      <c r="AF32" s="428"/>
+      <c r="AG32" s="429"/>
+      <c r="AH32" s="429"/>
+      <c r="AI32" s="430"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="385"/>
-      <c r="C33" s="386"/>
-      <c r="D33" s="387"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="385"/>
-      <c r="H33" s="390"/>
-      <c r="I33" s="386"/>
-      <c r="J33" s="391"/>
-      <c r="K33" s="392"/>
-      <c r="L33" s="392"/>
-      <c r="M33" s="392"/>
-      <c r="N33" s="392"/>
-      <c r="O33" s="392"/>
-      <c r="P33" s="393"/>
-      <c r="Q33" s="394"/>
-      <c r="R33" s="395"/>
-      <c r="S33" s="395"/>
-      <c r="T33" s="395"/>
-      <c r="U33" s="395"/>
-      <c r="V33" s="395"/>
-      <c r="W33" s="395"/>
-      <c r="X33" s="395"/>
-      <c r="Y33" s="395"/>
-      <c r="Z33" s="395"/>
-      <c r="AA33" s="395"/>
-      <c r="AB33" s="395"/>
-      <c r="AC33" s="395"/>
-      <c r="AD33" s="395"/>
-      <c r="AE33" s="396"/>
-      <c r="AF33" s="391"/>
-      <c r="AG33" s="392"/>
-      <c r="AH33" s="392"/>
-      <c r="AI33" s="393"/>
+      <c r="B33" s="422"/>
+      <c r="C33" s="423"/>
+      <c r="D33" s="424"/>
+      <c r="E33" s="425"/>
+      <c r="F33" s="426"/>
+      <c r="G33" s="422"/>
+      <c r="H33" s="427"/>
+      <c r="I33" s="423"/>
+      <c r="J33" s="428"/>
+      <c r="K33" s="429"/>
+      <c r="L33" s="429"/>
+      <c r="M33" s="429"/>
+      <c r="N33" s="429"/>
+      <c r="O33" s="429"/>
+      <c r="P33" s="430"/>
+      <c r="Q33" s="431"/>
+      <c r="R33" s="432"/>
+      <c r="S33" s="432"/>
+      <c r="T33" s="432"/>
+      <c r="U33" s="432"/>
+      <c r="V33" s="432"/>
+      <c r="W33" s="432"/>
+      <c r="X33" s="432"/>
+      <c r="Y33" s="432"/>
+      <c r="Z33" s="432"/>
+      <c r="AA33" s="432"/>
+      <c r="AB33" s="432"/>
+      <c r="AC33" s="432"/>
+      <c r="AD33" s="432"/>
+      <c r="AE33" s="433"/>
+      <c r="AF33" s="428"/>
+      <c r="AG33" s="429"/>
+      <c r="AH33" s="429"/>
+      <c r="AI33" s="430"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -8980,162 +9142,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -9173,7 +9179,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -9183,20 +9189,20 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>0</v>
@@ -9207,7 +9213,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -9215,7 +9221,7 @@
     </row>
     <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -9240,7 +9246,7 @@
     </row>
     <row r="10" spans="1:17" s="31" customFormat="1">
       <c r="A10" s="35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>8</v>
@@ -9255,10 +9261,10 @@
         <v>83</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H10" s="84" t="s">
         <v>11</v>
@@ -9273,7 +9279,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>4</v>
@@ -9312,27 +9318,27 @@
         <v>76</v>
       </c>
       <c r="J11" s="91" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K11" s="91" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N11" s="129">
         <v>43658</v>
       </c>
       <c r="O11" s="101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="92"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="373" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B12" s="374"/>
       <c r="C12" s="49" t="s">
@@ -9343,13 +9349,13 @@
       <c r="F12" s="132"/>
       <c r="G12" s="133"/>
       <c r="H12" s="134" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I12" s="135" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J12" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K12" s="135"/>
       <c r="L12" s="52"/>
@@ -9361,7 +9367,7 @@
     </row>
     <row r="13" spans="1:17" s="31" customFormat="1" ht="56.25">
       <c r="A13" s="373" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" s="375"/>
       <c r="C13" s="138" t="s">
@@ -9371,7 +9377,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="139" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F13" s="140"/>
       <c r="G13" s="141"/>
@@ -9379,10 +9385,10 @@
         <v>21</v>
       </c>
       <c r="I13" s="142" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J13" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K13" s="142"/>
       <c r="L13" s="143"/>
@@ -9394,13 +9400,13 @@
     </row>
     <row r="14" spans="1:17" s="31" customFormat="1">
       <c r="A14" s="373" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" s="375"/>
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
       <c r="E14" s="148" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="149"/>
@@ -9411,7 +9417,7 @@
         <v>22</v>
       </c>
       <c r="J14" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="58"/>
@@ -9423,7 +9429,7 @@
     </row>
     <row r="15" spans="1:17" s="31" customFormat="1" ht="56.25">
       <c r="A15" s="373" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" s="375"/>
       <c r="C15" s="55"/>
@@ -9437,10 +9443,10 @@
         <v>21</v>
       </c>
       <c r="I15" s="152" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J15" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K15" s="152"/>
       <c r="L15" s="153"/>
@@ -9452,13 +9458,13 @@
     </row>
     <row r="16" spans="1:17" s="31" customFormat="1" ht="67.5">
       <c r="A16" s="373" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" s="375"/>
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
       <c r="E16" s="148" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="149"/>
@@ -9466,10 +9472,10 @@
         <v>21</v>
       </c>
       <c r="I16" s="152" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J16" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K16" s="152"/>
       <c r="L16" s="153"/>
@@ -9481,7 +9487,7 @@
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1">
       <c r="A17" s="376" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" s="374"/>
       <c r="C17" s="61"/>
@@ -9498,7 +9504,7 @@
         <v>81</v>
       </c>
       <c r="J17" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K17" s="158"/>
       <c r="L17" s="52"/>
@@ -9510,7 +9516,7 @@
     </row>
     <row r="18" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A18" s="376" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" s="374"/>
       <c r="C18" s="56"/>
@@ -9527,7 +9533,7 @@
         <v>28</v>
       </c>
       <c r="J18" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K18" s="160"/>
       <c r="L18" s="52"/>
@@ -9539,7 +9545,7 @@
     </row>
     <row r="19" spans="1:17" s="31" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="93" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="56"/>
@@ -9547,16 +9553,16 @@
         <v>78</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F19" s="132" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G19" s="133" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H19" s="157" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I19" s="160" t="s">
         <v>28</v>
@@ -9572,22 +9578,22 @@
     </row>
     <row r="20" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A20" s="93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="56"/>
       <c r="D20" s="161"/>
       <c r="E20" s="148" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G20" s="149" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H20" s="322" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I20" s="323" t="s">
         <v>28</v>
@@ -9603,22 +9609,22 @@
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A21" s="93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="56"/>
       <c r="D21" s="161"/>
       <c r="E21" s="328" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F21" s="163" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G21" s="164" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H21" s="165" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I21" s="329" t="s">
         <v>28</v>
@@ -9634,22 +9640,22 @@
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A22" s="94" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="56"/>
       <c r="D22" s="161"/>
       <c r="E22" s="328" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F22" s="163" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G22" s="164" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H22" s="165" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I22" s="329" t="s">
         <v>28</v>
@@ -9665,7 +9671,7 @@
     </row>
     <row r="23" spans="1:17" ht="22.5">
       <c r="A23" s="377" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" s="374"/>
       <c r="C23" s="56"/>
@@ -9684,7 +9690,7 @@
         <v>79</v>
       </c>
       <c r="J23" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K23" s="166"/>
       <c r="L23" s="167"/>
@@ -9696,7 +9702,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="377" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" s="374"/>
       <c r="C24" s="61"/>
@@ -9713,7 +9719,7 @@
         <v>79</v>
       </c>
       <c r="J24" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K24" s="166"/>
       <c r="L24" s="167"/>
@@ -9725,7 +9731,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="377" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B25" s="374"/>
       <c r="C25" s="61"/>
@@ -9742,7 +9748,7 @@
         <v>79</v>
       </c>
       <c r="J25" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K25" s="166"/>
       <c r="L25" s="167"/>
@@ -9754,7 +9760,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="377" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B26" s="374"/>
       <c r="C26" s="61"/>
@@ -9771,7 +9777,7 @@
         <v>79</v>
       </c>
       <c r="J26" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K26" s="166"/>
       <c r="L26" s="167"/>
@@ -9783,7 +9789,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="377" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" s="374"/>
       <c r="C27" s="61"/>
@@ -9800,7 +9806,7 @@
         <v>79</v>
       </c>
       <c r="J27" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K27" s="166"/>
       <c r="L27" s="167"/>
@@ -9812,7 +9818,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="377" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B28" s="374"/>
       <c r="C28" s="56"/>
@@ -9829,7 +9835,7 @@
         <v>24</v>
       </c>
       <c r="J28" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K28" s="176"/>
       <c r="L28" s="177"/>
@@ -9841,7 +9847,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="378" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="374"/>
       <c r="C29" s="56"/>
@@ -9858,7 +9864,7 @@
         <v>28</v>
       </c>
       <c r="J29" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K29" s="185"/>
       <c r="L29" s="186"/>
@@ -9870,7 +9876,7 @@
     </row>
     <row r="30" spans="1:17" ht="22.5">
       <c r="A30" s="376" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B30" s="374"/>
       <c r="C30" s="56"/>
@@ -9878,18 +9884,18 @@
         <v>128</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F30" s="182"/>
       <c r="G30" s="183"/>
       <c r="H30" s="184" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I30" s="191" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J30" s="135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K30" s="185"/>
       <c r="L30" s="186"/>
@@ -9901,15 +9907,15 @@
     </row>
     <row r="31" spans="1:17" s="31" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="376" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B31" s="375"/>
       <c r="C31" s="55"/>
       <c r="D31" s="192" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E31" s="193" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F31" s="182"/>
       <c r="G31" s="183"/>
@@ -9920,7 +9926,7 @@
         <v>120</v>
       </c>
       <c r="J31" s="195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K31" s="195"/>
       <c r="L31" s="196"/>
@@ -9932,13 +9938,13 @@
     </row>
     <row r="32" spans="1:17" s="31" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="376" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B32" s="375"/>
       <c r="C32" s="55"/>
       <c r="D32" s="63"/>
       <c r="E32" s="193" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F32" s="182"/>
       <c r="G32" s="183"/>
@@ -9949,7 +9955,7 @@
         <v>121</v>
       </c>
       <c r="J32" s="195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K32" s="195"/>
       <c r="L32" s="196"/>
@@ -9961,13 +9967,13 @@
     </row>
     <row r="33" spans="1:17" s="31" customFormat="1" ht="45">
       <c r="A33" s="376" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B33" s="375"/>
       <c r="C33" s="55"/>
       <c r="D33" s="63"/>
       <c r="E33" s="193" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F33" s="182"/>
       <c r="G33" s="183"/>
@@ -9978,7 +9984,7 @@
         <v>121</v>
       </c>
       <c r="J33" s="195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K33" s="195"/>
       <c r="L33" s="196"/>
@@ -9990,13 +9996,13 @@
     </row>
     <row r="34" spans="1:17" s="31" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="376" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B34" s="375"/>
       <c r="C34" s="55"/>
       <c r="D34" s="63"/>
       <c r="E34" s="193" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F34" s="182"/>
       <c r="G34" s="183"/>
@@ -10007,7 +10013,7 @@
         <v>119</v>
       </c>
       <c r="J34" s="195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K34" s="195"/>
       <c r="L34" s="196"/>
@@ -10019,13 +10025,13 @@
     </row>
     <row r="35" spans="1:17" ht="50.25" customHeight="1">
       <c r="A35" s="376" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B35" s="375"/>
       <c r="C35" s="55"/>
       <c r="D35" s="63"/>
       <c r="E35" s="193" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F35" s="182"/>
       <c r="G35" s="183"/>
@@ -10036,7 +10042,7 @@
         <v>122</v>
       </c>
       <c r="J35" s="195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K35" s="195"/>
       <c r="L35" s="201"/>
@@ -10048,13 +10054,13 @@
     </row>
     <row r="36" spans="1:17" ht="50.25" customHeight="1">
       <c r="A36" s="376" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B36" s="375"/>
       <c r="C36" s="55"/>
       <c r="D36" s="63"/>
       <c r="E36" s="193" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F36" s="182"/>
       <c r="G36" s="183"/>
@@ -10065,7 +10071,7 @@
         <v>122</v>
       </c>
       <c r="J36" s="195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K36" s="195"/>
       <c r="L36" s="201"/>
@@ -10077,24 +10083,24 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="376" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B37" s="375"/>
       <c r="C37" s="55"/>
       <c r="D37" s="63"/>
       <c r="E37" s="193" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F37" s="182"/>
       <c r="G37" s="183"/>
       <c r="H37" s="194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I37" s="195" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J37" s="195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K37" s="195"/>
       <c r="L37" s="201"/>
@@ -10106,24 +10112,24 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="376" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B38" s="375"/>
       <c r="C38" s="55"/>
       <c r="D38" s="63"/>
       <c r="E38" s="193" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F38" s="182"/>
       <c r="G38" s="183"/>
       <c r="H38" s="194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I38" s="195" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J38" s="195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K38" s="195"/>
       <c r="L38" s="201"/>
@@ -10135,13 +10141,13 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="376" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B39" s="375"/>
       <c r="C39" s="55"/>
       <c r="D39" s="64"/>
       <c r="E39" s="193" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F39" s="182"/>
       <c r="G39" s="183"/>
@@ -10152,7 +10158,7 @@
         <v>33</v>
       </c>
       <c r="J39" s="195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K39" s="195"/>
       <c r="L39" s="201"/>
@@ -10164,15 +10170,15 @@
     </row>
     <row r="40" spans="1:17" ht="59.25" customHeight="1">
       <c r="A40" s="370" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B40" s="375"/>
       <c r="C40" s="55"/>
       <c r="D40" s="204" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E40" s="193" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F40" s="182"/>
       <c r="G40" s="183"/>
@@ -10183,7 +10189,7 @@
         <v>121</v>
       </c>
       <c r="J40" s="195" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K40" s="195"/>
       <c r="L40" s="201"/>
@@ -10195,13 +10201,13 @@
     </row>
     <row r="41" spans="1:17" ht="45">
       <c r="A41" s="370" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B41" s="375"/>
       <c r="C41" s="55"/>
       <c r="D41" s="63"/>
       <c r="E41" s="193" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F41" s="182"/>
       <c r="G41" s="183"/>
@@ -10212,7 +10218,7 @@
         <v>121</v>
       </c>
       <c r="J41" s="195" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K41" s="195"/>
       <c r="L41" s="201"/>
@@ -10230,7 +10236,7 @@
       <c r="C42" s="55"/>
       <c r="D42" s="63"/>
       <c r="E42" s="193" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F42" s="182"/>
       <c r="G42" s="183"/>
@@ -10241,7 +10247,7 @@
         <v>123</v>
       </c>
       <c r="J42" s="195" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K42" s="195"/>
       <c r="L42" s="201"/>
@@ -10259,7 +10265,7 @@
       <c r="C43" s="55"/>
       <c r="D43" s="63"/>
       <c r="E43" s="193" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F43" s="182"/>
       <c r="G43" s="183"/>
@@ -10270,7 +10276,7 @@
         <v>123</v>
       </c>
       <c r="J43" s="195" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K43" s="195"/>
       <c r="L43" s="201"/>
@@ -10282,24 +10288,24 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="370" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B44" s="375"/>
       <c r="C44" s="55"/>
       <c r="D44" s="63"/>
       <c r="E44" s="205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F44" s="182"/>
       <c r="G44" s="183"/>
       <c r="H44" s="206" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I44" s="207" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J44" s="195" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K44" s="207"/>
       <c r="L44" s="208"/>
@@ -10311,7 +10317,7 @@
     </row>
     <row r="45" spans="1:17" ht="22.5">
       <c r="A45" s="370" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="210" t="s">
@@ -10319,18 +10325,18 @@
       </c>
       <c r="D45" s="211"/>
       <c r="E45" s="211" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F45" s="212"/>
       <c r="G45" s="213"/>
       <c r="H45" s="214" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I45" s="215" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J45" s="215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K45" s="215"/>
       <c r="L45" s="216"/>
@@ -10342,24 +10348,24 @@
     </row>
     <row r="46" spans="1:17" ht="22.5">
       <c r="A46" s="370" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
       <c r="D46" s="63"/>
       <c r="E46" s="219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F46" s="220"/>
       <c r="G46" s="221"/>
       <c r="H46" s="222" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I46" s="223" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J46" s="215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K46" s="223"/>
       <c r="L46" s="224"/>
@@ -10371,24 +10377,24 @@
     </row>
     <row r="47" spans="1:17" ht="22.5">
       <c r="A47" s="370" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
       <c r="D47" s="63"/>
       <c r="E47" s="227" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F47" s="228"/>
       <c r="G47" s="229"/>
       <c r="H47" s="230" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I47" s="231" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J47" s="215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K47" s="231"/>
       <c r="L47" s="232"/>
@@ -10400,24 +10406,24 @@
     </row>
     <row r="48" spans="1:17" ht="22.5">
       <c r="A48" s="370" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
       <c r="D48" s="63"/>
       <c r="E48" s="235" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F48" s="236"/>
       <c r="G48" s="237"/>
       <c r="H48" s="238" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I48" s="239" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J48" s="215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K48" s="239"/>
       <c r="L48" s="240"/>
@@ -10429,24 +10435,24 @@
     </row>
     <row r="49" spans="1:17" ht="33.75">
       <c r="A49" s="370" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
       <c r="D49" s="63"/>
       <c r="E49" s="243" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F49" s="244"/>
       <c r="G49" s="245"/>
       <c r="H49" s="246" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I49" s="247" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J49" s="215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K49" s="247"/>
       <c r="L49" s="248"/>
@@ -10458,24 +10464,24 @@
     </row>
     <row r="50" spans="1:17" ht="22.5">
       <c r="A50" s="370" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
       <c r="D50" s="63"/>
       <c r="E50" s="251" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F50" s="252"/>
       <c r="G50" s="253"/>
       <c r="H50" s="254" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I50" s="255" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J50" s="215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K50" s="255"/>
       <c r="L50" s="256"/>
@@ -10487,24 +10493,24 @@
     </row>
     <row r="51" spans="1:17" ht="22.5">
       <c r="A51" s="370" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
       <c r="D51" s="63"/>
       <c r="E51" s="259" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F51" s="260"/>
       <c r="G51" s="261"/>
       <c r="H51" s="262" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I51" s="263" t="s">
         <v>132</v>
       </c>
       <c r="J51" s="215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K51" s="263"/>
       <c r="L51" s="264"/>
@@ -10516,24 +10522,24 @@
     </row>
     <row r="52" spans="1:17" ht="22.5">
       <c r="A52" s="370" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
       <c r="D52" s="63"/>
       <c r="E52" s="267" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F52" s="268"/>
       <c r="G52" s="269"/>
       <c r="H52" s="270" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I52" s="271" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J52" s="215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K52" s="271"/>
       <c r="L52" s="272"/>
@@ -10545,24 +10551,24 @@
     </row>
     <row r="53" spans="1:17" ht="22.5">
       <c r="A53" s="370" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B53" s="275"/>
       <c r="C53" s="275"/>
       <c r="D53" s="63"/>
       <c r="E53" s="276" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F53" s="277"/>
       <c r="G53" s="278"/>
       <c r="H53" s="279" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I53" s="280" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J53" s="215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K53" s="280"/>
       <c r="L53" s="281"/>
@@ -10574,7 +10580,7 @@
     </row>
     <row r="54" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A54" s="42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B54" s="39" t="s">
         <v>34</v>
@@ -10583,10 +10589,10 @@
         <v>35</v>
       </c>
       <c r="D54" s="95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E54" s="96" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F54" s="97"/>
       <c r="G54" s="98"/>
@@ -10597,27 +10603,27 @@
         <v>37</v>
       </c>
       <c r="J54" s="100" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K54" s="100" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L54" s="46"/>
       <c r="M54" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N54" s="129">
         <v>43658</v>
       </c>
       <c r="O54" s="101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P54" s="47"/>
       <c r="Q54" s="102"/>
     </row>
     <row r="55" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A55" s="42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -10631,30 +10637,30 @@
         <v>36</v>
       </c>
       <c r="I55" s="99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J55" s="104" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K55" s="100" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L55" s="34"/>
       <c r="M55" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N55" s="129">
         <v>43658</v>
       </c>
       <c r="O55" s="101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P55" s="32"/>
       <c r="Q55" s="107"/>
     </row>
     <row r="56" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A56" s="42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -10668,30 +10674,30 @@
         <v>36</v>
       </c>
       <c r="I56" s="99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J56" s="100" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K56" s="100" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L56" s="34"/>
       <c r="M56" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N56" s="129">
         <v>43658</v>
       </c>
       <c r="O56" s="101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P56" s="32"/>
       <c r="Q56" s="107"/>
     </row>
     <row r="57" spans="1:17" s="43" customFormat="1" ht="33.75">
       <c r="A57" s="42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -10708,27 +10714,27 @@
         <v>37</v>
       </c>
       <c r="J57" s="104" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K57" s="104" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L57" s="34"/>
       <c r="M57" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N57" s="48">
         <v>43658</v>
       </c>
       <c r="O57" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P57" s="32"/>
       <c r="Q57" s="107"/>
     </row>
     <row r="58" spans="1:17" s="43" customFormat="1" ht="22.5">
       <c r="A58" s="42" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -10742,35 +10748,35 @@
         <v>36</v>
       </c>
       <c r="I58" s="99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J58" s="104" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K58" s="100" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L58" s="34"/>
       <c r="M58" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N58" s="129">
         <v>43658</v>
       </c>
       <c r="O58" s="101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P58" s="32"/>
       <c r="Q58" s="107"/>
     </row>
     <row r="59" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A59" s="370" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
       <c r="D59" s="372" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E59" s="284" t="s">
         <v>42</v>
@@ -10781,10 +10787,10 @@
         <v>36</v>
       </c>
       <c r="I59" s="287" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J59" s="323" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K59" s="288"/>
       <c r="L59" s="52"/>
@@ -10796,7 +10802,7 @@
     </row>
     <row r="60" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A60" s="370" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -10810,10 +10816,10 @@
         <v>36</v>
       </c>
       <c r="I60" s="287" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J60" s="323" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K60" s="288"/>
       <c r="L60" s="52"/>
@@ -10825,7 +10831,7 @@
     </row>
     <row r="61" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="370" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -10842,7 +10848,7 @@
         <v>37</v>
       </c>
       <c r="J61" s="323" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K61" s="288"/>
       <c r="L61" s="52"/>
@@ -10854,7 +10860,7 @@
     </row>
     <row r="62" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A62" s="42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -10873,27 +10879,27 @@
         <v>37</v>
       </c>
       <c r="J62" s="359" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K62" s="359" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L62" s="34"/>
       <c r="M62" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N62" s="48">
         <v>43658</v>
       </c>
       <c r="O62" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P62" s="32"/>
       <c r="Q62" s="360"/>
     </row>
     <row r="63" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A63" s="42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -10910,27 +10916,27 @@
         <v>37</v>
       </c>
       <c r="J63" s="359" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K63" s="359" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L63" s="34"/>
       <c r="M63" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N63" s="48">
         <v>43658</v>
       </c>
       <c r="O63" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P63" s="32"/>
       <c r="Q63" s="360"/>
     </row>
     <row r="64" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A64" s="370" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -10949,7 +10955,7 @@
         <v>50</v>
       </c>
       <c r="J64" s="288" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K64" s="288"/>
       <c r="L64" s="52"/>
@@ -10961,7 +10967,7 @@
     </row>
     <row r="65" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="370" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -10978,7 +10984,7 @@
         <v>50</v>
       </c>
       <c r="J65" s="288" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K65" s="288"/>
       <c r="L65" s="52"/>
@@ -10990,7 +10996,7 @@
     </row>
     <row r="66" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="370" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -11007,7 +11013,7 @@
         <v>50</v>
       </c>
       <c r="J66" s="288" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K66" s="288"/>
       <c r="L66" s="52"/>
@@ -11019,7 +11025,7 @@
     </row>
     <row r="67" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -11028,10 +11034,10 @@
         <v>138</v>
       </c>
       <c r="F67" s="285" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G67" s="286" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H67" s="287" t="s">
         <v>32</v>
@@ -11050,7 +11056,7 @@
     </row>
     <row r="68" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="370" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -11067,7 +11073,7 @@
         <v>50</v>
       </c>
       <c r="J68" s="288" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K68" s="288"/>
       <c r="L68" s="52"/>
@@ -11079,13 +11085,13 @@
     </row>
     <row r="69" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="370" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
       <c r="D69" s="56"/>
       <c r="E69" s="288" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F69" s="285"/>
       <c r="G69" s="286"/>
@@ -11096,7 +11102,7 @@
         <v>50</v>
       </c>
       <c r="J69" s="288" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K69" s="288"/>
       <c r="L69" s="52"/>
@@ -11108,7 +11114,7 @@
     </row>
     <row r="70" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="370" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -11125,7 +11131,7 @@
         <v>50</v>
       </c>
       <c r="J70" s="288" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K70" s="288"/>
       <c r="L70" s="52"/>
@@ -11137,13 +11143,13 @@
     </row>
     <row r="71" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="370" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
       <c r="D71" s="62"/>
       <c r="E71" s="288" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F71" s="285"/>
       <c r="G71" s="286"/>
@@ -11154,7 +11160,7 @@
         <v>50</v>
       </c>
       <c r="J71" s="288" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K71" s="288"/>
       <c r="L71" s="52"/>
@@ -11166,7 +11172,7 @@
     </row>
     <row r="72" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="370" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -11174,7 +11180,7 @@
         <v>135</v>
       </c>
       <c r="E72" s="288" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F72" s="285"/>
       <c r="G72" s="286"/>
@@ -11182,10 +11188,10 @@
         <v>32</v>
       </c>
       <c r="I72" s="65" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J72" s="288" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K72" s="288"/>
       <c r="L72" s="52"/>
@@ -11197,7 +11203,7 @@
     </row>
     <row r="73" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="370" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -11216,7 +11222,7 @@
         <v>54</v>
       </c>
       <c r="J73" s="288" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K73" s="288"/>
       <c r="L73" s="52"/>
@@ -11228,24 +11234,24 @@
     </row>
     <row r="74" spans="1:17" s="31" customFormat="1">
       <c r="A74" s="370" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
       <c r="D74" s="56"/>
       <c r="E74" s="288" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F74" s="285"/>
       <c r="G74" s="286"/>
       <c r="H74" s="287" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I74" s="290" t="s">
         <v>54</v>
       </c>
       <c r="J74" s="288" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K74" s="288"/>
       <c r="L74" s="52"/>
@@ -11257,7 +11263,7 @@
     </row>
     <row r="75" spans="1:17" s="31" customFormat="1">
       <c r="A75" s="370" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -11268,13 +11274,13 @@
       <c r="F75" s="285"/>
       <c r="G75" s="286"/>
       <c r="H75" s="287" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I75" s="290" t="s">
         <v>54</v>
       </c>
       <c r="J75" s="288" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K75" s="288"/>
       <c r="L75" s="52"/>
@@ -11286,7 +11292,7 @@
     </row>
     <row r="76" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="370" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -11299,13 +11305,13 @@
       <c r="F76" s="285"/>
       <c r="G76" s="286"/>
       <c r="H76" s="287" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I76" s="290" t="s">
         <v>54</v>
       </c>
       <c r="J76" s="288" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K76" s="288"/>
       <c r="L76" s="52"/>
@@ -11317,7 +11323,7 @@
     </row>
     <row r="77" spans="1:17" s="31" customFormat="1">
       <c r="A77" s="370" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -11328,13 +11334,13 @@
       <c r="F77" s="285"/>
       <c r="G77" s="286"/>
       <c r="H77" s="287" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I77" s="290" t="s">
         <v>54</v>
       </c>
       <c r="J77" s="288" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K77" s="288"/>
       <c r="L77" s="52"/>
@@ -11346,7 +11352,7 @@
     </row>
     <row r="78" spans="1:17" s="31" customFormat="1">
       <c r="A78" s="370" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -11363,7 +11369,7 @@
         <v>54</v>
       </c>
       <c r="J78" s="288" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K78" s="288"/>
       <c r="L78" s="52"/>
@@ -11375,7 +11381,7 @@
     </row>
     <row r="79" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A79" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -11386,33 +11392,33 @@
       <c r="F79" s="363"/>
       <c r="G79" s="364"/>
       <c r="H79" s="365" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I79" s="313" t="s">
         <v>54</v>
       </c>
       <c r="J79" s="112" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K79" s="112" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L79" s="34"/>
       <c r="M79" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N79" s="48">
         <v>43658</v>
       </c>
       <c r="O79" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P79" s="32"/>
       <c r="Q79" s="113"/>
     </row>
     <row r="80" spans="1:17" s="31" customFormat="1" ht="78.75">
       <c r="A80" s="42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -11423,27 +11429,27 @@
       <c r="H80" s="39"/>
       <c r="I80" s="39"/>
       <c r="J80" s="112" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K80" s="112" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L80" s="34"/>
       <c r="M80" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N80" s="48">
         <v>43658</v>
       </c>
       <c r="O80" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P80" s="32"/>
       <c r="Q80" s="113"/>
     </row>
     <row r="81" spans="1:17" s="31" customFormat="1" ht="22.5" hidden="1">
       <c r="A81" s="42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -11452,16 +11458,16 @@
       </c>
       <c r="E81" s="159"/>
       <c r="F81" s="132" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G81" s="133" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H81" s="287" t="s">
         <v>32</v>
       </c>
       <c r="I81" s="290" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J81" s="288"/>
       <c r="K81" s="288"/>
@@ -11474,7 +11480,7 @@
     </row>
     <row r="82" spans="1:17" s="31" customFormat="1" ht="33.75" customHeight="1">
       <c r="A82" s="42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="114" t="s">
@@ -11487,33 +11493,33 @@
       <c r="F82" s="116"/>
       <c r="G82" s="117"/>
       <c r="H82" s="114" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I82" s="114" t="s">
         <v>61</v>
       </c>
       <c r="J82" s="112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K82" s="112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L82" s="118"/>
       <c r="M82" s="119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N82" s="130">
         <v>43658</v>
       </c>
       <c r="O82" s="120" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P82" s="119"/>
       <c r="Q82" s="121"/>
     </row>
     <row r="83" spans="1:17" s="31" customFormat="1" ht="33.75" customHeight="1">
       <c r="A83" s="42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -11526,50 +11532,50 @@
       <c r="F83" s="116"/>
       <c r="G83" s="117"/>
       <c r="H83" s="114" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I83" s="114" t="s">
         <v>61</v>
       </c>
       <c r="J83" s="112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K83" s="112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L83" s="118"/>
       <c r="M83" s="119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N83" s="130">
         <v>43658</v>
       </c>
       <c r="O83" s="120" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P83" s="119"/>
       <c r="Q83" s="121"/>
     </row>
     <row r="84" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A84" s="370" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
       <c r="D84" s="292"/>
       <c r="E84" s="293" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F84" s="294"/>
       <c r="G84" s="295"/>
       <c r="H84" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I84" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J84" s="288" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K84" s="288"/>
       <c r="L84" s="296"/>
@@ -11581,7 +11587,7 @@
     </row>
     <row r="85" spans="1:17" s="31" customFormat="1" ht="33.75" customHeight="1">
       <c r="A85" s="42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -11592,33 +11598,33 @@
       <c r="F85" s="116"/>
       <c r="G85" s="117"/>
       <c r="H85" s="114" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I85" s="114" t="s">
         <v>61</v>
       </c>
       <c r="J85" s="112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K85" s="112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L85" s="118"/>
       <c r="M85" s="119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N85" s="130">
         <v>43658</v>
       </c>
       <c r="O85" s="120" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P85" s="119"/>
       <c r="Q85" s="121"/>
     </row>
     <row r="86" spans="1:17" s="31" customFormat="1" ht="33.75" customHeight="1">
       <c r="A86" s="42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -11629,33 +11635,33 @@
       <c r="F86" s="116"/>
       <c r="G86" s="117"/>
       <c r="H86" s="114" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I86" s="114" t="s">
         <v>61</v>
       </c>
       <c r="J86" s="112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K86" s="112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L86" s="118"/>
       <c r="M86" s="119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N86" s="130">
         <v>43658</v>
       </c>
       <c r="O86" s="120" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P86" s="119"/>
       <c r="Q86" s="121"/>
     </row>
     <row r="87" spans="1:17" s="31" customFormat="1" ht="33.75" customHeight="1">
       <c r="A87" s="42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -11666,48 +11672,48 @@
       <c r="F87" s="116"/>
       <c r="G87" s="117"/>
       <c r="H87" s="114" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I87" s="114" t="s">
         <v>61</v>
       </c>
       <c r="J87" s="112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K87" s="112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L87" s="118"/>
       <c r="M87" s="119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N87" s="130">
         <v>43658</v>
       </c>
       <c r="O87" s="120" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P87" s="119"/>
       <c r="Q87" s="121"/>
     </row>
     <row r="88" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
       <c r="D88" s="292" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E88" s="301"/>
       <c r="F88" s="294" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G88" s="295" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H88" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I88" s="290" t="s">
         <v>61</v>
@@ -11723,7 +11729,7 @@
     </row>
     <row r="89" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="42" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -11732,13 +11738,13 @@
       </c>
       <c r="E89" s="301"/>
       <c r="F89" s="294" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G89" s="295" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H89" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I89" s="290" t="s">
         <v>61</v>
@@ -11754,7 +11760,7 @@
     </row>
     <row r="90" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="42" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -11763,13 +11769,13 @@
       </c>
       <c r="E90" s="301"/>
       <c r="F90" s="294" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G90" s="295" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H90" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I90" s="290" t="s">
         <v>61</v>
@@ -11785,7 +11791,7 @@
     </row>
     <row r="91" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -11794,13 +11800,13 @@
       </c>
       <c r="E91" s="301"/>
       <c r="F91" s="294" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G91" s="295" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H91" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I91" s="290" t="s">
         <v>61</v>
@@ -11816,7 +11822,7 @@
     </row>
     <row r="92" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A92" s="42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -11825,13 +11831,13 @@
       </c>
       <c r="E92" s="301"/>
       <c r="F92" s="294" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G92" s="295" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H92" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I92" s="290" t="s">
         <v>61</v>
@@ -11847,7 +11853,7 @@
     </row>
     <row r="93" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="370" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -11858,13 +11864,13 @@
       <c r="F93" s="294"/>
       <c r="G93" s="295"/>
       <c r="H93" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I93" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J93" s="288" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K93" s="288"/>
       <c r="L93" s="296"/>
@@ -11876,7 +11882,7 @@
     </row>
     <row r="94" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="370" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -11887,13 +11893,13 @@
       <c r="F94" s="294"/>
       <c r="G94" s="295"/>
       <c r="H94" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I94" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J94" s="288" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K94" s="288"/>
       <c r="L94" s="296"/>
@@ -11905,7 +11911,7 @@
     </row>
     <row r="95" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="370" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -11916,13 +11922,13 @@
       <c r="F95" s="294"/>
       <c r="G95" s="295"/>
       <c r="H95" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I95" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J95" s="288" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K95" s="288"/>
       <c r="L95" s="296"/>
@@ -11934,7 +11940,7 @@
     </row>
     <row r="96" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="370" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -11945,13 +11951,13 @@
       <c r="F96" s="294"/>
       <c r="G96" s="295"/>
       <c r="H96" s="284" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I96" s="284" t="s">
         <v>61</v>
       </c>
       <c r="J96" s="288" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K96" s="302"/>
       <c r="L96" s="52"/>
@@ -11963,7 +11969,7 @@
     </row>
     <row r="97" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A97" s="370" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -11974,13 +11980,13 @@
       <c r="F97" s="294"/>
       <c r="G97" s="295"/>
       <c r="H97" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I97" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J97" s="288" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K97" s="288"/>
       <c r="L97" s="296"/>
@@ -11992,7 +11998,7 @@
     </row>
     <row r="98" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A98" s="42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -12001,13 +12007,13 @@
       </c>
       <c r="E98" s="301"/>
       <c r="F98" s="294" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G98" s="295" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H98" s="284" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I98" s="284" t="s">
         <v>61</v>
@@ -12023,24 +12029,24 @@
     </row>
     <row r="99" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="370" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
       <c r="D99" s="67" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E99" s="70"/>
       <c r="F99" s="294"/>
       <c r="G99" s="295"/>
       <c r="H99" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I99" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J99" s="288" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K99" s="288"/>
       <c r="L99" s="296"/>
@@ -12052,24 +12058,24 @@
     </row>
     <row r="100" spans="1:17" s="31" customFormat="1" ht="106.5" customHeight="1">
       <c r="A100" s="370" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
       <c r="D100" s="67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E100" s="70"/>
       <c r="F100" s="294"/>
       <c r="G100" s="295"/>
       <c r="H100" s="290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I100" s="290" t="s">
         <v>61</v>
       </c>
       <c r="J100" s="288" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K100" s="288"/>
       <c r="L100" s="296"/>
@@ -12081,7 +12087,7 @@
     </row>
     <row r="101" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1">
       <c r="A101" s="371" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -12092,13 +12098,13 @@
       <c r="F101" s="285"/>
       <c r="G101" s="286"/>
       <c r="H101" s="305" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I101" s="305" t="s">
         <v>61</v>
       </c>
       <c r="J101" s="306" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K101" s="306"/>
       <c r="L101" s="307"/>
@@ -12110,22 +12116,22 @@
     </row>
     <row r="102" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="125" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
       <c r="D102" s="67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E102" s="70"/>
       <c r="F102" s="285" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G102" s="286" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H102" s="56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I102" s="56" t="s">
         <v>61</v>
@@ -12141,7 +12147,7 @@
     </row>
     <row r="103" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A103" s="68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B103" s="69"/>
       <c r="C103" s="69"/>
@@ -12150,16 +12156,16 @@
       </c>
       <c r="E103" s="304"/>
       <c r="F103" s="285" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G103" s="286" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H103" s="305" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I103" s="305" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J103" s="306"/>
       <c r="K103" s="306"/>
@@ -12364,9 +12370,7 @@
   </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
@@ -12385,7 +12389,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -12395,20 +12399,20 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>0</v>
@@ -12416,10 +12420,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>1</v>
@@ -12449,7 +12453,7 @@
     </row>
     <row r="10" spans="1:17" s="31" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>8</v>
@@ -12464,10 +12468,10 @@
         <v>83</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>11</v>
@@ -12482,7 +12486,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>4</v>
@@ -12502,13 +12506,13 @@
     </row>
     <row r="11" spans="1:17" s="31" customFormat="1" ht="120.75" customHeight="1">
       <c r="A11" s="312" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B11" s="313" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="313" t="s">
-        <v>386</v>
+        <v>141</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>85</v>
@@ -12517,33 +12521,33 @@
       <c r="F11" s="76"/>
       <c r="G11" s="76"/>
       <c r="H11" s="313" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I11" s="313" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J11" s="108" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K11" s="108" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L11" s="314"/>
       <c r="M11" s="315" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N11" s="336">
         <v>43658</v>
       </c>
       <c r="O11" s="315" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P11" s="315"/>
       <c r="Q11" s="315"/>
     </row>
     <row r="12" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A12" s="337" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B12" s="72"/>
       <c r="C12" s="72"/>
@@ -12554,13 +12558,13 @@
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
       <c r="H12" s="339" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I12" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J12" s="340" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K12" s="340"/>
       <c r="L12" s="341"/>
@@ -12572,7 +12576,7 @@
     </row>
     <row r="13" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="337" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" s="72"/>
       <c r="C13" s="72"/>
@@ -12583,13 +12587,13 @@
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
       <c r="H13" s="339" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I13" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J13" s="340" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K13" s="340"/>
       <c r="L13" s="341"/>
@@ -12601,7 +12605,7 @@
     </row>
     <row r="14" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A14" s="337" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
@@ -12612,13 +12616,13 @@
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
       <c r="H14" s="339" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I14" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J14" s="340" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K14" s="340"/>
       <c r="L14" s="341"/>
@@ -12630,7 +12634,7 @@
     </row>
     <row r="15" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="337" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" s="72"/>
       <c r="C15" s="72"/>
@@ -12643,13 +12647,13 @@
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
       <c r="H15" s="339" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I15" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J15" s="340" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K15" s="340"/>
       <c r="L15" s="341"/>
@@ -12661,7 +12665,7 @@
     </row>
     <row r="16" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="337" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
@@ -12672,13 +12676,13 @@
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
       <c r="H16" s="339" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I16" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J16" s="340" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K16" s="340"/>
       <c r="L16" s="341"/>
@@ -12690,7 +12694,7 @@
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="337" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
@@ -12701,13 +12705,13 @@
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
       <c r="H17" s="339" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I17" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J17" s="340" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K17" s="340"/>
       <c r="L17" s="341"/>
@@ -12719,7 +12723,7 @@
     </row>
     <row r="18" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="337" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
@@ -12730,13 +12734,13 @@
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
       <c r="H18" s="339" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I18" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J18" s="340" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K18" s="340"/>
       <c r="L18" s="341"/>
@@ -12748,12 +12752,12 @@
     </row>
     <row r="19" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="337" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
       <c r="D19" s="74" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E19" s="65" t="s">
         <v>93</v>
@@ -12761,13 +12765,13 @@
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
       <c r="H19" s="339" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I19" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J19" s="340" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K19" s="340"/>
       <c r="L19" s="341"/>
@@ -12779,7 +12783,7 @@
     </row>
     <row r="20" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A20" s="337" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
@@ -12787,18 +12791,18 @@
         <v>102</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F20" s="77"/>
       <c r="G20" s="77"/>
       <c r="H20" s="339" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I20" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J20" s="340" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K20" s="340"/>
       <c r="L20" s="341"/>
@@ -12810,44 +12814,44 @@
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="379" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B21" s="380"/>
       <c r="C21" s="380"/>
       <c r="D21" s="448" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E21" s="449"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
       <c r="H21" s="313" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I21" s="313" t="s">
         <v>86</v>
       </c>
       <c r="J21" s="381" t="s">
+        <v>374</v>
+      </c>
+      <c r="K21" s="381" t="s">
         <v>373</v>
-      </c>
-      <c r="K21" s="381" t="s">
-        <v>372</v>
       </c>
       <c r="L21" s="382"/>
       <c r="M21" s="315" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N21" s="336">
         <v>43658</v>
       </c>
       <c r="O21" s="315" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P21" s="383"/>
       <c r="Q21" s="383"/>
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A22" s="337" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B22" s="72"/>
       <c r="C22" s="344" t="s">
@@ -12860,13 +12864,13 @@
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="H22" s="339" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I22" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J22" s="340" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K22" s="340"/>
       <c r="L22" s="341"/>
@@ -12878,7 +12882,7 @@
     </row>
     <row r="23" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="337" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
@@ -12889,13 +12893,13 @@
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="339" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I23" s="339" t="s">
         <v>86</v>
       </c>
       <c r="J23" s="340" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K23" s="340"/>
       <c r="L23" s="341"/>
@@ -12907,10 +12911,10 @@
     </row>
     <row r="24" spans="1:17" s="31" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A24" s="337" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" s="339" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" s="345" t="s">
         <v>100</v>
@@ -12918,10 +12922,10 @@
       <c r="D24" s="346"/>
       <c r="E24" s="347"/>
       <c r="F24" s="77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G24" s="348" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H24" s="74" t="s">
         <v>26</v>
@@ -12940,25 +12944,25 @@
     </row>
     <row r="25" spans="1:17" s="31" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A25" s="349" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" s="350"/>
       <c r="C25" s="351" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D25" s="352"/>
       <c r="E25" s="353"/>
       <c r="F25" s="77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" s="77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H25" s="354" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I25" s="354" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J25" s="355"/>
       <c r="K25" s="355"/>
